--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCowan\Projects\ce_expansion\data\bimetallic_results\icosahedron\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93888E74-6FE5-43A0-8F65-186EDDE8D07F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>n_atoms</t>
   </si>
@@ -29,6 +23,12 @@
   </si>
   <si>
     <t>composition_Cu</t>
+  </si>
+  <si>
+    <t>n_Ag</t>
+  </si>
+  <si>
+    <t>n_Cu</t>
   </si>
   <si>
     <t>CE</t>
@@ -40,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E318"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,3714 +414,5028 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.1524292349233689</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>-2.152429234923369</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C3">
-        <v>7.6923076923076927E-2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3">
-        <v>-2.2144255967318491</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>-3.1688362151149903E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-2.214425596731849</v>
+      </c>
+      <c r="G3">
+        <v>-0.0316883621511499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C4">
-        <v>0.15384615384615391</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D4">
-        <v>-2.2325469579972319</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>-1.9501723759202561E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>-2.232546957997232</v>
+      </c>
+      <c r="G4">
+        <v>-0.01950172375920256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C5">
-        <v>0.23076923076923081</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D5">
-        <v>-2.2544866958810221</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>-1.113346198566267E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>-2.254486695881022</v>
+      </c>
+      <c r="G5">
+        <v>-0.01113346198566267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C6">
-        <v>0.30769230769230771</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D6">
-        <v>-2.2802448103832189</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>-6.5835768305293474E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-2.280244810383219</v>
+      </c>
+      <c r="G6">
+        <v>-0.006583576830529347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C7">
-        <v>0.38461538461538458</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>-2.306002924885417</v>
       </c>
-      <c r="E7">
-        <v>-2.0336916753966872E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>-0.002033691675396687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C8">
-        <v>0.46153846153846162</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>-2.3317610393876151</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>2.516193479735751E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>-2.331761039387615</v>
+      </c>
+      <c r="G8">
+        <v>0.002516193479735751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C9">
-        <v>0.53846153846153844</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>-2.3613375305082189</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>3.2477020164614072E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>-2.361337530508219</v>
+      </c>
+      <c r="G9">
+        <v>0.003247702016461407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C10">
-        <v>0.61538461538461542</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>-2.387095645010417</v>
       </c>
-      <c r="E10">
-        <v>7.797587171594067E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0.007797587171594067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C11">
-        <v>0.69230769230769229</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D11">
-        <v>-2.4166721361310222</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>8.5290957083195007E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>-2.416672136131022</v>
+      </c>
+      <c r="G11">
+        <v>0.008529095708319501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C12">
-        <v>0.76923076923076927</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>-2.446248627251626</v>
       </c>
-      <c r="E12">
-        <v>9.2606042450451564E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.009260604245045156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C13">
-        <v>0.84615384615384615</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
         <v>-2.475825118372232</v>
       </c>
-      <c r="E13">
-        <v>9.992112781769924E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.009992112781769924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C14">
-        <v>0.92307692307692313</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D14">
-        <v>-2.5092199861112432</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>6.9052447000887973E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>-2.509219986111243</v>
+      </c>
+      <c r="G14">
+        <v>0.006905244700088797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-2.5464332304686619</v>
+        <v>0</v>
       </c>
       <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>-2.546433230468662</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-2.4662095902928631</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-2.466209590292863</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>55</v>
       </c>
       <c r="B17">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C17">
-        <v>1.8181818181818181E-2</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="D17">
-        <v>-2.4748795866204252</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>-4.6196440917611881E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-2.474879586620425</v>
+      </c>
+      <c r="G17">
+        <v>-0.0004619644091761188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>55</v>
       </c>
       <c r="B18">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C18">
-        <v>3.6363636363636362E-2</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="D18">
-        <v>-2.4841877647661681</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>-1.5621106365326649E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>-2.484187764766168</v>
+      </c>
+      <c r="G18">
+        <v>-0.001562110636532665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C19">
-        <v>5.4545454545454543E-2</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D19">
-        <v>-2.4941341247300932</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>-3.300438682071416E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>-2.494134124730093</v>
+      </c>
+      <c r="G19">
+        <v>-0.003300438682071416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>55</v>
       </c>
       <c r="B20">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C20">
-        <v>7.2727272727272724E-2</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
         <v>-2.504080484694017</v>
       </c>
-      <c r="E20">
-        <v>-5.0387667276101666E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>-0.005038766727610167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C21">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
         <v>-2.514026844657943</v>
       </c>
-      <c r="E21">
-        <v>-6.7770947731489173E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>-0.006777094773148917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>55</v>
       </c>
       <c r="B22">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C22">
         <v>0.1090909090909091</v>
       </c>
       <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
         <v>-2.524611386440049</v>
       </c>
-      <c r="E22">
-        <v>-9.1536046368689838E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>-0.009153604636868984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C23">
-        <v>0.12727272727272729</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="D23">
-        <v>-2.5345577464039728</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>-1.089193268240729E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>-2.534557746403973</v>
+      </c>
+      <c r="G23">
+        <v>-0.01089193268240729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C24">
-        <v>0.14545454545454539</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="D24">
-        <v>-2.5451422881860801</v>
+        <v>47</v>
       </c>
       <c r="E24">
-        <v>-1.326844254612825E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>-2.54514228818608</v>
+      </c>
+      <c r="G24">
+        <v>-0.01326844254612825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C25">
-        <v>0.16363636363636361</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
         <v>-2.556236833640626</v>
       </c>
-      <c r="E25">
-        <v>-1.6154956082287342E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>-0.01615495608228734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C26">
         <v>0.1818181818181818</v>
       </c>
       <c r="D26">
-        <v>-2.5674595572409151</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>-1.9169647764190501E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-2.567459557240915</v>
+      </c>
+      <c r="G26">
+        <v>-0.0191696477641905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
         <v>-2.578682280841202</v>
       </c>
-      <c r="E27">
-        <v>-2.2184339446091661E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>-0.02218433944609166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C28">
         <v>0.2181818181818182</v>
       </c>
       <c r="D28">
-        <v>-2.5905431862596719</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>-2.5837212946175251E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>-2.590543186259672</v>
+      </c>
+      <c r="G28">
+        <v>-0.02583721294617525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>55</v>
       </c>
       <c r="B29">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C29">
-        <v>0.23636363636363639</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D29">
-        <v>-2.6030422734963241</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>-3.0128268264440591E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>-2.603042273496324</v>
+      </c>
+      <c r="G29">
+        <v>-0.03012826826444059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>55</v>
       </c>
       <c r="B30">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C30">
-        <v>0.25454545454545452</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
         <v>-2.609229151880867</v>
       </c>
-      <c r="E30">
-        <v>-2.8107114730597349E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>-0.02810711473059735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>55</v>
       </c>
       <c r="B31">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C31">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D31">
-        <v>-2.6161976401742431</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>-2.686757110558724E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>-2.616197640174243</v>
+      </c>
+      <c r="G31">
+        <v>-0.02686757110558724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>55</v>
       </c>
       <c r="B32">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C32">
-        <v>0.29090909090909089</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="D32">
-        <v>-2.6239477383764509</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>-2.6409637389409161E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>-2.623947738376451</v>
+      </c>
+      <c r="G32">
+        <v>-0.02640963738940916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C33">
-        <v>0.30909090909090908</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="D33">
-        <v>-2.6309162266698261</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>-2.517009376439883E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>-2.630916226669826</v>
+      </c>
+      <c r="G33">
+        <v>-0.02517009376439883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C34">
-        <v>0.32727272727272733</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="D34">
-        <v>-2.6378847149632021</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>-2.3930550139388052E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>-2.637884714963202</v>
+      </c>
+      <c r="G34">
+        <v>-0.02393055013938805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>55</v>
       </c>
       <c r="B35">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C35">
-        <v>0.34545454545454551</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
         <v>-2.644853203256579</v>
       </c>
-      <c r="E35">
-        <v>-2.2691006514378831E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>-0.02269100651437883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>55</v>
       </c>
       <c r="B36">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C36">
-        <v>0.36363636363636359</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D36">
-        <v>-2.6533849113676209</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>-2.3014682707034551E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>-2.653384911367621</v>
+      </c>
+      <c r="G36">
+        <v>-0.02301468270703455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>55</v>
       </c>
       <c r="B37">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C37">
-        <v>0.38181818181818178</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
         <v>-2.660353399660996</v>
       </c>
-      <c r="E37">
-        <v>-2.177513908202355E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>-0.02177513908202355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>55</v>
       </c>
       <c r="B38">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C38">
         <v>0.4</v>
       </c>
       <c r="D38">
-        <v>-2.6673218879543721</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>-2.0535595457012779E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>-2.667321887954372</v>
+      </c>
+      <c r="G38">
+        <v>-0.02053559545701278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>55</v>
       </c>
       <c r="B39">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C39">
-        <v>0.41818181818181821</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="D39">
-        <v>-2.6742903762477468</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>-1.9296051832002451E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>-2.674290376247747</v>
+      </c>
+      <c r="G39">
+        <v>-0.01929605183200245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C40">
-        <v>0.43636363636363629</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="D40">
-        <v>-2.6812588645411242</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <v>-1.8056508206992779E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>-2.682040474449958</v>
+      </c>
+      <c r="G40">
+        <v>-0.01883811811582681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>55</v>
       </c>
       <c r="B41">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C41">
-        <v>0.45454545454545447</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D41">
-        <v>-2.6905721825609992</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>-1.9161794308481639E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>-2.690572182560999</v>
+      </c>
+      <c r="G41">
+        <v>-0.01916179430848164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C42">
-        <v>0.47272727272727272</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="D42">
-        <v>-2.6975406708543739</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>-1.7922250683470201E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>-2.697540670854374</v>
+      </c>
+      <c r="G42">
+        <v>-0.0179222506834702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C43">
-        <v>0.49090909090909091</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="D43">
-        <v>-2.7060723789654171</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>-1.8245926876127031E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>-2.706072378965417</v>
+      </c>
+      <c r="G43">
+        <v>-0.01824592687612703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>55</v>
       </c>
       <c r="B44">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C44">
-        <v>0.50909090909090904</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+      <c r="F44">
         <v>-2.713040867258794</v>
       </c>
-      <c r="E44">
-        <v>-1.7006383251117582E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>-0.01700638325111758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>55</v>
       </c>
       <c r="B45">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C45">
-        <v>0.52727272727272723</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D45">
-        <v>-2.7215725753698359</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>-1.7330059443774411E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>-2.721572575369836</v>
+      </c>
+      <c r="G45">
+        <v>-0.01733005944377441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>55</v>
       </c>
       <c r="B46">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C46">
-        <v>0.54545454545454541</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D46">
-        <v>-2.7301042834808791</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>-1.765373563643036E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>-2.730104283480879</v>
+      </c>
+      <c r="G46">
+        <v>-0.01765373563643036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C47">
         <v>0.5636363636363636</v>
       </c>
       <c r="D47">
-        <v>-2.7370727717742538</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>-1.64141920114198E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>-2.737072771774254</v>
+      </c>
+      <c r="G47">
+        <v>-0.0164141920114198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>55</v>
       </c>
       <c r="B48">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C48">
-        <v>0.58181818181818179</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="D48">
-        <v>-2.7440412600676289</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>-1.517464838640881E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>-2.744822869976463</v>
+      </c>
+      <c r="G48">
+        <v>-0.01595625829524283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C49">
         <v>0.6</v>
       </c>
       <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
         <v>-2.751009748361005</v>
       </c>
-      <c r="E49">
-        <v>-1.393510476139781E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>-0.01393510476139781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C50">
-        <v>0.61818181818181817</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D50">
-        <v>-2.7611046762897149</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>-1.5822000771721911E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>-2.761104676289715</v>
+      </c>
+      <c r="G50">
+        <v>-0.01582200077172191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C51">
-        <v>0.63636363636363635</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D51">
-        <v>-2.7688547744919241</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>-1.536406705554438E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>-2.768854774491924</v>
+      </c>
+      <c r="G51">
+        <v>-0.01536406705554438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C52">
-        <v>0.65454545454545454</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="D52">
-        <v>-2.7773864826029659</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>-1.5687743248200658E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>-2.777386482602966</v>
+      </c>
+      <c r="G52">
+        <v>-0.01568774324820066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C53">
-        <v>0.67272727272727273</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+      <c r="F53">
         <v>-2.784354970896342</v>
       </c>
-      <c r="E53">
-        <v>-1.4448199623189989E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>-0.01444819962318999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C54">
-        <v>0.69090909090909092</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="F54">
         <v>-2.793668288916217</v>
       </c>
-      <c r="E54">
-        <v>-1.5553485724679629E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>-0.01555348572467963</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C55">
-        <v>0.70909090909090911</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D55">
-        <v>-2.8014183871184271</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>-1.509555200850321E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>-2.801418387118427</v>
+      </c>
+      <c r="G55">
+        <v>-0.01509555200850321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C56">
-        <v>0.72727272727272729</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D56">
-        <v>-2.8099500952294698</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>-1.5419228201159931E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>-2.80995009522947</v>
+      </c>
+      <c r="G56">
+        <v>-0.01541922820115993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C57">
-        <v>0.74545454545454548</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="F57">
         <v>-2.817700193431679</v>
       </c>
-      <c r="E57">
-        <v>-1.4961294484982179E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>-0.01496129448498218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C58">
-        <v>0.76363636363636367</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="D58">
-        <v>-2.8262319015427222</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>-1.5284970677639341E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>-2.826231901542722</v>
+      </c>
+      <c r="G58">
+        <v>-0.01528497067763934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C59">
-        <v>0.78181818181818186</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
         <v>-2.835545219562599</v>
       </c>
-      <c r="E59">
-        <v>-1.6390256779129642E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>-0.01639025677912964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C60">
         <v>0.8</v>
       </c>
       <c r="D60">
-        <v>-2.8423873967493898</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>-1.5024402047534861E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>-2.84238739674939</v>
+      </c>
+      <c r="G60">
+        <v>-0.01502440204753486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>55</v>
       </c>
       <c r="B61">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C61">
-        <v>0.81818181818181823</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>45</v>
+      </c>
+      <c r="F61">
         <v>-2.849229573936181</v>
       </c>
-      <c r="E61">
-        <v>-1.365854731594052E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>-0.01365854731594052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>55</v>
       </c>
       <c r="B62">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C62">
-        <v>0.83636363636363631</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="D62">
-        <v>-2.8560717511229732</v>
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>-1.229269258434545E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>-2.856071751122973</v>
+      </c>
+      <c r="G62">
+        <v>-0.01229269258434545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C63">
         <v>0.8545454545454545</v>
       </c>
       <c r="D63">
-        <v>-2.8629139283097649</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>-1.092683785275156E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F63">
+        <v>-2.862913928309765</v>
+      </c>
+      <c r="G63">
+        <v>-0.01092683785275156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>55</v>
       </c>
       <c r="B64">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C64">
-        <v>0.87272727272727268</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="D64">
-        <v>-2.8697561054965561</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>-9.5609831211563301E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>-2.869756105496556</v>
+      </c>
+      <c r="G64">
+        <v>-0.00956098312115633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>55</v>
       </c>
       <c r="B65">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C65">
-        <v>0.89090909090909087</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="D65">
-        <v>-2.8765982826833492</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>-8.1951283895628779E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>-2.876598282683349</v>
+      </c>
+      <c r="G65">
+        <v>-0.008195128389562878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>55</v>
       </c>
       <c r="B66">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C66">
-        <v>0.90909090909090906</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D66">
-        <v>-2.8834404598701409</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>-6.8292736579690094E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>-2.883440459870141</v>
+      </c>
+      <c r="G66">
+        <v>-0.006829273657969009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>55</v>
       </c>
       <c r="B67">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C67">
-        <v>0.92727272727272725</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>51</v>
+      </c>
+      <c r="F67">
         <v>-2.890282637056933</v>
       </c>
-      <c r="E67">
-        <v>-5.4634189263746691E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>-0.005463418926374669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>55</v>
       </c>
       <c r="B68">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C68">
-        <v>0.94545454545454544</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>52</v>
+      </c>
+      <c r="F68">
         <v>-2.897124814243726</v>
       </c>
-      <c r="E68">
-        <v>-4.0975641947812169E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>-0.004097564194781217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>55</v>
       </c>
       <c r="B69">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C69">
-        <v>0.96363636363636362</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="D69">
-        <v>-2.9039669914305182</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>-2.731709463187335E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F69">
+        <v>-2.903966991430518</v>
+      </c>
+      <c r="G69">
+        <v>-0.002731709463187335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C70">
-        <v>0.98181818181818181</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="D70">
-        <v>-2.9108091686173112</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>-1.3658547315938891E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>-2.910809168617311</v>
+      </c>
+      <c r="G70">
+        <v>-0.001365854731593889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>55</v>
       </c>
       <c r="B71">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>-2.9176513458041029</v>
+        <v>0</v>
       </c>
       <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>-2.917651345804103</v>
+      </c>
+      <c r="G71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>147</v>
       </c>
       <c r="B72">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>-2.6047413176972372</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>-2.604741317697237</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>147</v>
       </c>
       <c r="B73">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C73">
-        <v>6.8027210884353739E-3</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="D73">
-        <v>-2.6079851938742151</v>
+        <v>146</v>
       </c>
       <c r="E73">
-        <v>-3.3804356025513021E-7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-2.607985193874215</v>
+      </c>
+      <c r="G73">
+        <v>-3.380435602551302e-07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>147</v>
       </c>
       <c r="B74">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C74">
-        <v>1.360544217687075E-2</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="D74">
+        <v>145</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
         <v>-2.611229070051194</v>
       </c>
-      <c r="E74">
-        <v>-6.7608712139843874E-7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>-6.760871213984387e-07</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>147</v>
       </c>
       <c r="B75">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C75">
-        <v>2.0408163265306121E-2</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D75">
-        <v>-2.6144729462281719</v>
+        <v>144</v>
       </c>
       <c r="E75">
-        <v>-1.0141306820976579E-6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>-2.614472946228172</v>
+      </c>
+      <c r="G75">
+        <v>-1.014130682097658e-06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>147</v>
       </c>
       <c r="B76">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C76">
-        <v>2.7210884353741499E-2</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="D76">
+        <v>143</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
         <v>-2.617716822405149</v>
       </c>
-      <c r="E76">
-        <v>-1.3521742423527881E-6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>-1.352174242352788e-06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>147</v>
       </c>
       <c r="B77">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C77">
-        <v>3.4013605442176867E-2</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="D77">
-        <v>-2.6209301466046302</v>
+        <v>142</v>
       </c>
       <c r="E77">
-        <v>2.8861759694631669E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>-2.62093014660463</v>
+      </c>
+      <c r="G77">
+        <v>2.886175969463167e-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>147</v>
       </c>
       <c r="B78">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C78">
-        <v>4.0816326530612242E-2</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D78">
+        <v>141</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
         <v>-2.624351694336815</v>
       </c>
-      <c r="E78">
-        <v>-1.4914783907293841E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>-0.0001491478390729384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>147</v>
       </c>
       <c r="B79">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C79">
-        <v>4.7619047619047623E-2</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D79">
-        <v>-2.6271485714708831</v>
+        <v>140</v>
       </c>
       <c r="E79">
-        <v>2.9751316027626368E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>-2.627387346981088</v>
+      </c>
+      <c r="G79">
+        <v>5.8737650071361e-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>147</v>
       </c>
       <c r="B80">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C80">
-        <v>5.4421768707482991E-2</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="D80">
-        <v>-2.630631223158066</v>
+        <v>139</v>
       </c>
       <c r="E80">
-        <v>5.8399606511105873E-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>-2.630778342735775</v>
+      </c>
+      <c r="G80">
+        <v>-8.871997119808128e-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>147</v>
       </c>
       <c r="B81">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C81">
-        <v>6.1224489795918373E-2</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="D81">
-        <v>-2.633752891425051</v>
+        <v>138</v>
       </c>
       <c r="E81">
-        <v>1.8026947294336179E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>-2.634113874845248</v>
+      </c>
+      <c r="G81">
+        <v>-0.000180713947254052</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>147</v>
       </c>
       <c r="B82">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C82">
-        <v>6.8027210884353748E-2</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="D82">
+        <v>137</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
         <v>-2.637040465724894</v>
       </c>
-      <c r="E82">
-        <v>1.3623330651846291E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0.0001362333065184629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>147</v>
       </c>
       <c r="B83">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C83">
-        <v>7.4829931972789115E-2</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="D83">
-        <v>-2.6406876428219181</v>
+        <v>136</v>
       </c>
       <c r="E83">
-        <v>-2.6740565708838199E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>-2.640687642821918</v>
+      </c>
+      <c r="G83">
+        <v>-0.000267405657088382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>147</v>
       </c>
       <c r="B84">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C84">
-        <v>8.1632653061224483E-2</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="D84">
-        <v>-2.6431672346586521</v>
+        <v>135</v>
       </c>
       <c r="E84">
-        <v>4.9654063959492234E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>-2.643688483801924</v>
+      </c>
+      <c r="G84">
+        <v>-2.470850367730648e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>147</v>
       </c>
       <c r="B85">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C85">
-        <v>8.8435374149659865E-2</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="D85">
-        <v>-2.6476529461962821</v>
+        <v>134</v>
       </c>
       <c r="E85">
-        <v>-7.4563276461780958E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>-2.647652946196282</v>
+      </c>
+      <c r="G85">
+        <v>-0.0007456327646178096</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>147</v>
       </c>
       <c r="B86">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C86">
-        <v>9.5238095238095233E-2</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="D86">
-        <v>-2.6506570333251038</v>
+        <v>133</v>
       </c>
       <c r="E86">
-        <v>-5.0618176002226178E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>-2.650657033325104</v>
+      </c>
+      <c r="G86">
+        <v>-0.0005061817600222618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>147</v>
       </c>
       <c r="B87">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C87">
         <v>0.1020408163265306</v>
       </c>
       <c r="D87">
-        <v>-2.6537797151300411</v>
+        <v>132</v>
       </c>
       <c r="E87">
-        <v>-3.8532543154179422E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>-2.65425726615045</v>
+      </c>
+      <c r="G87">
+        <v>-0.0008628764519502674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>147</v>
       </c>
       <c r="B88">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C88">
         <v>0.108843537414966</v>
       </c>
       <c r="D88">
+        <v>131</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88">
         <v>-2.65675000413255</v>
       </c>
-      <c r="E88">
-        <v>-1.12076300633035E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>-0.000112076300633035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>147</v>
       </c>
       <c r="B89">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C89">
-        <v>0.11564625850340141</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="D89">
-        <v>-2.6619694480329259</v>
+        <v>130</v>
       </c>
       <c r="E89">
-        <v>-2.0879820675916432E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>-2.661969448032926</v>
+      </c>
+      <c r="G89">
+        <v>-0.002087982067591643</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>147</v>
       </c>
       <c r="B90">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C90">
         <v>0.1224489795918367</v>
       </c>
       <c r="D90">
-        <v>-2.6650040871392449</v>
+        <v>129</v>
       </c>
       <c r="E90">
-        <v>-1.879083040493779E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>-2.665004087139245</v>
+      </c>
+      <c r="G90">
+        <v>-0.001879083040493779</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>147</v>
       </c>
       <c r="B91">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C91">
-        <v>0.12925170068027211</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="D91">
-        <v>-2.6668806738967641</v>
+        <v>128</v>
       </c>
       <c r="E91">
-        <v>-5.1213166459440629E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>-2.666880673896764</v>
+      </c>
+      <c r="G91">
+        <v>-0.0005121316645944063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>147</v>
       </c>
       <c r="B92">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C92">
         <v>0.1360544217687075</v>
       </c>
       <c r="D92">
+        <v>127</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
         <v>-2.670762366817224</v>
       </c>
-      <c r="E92">
-        <v>-1.1502864516366169E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>-0.001150286451636617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>147</v>
       </c>
       <c r="B93">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C93">
-        <v>0.14285714285714279</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D93">
+        <v>126</v>
+      </c>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
         <v>-2.674943939202886</v>
       </c>
-      <c r="E93">
-        <v>-2.0883207038822071E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>-0.002088320703882207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>147</v>
       </c>
       <c r="B94">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C94">
         <v>0.1496598639455782</v>
       </c>
       <c r="D94">
-        <v>-2.6792256868945792</v>
+        <v>125</v>
       </c>
       <c r="E94">
-        <v>-3.126530262157257E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>-2.679225686894579</v>
+      </c>
+      <c r="G94">
+        <v>-0.003126530262157257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>147</v>
       </c>
       <c r="B95">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C95">
-        <v>0.15646258503401361</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="D95">
+        <v>124</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
         <v>-2.683394113134876</v>
       </c>
-      <c r="E95">
-        <v>-4.0514183690372194E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>-0.004051418369037219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>147</v>
       </c>
       <c r="B96">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C96">
-        <v>0.16326530612244899</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="D96">
-        <v>-2.6855042021778761</v>
+        <v>123</v>
       </c>
       <c r="E96">
-        <v>-2.917969278619648E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>-2.685504202177876</v>
+      </c>
+      <c r="G96">
+        <v>-0.002917969278619648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>147</v>
       </c>
       <c r="B97">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C97">
-        <v>0.17006802721088429</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="D97">
-        <v>-2.6899114039283769</v>
+        <v>122</v>
       </c>
       <c r="E97">
-        <v>-4.0816328957027359E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>-2.689911403928377</v>
+      </c>
+      <c r="G97">
+        <v>-0.004081632895702736</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>147</v>
       </c>
       <c r="B98">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C98">
         <v>0.1768707482993197</v>
       </c>
       <c r="D98">
-        <v>-2.6948615203410511</v>
+        <v>121</v>
       </c>
       <c r="E98">
-        <v>-5.7882111749592013E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>-2.694861520341051</v>
+      </c>
+      <c r="G98">
+        <v>-0.005788211174959201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>147</v>
       </c>
       <c r="B99">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C99">
-        <v>0.18367346938775511</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="D99">
-        <v>-2.6968941131348751</v>
+        <v>120</v>
       </c>
       <c r="E99">
-        <v>-4.5772658353655524E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>-2.696894113134875</v>
+      </c>
+      <c r="G99">
+        <v>-0.004577265835365552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>147</v>
       </c>
       <c r="B100">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C100">
-        <v>0.19047619047619049</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D100">
-        <v>-2.7005370305451328</v>
+        <v>119</v>
       </c>
       <c r="E100">
-        <v>-4.9766451122064126E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>-2.700537030545133</v>
+      </c>
+      <c r="G100">
+        <v>-0.004976645112206413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>147</v>
       </c>
       <c r="B101">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C101">
-        <v>0.19727891156462579</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="D101">
+        <v>118</v>
+      </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
         <v>-2.705625747161978</v>
       </c>
-      <c r="E101">
-        <v>-6.8218235956347684E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>-0.006821823595634768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>147</v>
       </c>
       <c r="B102">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C102">
         <v>0.2040816326530612</v>
       </c>
       <c r="D102">
-        <v>-2.7083615203410512</v>
+        <v>117</v>
       </c>
       <c r="E102">
-        <v>-6.3140586412893107E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>-2.708361520341051</v>
+      </c>
+      <c r="G102">
+        <v>-0.006314058641289311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>147</v>
       </c>
       <c r="B103">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C103">
-        <v>0.21088435374149661</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="D103">
-        <v>-2.7122780249257779</v>
+        <v>116</v>
       </c>
       <c r="E103">
-        <v>-6.9870250925996302E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>-2.712278024925778</v>
+      </c>
+      <c r="G103">
+        <v>-0.00698702509259963</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>147</v>
       </c>
       <c r="B104">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C104">
-        <v>0.21768707482993199</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="D104">
+        <v>115</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
         <v>-2.7162645199241</v>
       </c>
-      <c r="E104">
-        <v>-7.7299819575031847E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>-0.007729981957503185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>147</v>
       </c>
       <c r="B105">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C105">
-        <v>0.22448979591836729</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="D105">
-        <v>-2.7187963292572328</v>
+        <v>114</v>
       </c>
       <c r="E105">
-        <v>-7.0182531572196014E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>-2.71975143129805</v>
+      </c>
+      <c r="G105">
+        <v>-0.007973355198036547</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>147</v>
       </c>
       <c r="B106">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C106">
         <v>0.2312925170068027</v>
       </c>
       <c r="D106">
-        <v>-2.7241106752389181</v>
+        <v>113</v>
       </c>
       <c r="E106">
-        <v>-9.0890610054867871E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F106">
+        <v>-2.724110675238918</v>
+      </c>
+      <c r="G106">
+        <v>-0.009089061005486787</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>147</v>
       </c>
       <c r="B107">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C107">
-        <v>0.23809523809523811</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D107">
-        <v>-2.7292210573746658</v>
+        <v>112</v>
       </c>
       <c r="E107">
-        <v>-1.095590500781762E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>-2.729221057374666</v>
+      </c>
+      <c r="G107">
+        <v>-0.01095590500781762</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>147</v>
       </c>
       <c r="B108">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C108">
-        <v>0.24489795918367349</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="D108">
-        <v>-2.7319351650348369</v>
+        <v>111</v>
       </c>
       <c r="E108">
-        <v>-1.042647453457124E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>-2.731935165034837</v>
+      </c>
+      <c r="G108">
+        <v>-0.01042647453457124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>147</v>
       </c>
       <c r="B109">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C109">
-        <v>0.25170068027210879</v>
+        <v>0.2517006802721088</v>
       </c>
       <c r="D109">
-        <v>-2.7356086344225918</v>
+        <v>110</v>
       </c>
       <c r="E109">
-        <v>-1.085640578890845E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F109">
+        <v>-2.735608634422592</v>
+      </c>
+      <c r="G109">
+        <v>-0.01085640578890845</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>147</v>
       </c>
       <c r="B110">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C110">
-        <v>0.25850340136054423</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="D110">
-        <v>-2.7403025694929291</v>
+        <v>109</v>
       </c>
       <c r="E110">
-        <v>-1.2306802725827961E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <v>-2.740302569492929</v>
+      </c>
+      <c r="G110">
+        <v>-0.01230680272582796</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>147</v>
       </c>
       <c r="B111">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C111">
-        <v>0.26530612244897961</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="D111">
-        <v>-2.7432945240143378</v>
+        <v>108</v>
       </c>
       <c r="E111">
-        <v>-1.205521911381946E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>-2.743294524014338</v>
+      </c>
+      <c r="G111">
+        <v>-0.01205521911381946</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>147</v>
       </c>
       <c r="B112">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C112">
-        <v>0.27210884353741499</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="D112">
+        <v>107</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
+      </c>
+      <c r="F112">
         <v>-2.748926155293359</v>
       </c>
-      <c r="E112">
-        <v>-1.4443312259422971E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>-0.01444331225942297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>147</v>
       </c>
       <c r="B113">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C113">
-        <v>0.27891156462585032</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="D113">
+        <v>106</v>
+      </c>
+      <c r="E113">
+        <v>41</v>
+      </c>
+      <c r="F113">
         <v>-2.752295485529145</v>
       </c>
-      <c r="E113">
-        <v>-1.4569104361791711E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>-0.01456910436179171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>147</v>
       </c>
       <c r="B114">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C114">
         <v>0.2857142857142857</v>
       </c>
       <c r="D114">
-        <v>-2.7563253115652682</v>
+        <v>105</v>
       </c>
       <c r="E114">
-        <v>-1.535539226449667E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <v>-2.757024232263749</v>
+      </c>
+      <c r="G114">
+        <v>-0.01605431296297755</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>147</v>
       </c>
       <c r="B115">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C115">
-        <v>0.29251700680272108</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="D115">
-        <v>-2.7595343760779811</v>
+        <v>104</v>
       </c>
       <c r="E115">
-        <v>-1.5320918643792149E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>-2.759534376077981</v>
+      </c>
+      <c r="G115">
+        <v>-0.01532091864379215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>147</v>
       </c>
       <c r="B116">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C116">
-        <v>0.29931972789115652</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="D116">
+        <v>103</v>
+      </c>
+      <c r="E116">
+        <v>44</v>
+      </c>
+      <c r="F116">
         <v>-2.764627352381595</v>
       </c>
-      <c r="E116">
-        <v>-1.7170356813988489E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>-0.01717035681398849</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>147</v>
       </c>
       <c r="B117">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C117">
-        <v>0.30612244897959179</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="D117">
+        <v>102</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117">
         <v>-2.768044640427012</v>
       </c>
-      <c r="E117">
-        <v>-1.7344106725988521E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>-0.01734410672598852</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>147</v>
       </c>
       <c r="B118">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C118">
-        <v>0.31292517006802723</v>
+        <v>0.3129251700680272</v>
       </c>
       <c r="D118">
+        <v>101</v>
+      </c>
+      <c r="E118">
+        <v>46</v>
+      </c>
+      <c r="F118">
         <v>-2.772725429351985</v>
       </c>
-      <c r="E118">
-        <v>-1.8781357517543281E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>-0.01878135751754328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>147</v>
       </c>
       <c r="B119">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C119">
-        <v>0.31972789115646261</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>47</v>
+      </c>
+      <c r="F119">
         <v>-2.77665082039531</v>
       </c>
-      <c r="E119">
-        <v>-1.9463210427451031E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>-0.01946321042745103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>147</v>
       </c>
       <c r="B120">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C120">
-        <v>0.32653061224489788</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="D120">
-        <v>-2.7803416956151961</v>
+        <v>99</v>
       </c>
       <c r="E120">
-        <v>-1.9910547513919848E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <v>-2.780341695615196</v>
+      </c>
+      <c r="G120">
+        <v>-0.01991054751391985</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>147</v>
       </c>
       <c r="B121">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C121">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D121">
-        <v>-2.7849876728759022</v>
+        <v>98</v>
       </c>
       <c r="E121">
-        <v>-2.1312986641208061E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F121">
+        <v>-2.784987672875902</v>
+      </c>
+      <c r="G121">
+        <v>-0.02131298664120806</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>147</v>
       </c>
       <c r="B122">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C122">
         <v>0.3401360544217687</v>
       </c>
       <c r="D122">
+        <v>97</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
         <v>-2.789156099116199</v>
       </c>
-      <c r="E122">
-        <v>-2.223787474808803E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>-0.02223787474808803</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>147</v>
       </c>
       <c r="B123">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C123">
-        <v>0.34693877551020408</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="D123">
-        <v>-2.7933245253564958</v>
+        <v>96</v>
       </c>
       <c r="E123">
-        <v>-2.3162762854967319E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>-2.793324525356496</v>
+      </c>
+      <c r="G123">
+        <v>-0.02316276285496732</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>147</v>
       </c>
       <c r="B124">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C124">
-        <v>0.35374149659863952</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="D124">
-        <v>-2.7974929515967921</v>
+        <v>95</v>
       </c>
       <c r="E124">
-        <v>-2.4087650961845512E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>-2.797523503574291</v>
+      </c>
+      <c r="G124">
+        <v>-0.02411820293934497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>147</v>
       </c>
       <c r="B125">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C125">
-        <v>0.36054421768707479</v>
+        <v>0.3605442176870748</v>
       </c>
       <c r="D125">
+        <v>94</v>
+      </c>
+      <c r="E125">
+        <v>53</v>
+      </c>
+      <c r="F125">
         <v>-2.801691929814587</v>
       </c>
-      <c r="E125">
-        <v>-2.5043091046224038E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>-0.02504309104622404</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>147</v>
       </c>
       <c r="B126">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C126">
-        <v>0.36734693877551022</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="D126">
-        <v>-2.8060991315650892</v>
+        <v>93</v>
       </c>
       <c r="E126">
-        <v>-2.62067546633078E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>-2.806099131565089</v>
+      </c>
+      <c r="G126">
+        <v>-0.0262067546633078</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>147</v>
       </c>
       <c r="B127">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C127">
-        <v>0.37414965986394561</v>
+        <v>0.3741496598639456</v>
       </c>
       <c r="D127">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
         <v>-2.810745108825794</v>
       </c>
-      <c r="E127">
-        <v>-2.7609193790594899E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>-0.0276091937905949</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>147</v>
       </c>
       <c r="B128">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C128">
-        <v>0.38095238095238088</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D128">
+        <v>91</v>
+      </c>
+      <c r="E128">
+        <v>56</v>
+      </c>
+      <c r="F128">
         <v>-2.813428857203796</v>
       </c>
-      <c r="E128">
-        <v>-2.704940403517964E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>-0.02704940403517964</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>147</v>
       </c>
       <c r="B129">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C129">
-        <v>0.38775510204081631</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="D129">
-        <v>-2.8161126055817962</v>
+        <v>90</v>
       </c>
       <c r="E129">
-        <v>-2.6489614279763041E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F129">
+        <v>-2.816112605581796</v>
+      </c>
+      <c r="G129">
+        <v>-0.02648961427976304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>147</v>
       </c>
       <c r="B130">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C130">
-        <v>0.39455782312925169</v>
+        <v>0.3945578231292517</v>
       </c>
       <c r="D130">
-        <v>-2.8187963539597969</v>
+        <v>89</v>
       </c>
       <c r="E130">
-        <v>-2.5929824524346001E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <v>-2.818796353959797</v>
+      </c>
+      <c r="G130">
+        <v>-0.025929824524346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>147</v>
       </c>
       <c r="B131">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C131">
-        <v>0.40136054421768708</v>
+        <v>0.4013605442176871</v>
       </c>
       <c r="D131">
+        <v>88</v>
+      </c>
+      <c r="E131">
+        <v>59</v>
+      </c>
+      <c r="F131">
         <v>-2.821480102337798</v>
       </c>
-      <c r="E131">
-        <v>-2.5370034768930069E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>-0.02537003476893007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>147</v>
       </c>
       <c r="B132">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C132">
-        <v>0.40816326530612251</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="D132">
+        <v>87</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132">
         <v>-2.8241638507158</v>
       </c>
-      <c r="E132">
-        <v>-2.4810245013513921E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>-0.02481024501351392</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>147</v>
       </c>
       <c r="B133">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C133">
-        <v>0.41496598639455778</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="D133">
+        <v>86</v>
+      </c>
+      <c r="E133">
+        <v>61</v>
+      </c>
+      <c r="F133">
         <v>-2.826847599093802</v>
       </c>
-      <c r="E133">
-        <v>-2.425045525809888E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>-0.02425045525809888</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>147</v>
       </c>
       <c r="B134">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C134">
-        <v>0.42176870748299322</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="D134">
+        <v>85</v>
+      </c>
+      <c r="E134">
+        <v>62</v>
+      </c>
+      <c r="F134">
         <v>-2.829531347471804</v>
       </c>
-      <c r="E134">
-        <v>-2.3690665502683839E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>-0.02369066550268384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C135">
-        <v>0.42857142857142849</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D135">
+        <v>84</v>
+      </c>
+      <c r="E135">
+        <v>63</v>
+      </c>
+      <c r="F135">
         <v>-2.832215095849806</v>
       </c>
-      <c r="E135">
-        <v>-2.3130875747268131E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>-0.02313087574726813</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>147</v>
       </c>
       <c r="B136">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C136">
-        <v>0.43537414965986387</v>
+        <v>0.4353741496598639</v>
       </c>
       <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136">
+        <v>64</v>
+      </c>
+      <c r="F136">
         <v>-2.834898844227808</v>
       </c>
-      <c r="E136">
-        <v>-2.2571085991852199E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>-0.0225710859918522</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>147</v>
       </c>
       <c r="B137">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C137">
-        <v>0.44217687074829931</v>
+        <v>0.4421768707482993</v>
       </c>
       <c r="D137">
-        <v>-2.8375825926058091</v>
+        <v>82</v>
       </c>
       <c r="E137">
-        <v>-2.201129623643561E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>-2.837582592605809</v>
+      </c>
+      <c r="G137">
+        <v>-0.02201129623643561</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>147</v>
       </c>
       <c r="B138">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C138">
-        <v>0.44897959183673469</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="D138">
+        <v>81</v>
+      </c>
+      <c r="E138">
+        <v>66</v>
+      </c>
+      <c r="F138">
         <v>-2.840266340983808</v>
       </c>
-      <c r="E138">
-        <v>-2.1451506481017679E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>-0.02145150648101768</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>147</v>
       </c>
       <c r="B139">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C139">
-        <v>0.45578231292517007</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>67</v>
+      </c>
+      <c r="F139">
         <v>-2.84295008936181</v>
       </c>
-      <c r="E139">
-        <v>-2.089171672560175E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>-0.02089171672560175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>147</v>
       </c>
       <c r="B140">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C140">
-        <v>0.46258503401360551</v>
+        <v>0.4625850340136055</v>
       </c>
       <c r="D140">
+        <v>79</v>
+      </c>
+      <c r="E140">
+        <v>68</v>
+      </c>
+      <c r="F140">
         <v>-2.845633837739812</v>
       </c>
-      <c r="E140">
-        <v>-2.033192697018649E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>-0.02033192697018649</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>147</v>
       </c>
       <c r="B141">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C141">
-        <v>0.46938775510204078</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="D141">
-        <v>-2.8483175861178132</v>
+        <v>78</v>
       </c>
       <c r="E141">
-        <v>-1.9772137214769892E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F141">
+        <v>-2.848578590122664</v>
+      </c>
+      <c r="G141">
+        <v>-0.02003314121962108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>147</v>
       </c>
       <c r="B142">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C142">
-        <v>0.47619047619047622</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D142">
-        <v>-2.8510013344958138</v>
+        <v>77</v>
       </c>
       <c r="E142">
-        <v>-1.9212347459353959E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>-2.851001334495814</v>
+      </c>
+      <c r="G142">
+        <v>-0.01921234745935396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>147</v>
       </c>
       <c r="B143">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C143">
-        <v>0.48299319727891149</v>
+        <v>0.4829931972789115</v>
       </c>
       <c r="D143">
+        <v>76</v>
+      </c>
+      <c r="E143">
+        <v>71</v>
+      </c>
+      <c r="F143">
         <v>-2.853946086878667</v>
       </c>
-      <c r="E143">
-        <v>-1.8913561708789439E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>-0.01891356170878944</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>147</v>
       </c>
       <c r="B144">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C144">
-        <v>0.48979591836734693</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="D144">
+        <v>75</v>
+      </c>
+      <c r="E144">
+        <v>72</v>
+      </c>
+      <c r="F144">
         <v>-2.856629835256669</v>
       </c>
-      <c r="E144">
-        <v>-1.835377195337351E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>-0.01835377195337351</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>147</v>
       </c>
       <c r="B145">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C145">
-        <v>0.49659863945578231</v>
+        <v>0.4965986394557823</v>
       </c>
       <c r="D145">
-        <v>-2.8593135836346701</v>
+        <v>74</v>
       </c>
       <c r="E145">
-        <v>-1.7793982197956911E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>-2.85931358363467</v>
+      </c>
+      <c r="G145">
+        <v>-0.01779398219795691</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C146">
-        <v>0.50340136054421769</v>
+        <v>0.5034013605442177</v>
       </c>
       <c r="D146">
-        <v>-2.8619973320126708</v>
+        <v>73</v>
       </c>
       <c r="E146">
-        <v>-1.723419244254076E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>-2.861997332012671</v>
+      </c>
+      <c r="G146">
+        <v>-0.01723419244254076</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C147">
-        <v>0.51020408163265307</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="D147">
-        <v>-2.8646810803906728</v>
+        <v>72</v>
       </c>
       <c r="E147">
-        <v>-1.667440268712506E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>-2.864681080390673</v>
+      </c>
+      <c r="G147">
+        <v>-0.01667440268712506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C148">
-        <v>0.51700680272108845</v>
+        <v>0.5170068027210885</v>
       </c>
       <c r="D148">
-        <v>-2.8676415503118671</v>
+        <v>71</v>
       </c>
       <c r="E148">
-        <v>-1.639133447490182E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F148">
+        <v>-2.86791827185506</v>
+      </c>
+      <c r="G148">
+        <v>-0.01666805601809496</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C149">
-        <v>0.52380952380952384</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D149">
-        <v>-2.8700171420699898</v>
+        <v>70</v>
       </c>
       <c r="E149">
-        <v>-1.552338809960729E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>-2.870309581151525</v>
+      </c>
+      <c r="G149">
+        <v>-0.01581582718114238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>147</v>
       </c>
       <c r="B150">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C150">
-        <v>0.53061224489795922</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="D150">
-        <v>-2.872977611991185</v>
+        <v>69</v>
       </c>
       <c r="E150">
-        <v>-1.5240319887384279E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F150">
+        <v>-2.873270051072721</v>
+      </c>
+      <c r="G150">
+        <v>-0.01553275896892115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>147</v>
       </c>
       <c r="B151">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C151">
         <v>0.5374149659863946</v>
       </c>
       <c r="D151">
-        <v>-2.8762148034555728</v>
+        <v>68</v>
       </c>
       <c r="E151">
-        <v>-1.523397321835551E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F151">
+        <v>-2.876214803455573</v>
+      </c>
+      <c r="G151">
+        <v>-0.01523397321835551</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>147</v>
       </c>
       <c r="B152">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C152">
-        <v>0.54421768707482998</v>
+        <v>0.54421768707483</v>
       </c>
       <c r="D152">
-        <v>-2.8783293912088448</v>
+        <v>67</v>
       </c>
       <c r="E152">
-        <v>-1.4105022838210021E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F152">
+        <v>-2.878329391208845</v>
+      </c>
+      <c r="G152">
+        <v>-0.01410502283821002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>147</v>
       </c>
       <c r="B153">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C153">
-        <v>0.55102040816326525</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="D153">
-        <v>-2.8818433042164271</v>
+        <v>66</v>
       </c>
       <c r="E153">
-        <v>-1.437539771237439E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F153">
+        <v>-2.881843304216427</v>
+      </c>
+      <c r="G153">
+        <v>-0.01437539771237439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>147</v>
       </c>
       <c r="B154">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C154">
-        <v>0.55782312925170063</v>
+        <v>0.5578231292517006</v>
       </c>
       <c r="D154">
-        <v>-2.8845123423890908</v>
+        <v>65</v>
       </c>
       <c r="E154">
-        <v>-1.3800897751621081E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>-2.884512342389091</v>
+      </c>
+      <c r="G154">
+        <v>-0.01380089775162108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>147</v>
       </c>
       <c r="B155">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C155">
-        <v>0.56462585034013602</v>
+        <v>0.564625850340136</v>
       </c>
       <c r="D155">
-        <v>-2.8874718049772801</v>
+        <v>64</v>
       </c>
       <c r="E155">
-        <v>-1.3516822206392391E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F155">
+        <v>-2.887772606494492</v>
+      </c>
+      <c r="G155">
+        <v>-0.01381762372360429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>147</v>
       </c>
       <c r="B156">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C156">
         <v>0.5714285714285714</v>
       </c>
       <c r="D156">
-        <v>-2.8901649231239661</v>
+        <v>63</v>
       </c>
       <c r="E156">
-        <v>-1.29664022196605E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>-2.890164923123966</v>
+      </c>
+      <c r="G156">
+        <v>-0.0129664022196605</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>147</v>
       </c>
       <c r="B157">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C157">
-        <v>0.57823129251700678</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="D157">
-        <v>-2.8934011072553449</v>
+        <v>62</v>
       </c>
       <c r="E157">
-        <v>-1.295904821762273E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <v>-2.893961905444399</v>
+      </c>
+      <c r="G157">
+        <v>-0.01351984640667636</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>147</v>
       </c>
       <c r="B158">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C158">
-        <v>0.58503401360544216</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="D158">
-        <v>-2.8960932180690211</v>
+        <v>61</v>
       </c>
       <c r="E158">
-        <v>-1.2407620897880939E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F158">
+        <v>-2.896345859638195</v>
+      </c>
+      <c r="G158">
+        <v>-0.01266026246705487</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>147</v>
       </c>
       <c r="B159">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C159">
-        <v>0.59183673469387754</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <v>87</v>
+      </c>
+      <c r="F159">
         <v>-2.899036963118867</v>
       </c>
-      <c r="E159">
-        <v>-1.2107827814308971E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>-0.01210782781430897</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>147</v>
       </c>
       <c r="B160">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C160">
-        <v>0.59863945578231292</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="D160">
-        <v>-2.9011535655381548</v>
+        <v>59</v>
       </c>
       <c r="E160">
-        <v>-1.098089210018038E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F160">
+        <v>-2.901443989953675</v>
+      </c>
+      <c r="G160">
+        <v>-0.01127131651569968</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>147</v>
       </c>
       <c r="B161">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C161">
-        <v>0.60544217687074831</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="D161">
-        <v>-2.9055364333546692</v>
+        <v>58</v>
       </c>
       <c r="E161">
-        <v>-1.212022178327676E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>-2.905536433354669</v>
+      </c>
+      <c r="G161">
+        <v>-0.01212022178327676</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>147</v>
       </c>
       <c r="B162">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C162">
-        <v>0.61224489795918369</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="D162">
-        <v>-2.9087956901270591</v>
+        <v>57</v>
       </c>
       <c r="E162">
-        <v>-1.213594042224897E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>-2.908795690127059</v>
+      </c>
+      <c r="G162">
+        <v>-0.01213594042224897</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>147</v>
       </c>
       <c r="B163">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C163">
-        <v>0.61904761904761907</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="D163">
-        <v>-2.9111712818851809</v>
+        <v>56</v>
       </c>
       <c r="E163">
-        <v>-1.1267994046953561E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F163">
+        <v>-2.911171281885181</v>
+      </c>
+      <c r="G163">
+        <v>-0.01126799404695356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>147</v>
       </c>
       <c r="B164">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C164">
-        <v>0.62585034013605445</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="D164">
-        <v>-2.9132721667661281</v>
+        <v>55</v>
       </c>
       <c r="E164">
-        <v>-1.012534079448313E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F164">
+        <v>-2.914131751806376</v>
+      </c>
+      <c r="G164">
+        <v>-0.0109849258347311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>147</v>
       </c>
       <c r="B165">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C165">
-        <v>0.63265306122448983</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="D165">
-        <v>-2.9176928174289869</v>
+        <v>54</v>
       </c>
       <c r="E165">
-        <v>-1.130245332392488E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F165">
+        <v>-2.917692817428987</v>
+      </c>
+      <c r="G165">
+        <v>-0.01130245332392488</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>147</v>
       </c>
       <c r="B166">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C166">
-        <v>0.63945578231292521</v>
+        <v>0.6394557823129252</v>
       </c>
       <c r="D166">
-        <v>-2.9209300088933752</v>
+        <v>53</v>
       </c>
       <c r="E166">
-        <v>-1.1296106654895329E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>-2.920930008893375</v>
+      </c>
+      <c r="G166">
+        <v>-0.01129610665489533</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>147</v>
       </c>
       <c r="B167">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C167">
         <v>0.6462585034013606</v>
       </c>
       <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+      <c r="F167">
         <v>-2.923890478814573</v>
       </c>
-      <c r="E167">
-        <v>-1.101303844267609E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>-0.01101303844267609</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>147</v>
       </c>
       <c r="B168">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C168">
-        <v>0.65306122448979587</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="D168">
-        <v>-2.9253971157637588</v>
+        <v>51</v>
       </c>
       <c r="E168">
-        <v>-9.2761372584440061E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>-2.925990356362508</v>
+      </c>
+      <c r="G168">
+        <v>-0.009869377857193218</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>147</v>
       </c>
       <c r="B169">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C169">
-        <v>0.65986394557823125</v>
+        <v>0.6598639455782312</v>
       </c>
       <c r="D169">
+        <v>50</v>
+      </c>
+      <c r="E169">
+        <v>97</v>
+      </c>
+      <c r="F169">
         <v>-2.929250620467907</v>
       </c>
-      <c r="E169">
-        <v>-9.8861038291750969E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>-0.009886103829175097</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>147</v>
       </c>
       <c r="B170">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C170">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D170">
-        <v>-2.9316335673286971</v>
+        <v>49</v>
       </c>
       <c r="E170">
-        <v>-9.025512556547155E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F170">
+        <v>-2.931902933769219</v>
+      </c>
+      <c r="G170">
+        <v>-0.009294878997069378</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>147</v>
       </c>
       <c r="B171">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C171">
-        <v>0.67346938775510201</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="D171">
-        <v>-2.9348717661260921</v>
+        <v>48</v>
       </c>
       <c r="E171">
-        <v>-9.0201732205242857E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F171">
+        <v>-2.934871766126092</v>
+      </c>
+      <c r="G171">
+        <v>-0.009020173220524286</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>147</v>
       </c>
       <c r="B172">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C172">
-        <v>0.68027210884353739</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="D172">
-        <v>-2.9386928284205451</v>
+        <v>47</v>
       </c>
       <c r="E172">
-        <v>-9.5976973815605771E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>-2.938692828420545</v>
+      </c>
+      <c r="G172">
+        <v>-0.009597697381560577</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>147</v>
       </c>
       <c r="B173">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C173">
-        <v>0.68707482993197277</v>
+        <v>0.6870748299319728</v>
       </c>
       <c r="D173">
-        <v>-2.9405169917582992</v>
+        <v>46</v>
       </c>
       <c r="E173">
-        <v>-8.1783225858970132E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F173">
+        <v>-2.940791698635473</v>
+      </c>
+      <c r="G173">
+        <v>-0.008453029463071249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>147</v>
       </c>
       <c r="B174">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C174">
-        <v>0.69387755102040816</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D174">
-        <v>-2.9446221306986091</v>
+        <v>45</v>
       </c>
       <c r="E174">
-        <v>-9.0399233927890288E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F174">
+        <v>-2.944622130698609</v>
+      </c>
+      <c r="G174">
+        <v>-0.009039923392789029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>147</v>
       </c>
       <c r="B175">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C175">
-        <v>0.70068027210884354</v>
+        <v>0.7006802721088435</v>
       </c>
       <c r="D175">
+        <v>44</v>
+      </c>
+      <c r="E175">
+        <v>103</v>
+      </c>
+      <c r="F175">
         <v>-2.947021802430752</v>
       </c>
-      <c r="E175">
-        <v>-8.1960569915151549E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>-0.008196056991515155</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>147</v>
       </c>
       <c r="B176">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C176">
-        <v>0.70748299319727892</v>
+        <v>0.7074829931972789</v>
       </c>
       <c r="D176">
+        <v>43</v>
+      </c>
+      <c r="E176">
+        <v>104</v>
+      </c>
+      <c r="F176">
         <v>-2.951143666242416</v>
       </c>
-      <c r="E176">
-        <v>-9.0743826697612384E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>-0.009074382669761238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>147</v>
       </c>
       <c r="B177">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C177">
         <v>0.7142857142857143</v>
       </c>
       <c r="D177">
-        <v>-2.952935387170474</v>
+        <v>42</v>
       </c>
       <c r="E177">
-        <v>-7.6225654644012097E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F177">
+        <v>-2.953219463816334</v>
+      </c>
+      <c r="G177">
+        <v>-0.007906642110261264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>147</v>
       </c>
       <c r="B178">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C178">
-        <v>0.72108843537414968</v>
+        <v>0.7210884353741497</v>
       </c>
       <c r="D178">
-        <v>-2.9567564494649261</v>
+        <v>41</v>
       </c>
       <c r="E178">
-        <v>-8.2000896254366129E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F178">
+        <v>-2.956756449464926</v>
+      </c>
+      <c r="G178">
+        <v>-0.008200089625436613</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>147</v>
       </c>
       <c r="B179">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C179">
-        <v>0.72789115646258506</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179">
+        <v>107</v>
+      </c>
+      <c r="F179">
         <v>-2.959732636924465</v>
       </c>
-      <c r="E179">
-        <v>-7.9327389515579938E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>-0.007932738951557994</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>147</v>
       </c>
       <c r="B180">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C180">
-        <v>0.73469387755102045</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="D180">
+        <v>39</v>
+      </c>
+      <c r="E180">
+        <v>108</v>
+      </c>
+      <c r="F180">
         <v>-2.963269622573057</v>
       </c>
-      <c r="E180">
-        <v>-8.2261864667324547E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>-0.008226186466732455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>147</v>
       </c>
       <c r="B181">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C181">
-        <v>0.74149659863945583</v>
+        <v>0.7414965986394558</v>
       </c>
       <c r="D181">
-        <v>-2.9659543782840649</v>
+        <v>38</v>
       </c>
       <c r="E181">
-        <v>-7.6674040443233116E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F181">
+        <v>-2.966238454929927</v>
+      </c>
+      <c r="G181">
+        <v>-0.007951480690185142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>147</v>
       </c>
       <c r="B182">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C182">
-        <v>0.74829931972789121</v>
+        <v>0.7482993197278912</v>
       </c>
       <c r="D182">
-        <v>-2.9697754405785188</v>
+        <v>37</v>
       </c>
       <c r="E182">
-        <v>-8.2449282053596029E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>-2.969775440578519</v>
+      </c>
+      <c r="G182">
+        <v>-0.008244928205359603</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>147</v>
       </c>
       <c r="B183">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C183">
-        <v>0.75510204081632648</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D183">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <v>111</v>
+      </c>
+      <c r="F183">
         <v>-2.972469566058213</v>
       </c>
-      <c r="E183">
-        <v>-7.6955155516355012E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>-0.007695515551635501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>147</v>
       </c>
       <c r="B184">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C184">
-        <v>0.76190476190476186</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184">
+        <v>112</v>
+      </c>
+      <c r="F184">
         <v>-2.975712097959252</v>
       </c>
-      <c r="E184">
-        <v>-7.6945093192568592E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>-0.007694509319256859</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>147</v>
       </c>
       <c r="B185">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C185">
-        <v>0.76870748299319724</v>
+        <v>0.7687074829931972</v>
       </c>
       <c r="D185">
-        <v>-2.9781157990234259</v>
+        <v>34</v>
       </c>
       <c r="E185">
-        <v>-6.8546722500146817E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>-2.97837378102925</v>
+      </c>
+      <c r="G185">
+        <v>-0.007112654255838402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>147</v>
       </c>
       <c r="B186">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C186">
-        <v>0.77551020408163263</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D186">
+        <v>33</v>
+      </c>
+      <c r="E186">
+        <v>114</v>
+      </c>
+      <c r="F186">
         <v>-2.982787076589442</v>
       </c>
-      <c r="E186">
-        <v>-8.2824116826126781E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>-0.008282411682612678</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>147</v>
       </c>
       <c r="B187">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C187">
-        <v>0.78231292517006801</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="D187">
-        <v>-2.9848859468043729</v>
+        <v>32</v>
       </c>
       <c r="E187">
-        <v>-7.1377437641260144E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="F187">
+        <v>-2.984885946804373</v>
+      </c>
+      <c r="G187">
+        <v>-0.007137743764126014</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>147</v>
       </c>
       <c r="B188">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C188">
-        <v>0.78911564625850339</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="D188">
-        <v>-2.9878464167255672</v>
+        <v>31</v>
       </c>
       <c r="E188">
-        <v>-6.8546755519023339E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F188">
+        <v>-2.988138855807105</v>
+      </c>
+      <c r="G188">
+        <v>-0.007147114633440976</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>147</v>
       </c>
       <c r="B189">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C189">
-        <v>0.79591836734693877</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D189">
-        <v>-2.9913927721428428</v>
+        <v>30</v>
       </c>
       <c r="E189">
-        <v>-7.157492835761281E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F189">
+        <v>-2.991392772142843</v>
+      </c>
+      <c r="G189">
+        <v>-0.007157492835761281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>147</v>
       </c>
       <c r="B190">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C190">
-        <v>0.80272108843537415</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="D190">
+        <v>29</v>
+      </c>
+      <c r="E190">
+        <v>118</v>
+      </c>
+      <c r="F190">
         <v>-2.994637318709898</v>
       </c>
-      <c r="E190">
-        <v>-7.1585012693980987E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>-0.007158501269398099</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>147</v>
       </c>
       <c r="B191">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C191">
-        <v>0.80952380952380953</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D191">
+        <v>28</v>
+      </c>
+      <c r="E191">
+        <v>119</v>
+      </c>
+      <c r="F191">
         <v>-2.99789022771263</v>
       </c>
-      <c r="E191">
-        <v>-7.1678721387129496E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>-0.00716787213871295</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>147</v>
       </c>
       <c r="B192">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C192">
-        <v>0.81632653061224492</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="D192">
+        <v>27</v>
+      </c>
+      <c r="E192">
+        <v>120</v>
+      </c>
+      <c r="F192">
         <v>-3.001150491818029</v>
       </c>
-      <c r="E192">
-        <v>-7.1845981106947732E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>-0.007184598110694773</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>147</v>
       </c>
       <c r="B193">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C193">
         <v>0.8231292517006803</v>
       </c>
       <c r="D193">
+        <v>26</v>
+      </c>
+      <c r="E193">
+        <v>121</v>
+      </c>
+      <c r="F193">
         <v>-3.004403400820761</v>
       </c>
-      <c r="E193">
-        <v>-7.1939689800092346E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>-0.007193968980009235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>147</v>
       </c>
       <c r="B194">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C194">
-        <v>0.82993197278911568</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="D194">
-        <v>-3.0079487489050289</v>
+        <v>25</v>
       </c>
       <c r="E194">
-        <v>-7.4957789308596201E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="F194">
+        <v>-3.007948748905029</v>
+      </c>
+      <c r="G194">
+        <v>-0.00749577893085962</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>147</v>
       </c>
       <c r="B195">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C195">
-        <v>0.83673469387755106</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="D195">
-        <v>-3.0109092188262232</v>
+        <v>24</v>
       </c>
       <c r="E195">
-        <v>-7.2127107186358841E-3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F195">
+        <v>-3.010909218826223</v>
+      </c>
+      <c r="G195">
+        <v>-0.007212710718635884</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>147</v>
       </c>
       <c r="B196">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C196">
-        <v>0.84353741496598644</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="D196">
-        <v>-3.0138790585161011</v>
+        <v>23</v>
       </c>
       <c r="E196">
-        <v>-6.9390122750970784E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="F196">
+        <v>-3.013879058516101</v>
+      </c>
+      <c r="G196">
+        <v>-0.006939012275097078</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>147</v>
       </c>
       <c r="B197">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C197">
-        <v>0.85034013605442171</v>
+        <v>0.8503401360544217</v>
       </c>
       <c r="D197">
-        <v>-3.0171225977501481</v>
+        <v>22</v>
       </c>
       <c r="E197">
-        <v>-6.9390133757258887E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F197">
+        <v>-3.017707475913221</v>
+      </c>
+      <c r="G197">
+        <v>-0.007523891538799177</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>147</v>
       </c>
       <c r="B198">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C198">
         <v>0.8571428571428571</v>
       </c>
       <c r="D198">
-        <v>-3.0212528239974881</v>
+        <v>21</v>
       </c>
       <c r="E198">
-        <v>-7.8257014896486732E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="F198">
+        <v>-3.021252823997488</v>
+      </c>
+      <c r="G198">
+        <v>-0.007825701489648673</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>147</v>
       </c>
       <c r="B199">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C199">
-        <v>0.86394557823129248</v>
+        <v>0.8639455782312925</v>
       </c>
       <c r="D199">
-        <v>-3.0239208548371468</v>
+        <v>20</v>
       </c>
       <c r="E199">
-        <v>-7.2501941958902916E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F199">
+        <v>-3.023920854837147</v>
+      </c>
+      <c r="G199">
+        <v>-0.007250194195890292</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>147</v>
       </c>
       <c r="B200">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C200">
-        <v>0.87074829931972786</v>
+        <v>0.8707482993197279</v>
       </c>
       <c r="D200">
-        <v>-3.0280510810844872</v>
+        <v>19</v>
       </c>
       <c r="E200">
-        <v>-8.1368823098126875E-3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>-3.028051081084487</v>
+      </c>
+      <c r="G200">
+        <v>-0.008136882309812687</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>147</v>
       </c>
       <c r="B201">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C201">
-        <v>0.87755102040816324</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="D201">
-        <v>-3.030426672842609</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>-7.2689359345178839E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="F201">
+        <v>-3.030719111924146</v>
+      </c>
+      <c r="G201">
+        <v>-0.007561375016054306</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>147</v>
       </c>
       <c r="B202">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C202">
-        <v>0.88435374149659862</v>
+        <v>0.8843537414965986</v>
       </c>
       <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>130</v>
+      </c>
+      <c r="F202">
         <v>-3.033972020926877</v>
       </c>
-      <c r="E202">
-        <v>-7.5707458853674359E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>-0.007570745885367436</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>147</v>
       </c>
       <c r="B203">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C203">
         <v>0.891156462585034</v>
       </c>
       <c r="D203">
-        <v>-3.0372249299296068</v>
+        <v>16</v>
       </c>
       <c r="E203">
-        <v>-7.5801167546805104E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>-3.037224929929607</v>
+      </c>
+      <c r="G203">
+        <v>-0.00758011675468051</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>147</v>
       </c>
       <c r="B204">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C204">
-        <v>0.89795918367346939</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D204">
-        <v>-3.0407702780138748</v>
+        <v>15</v>
       </c>
       <c r="E204">
-        <v>-7.8819267055313946E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F204">
+        <v>-3.040770278013875</v>
+      </c>
+      <c r="G204">
+        <v>-0.007881926705531395</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>147</v>
       </c>
       <c r="B205">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C205">
-        <v>0.90476190476190477</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D205">
-        <v>-3.0440231870166059</v>
+        <v>14</v>
       </c>
       <c r="E205">
-        <v>-7.8912975748449687E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F205">
+        <v>-3.044023187016606</v>
+      </c>
+      <c r="G205">
+        <v>-0.007891297574844969</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>147</v>
       </c>
       <c r="B206">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C206">
-        <v>0.91156462585034015</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206">
+        <v>134</v>
+      </c>
+      <c r="F206">
         <v>-3.047276096019337</v>
       </c>
-      <c r="E206">
-        <v>-7.9006684441585429E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>-0.007900668444158543</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>147</v>
       </c>
       <c r="B207">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C207">
-        <v>0.91836734693877553</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>135</v>
+      </c>
+      <c r="F207">
         <v>-3.050821444103605</v>
       </c>
-      <c r="E207">
-        <v>-8.2024783950085112E-3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>-0.008202478395008511</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>147</v>
       </c>
       <c r="B208">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C208">
-        <v>0.92517006802721091</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="D208">
-        <v>-3.0533814423707719</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>-7.5189385287578736E-3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="F208">
+        <v>-3.053381442370772</v>
+      </c>
+      <c r="G208">
+        <v>-0.007518938528757874</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>147</v>
       </c>
       <c r="B209">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C209">
-        <v>0.93197278911564629</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="D209">
-        <v>-3.0559414406379388</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>-6.8353986625076524E-3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F209">
+        <v>-3.055941440637939</v>
+      </c>
+      <c r="G209">
+        <v>-0.006835398662507652</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>147</v>
       </c>
       <c r="B210">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C210">
-        <v>0.93877551020408168</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D210">
-        <v>-3.0585014389051062</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>-6.1518587962570148E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F210">
+        <v>-3.058501438905106</v>
+      </c>
+      <c r="G210">
+        <v>-0.006151858796257015</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>147</v>
       </c>
       <c r="B211">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C211">
-        <v>0.94557823129251706</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="D211">
-        <v>-3.0610614371722722</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>-5.4683189300059332E-3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="F211">
+        <v>-3.061061437172272</v>
+      </c>
+      <c r="G211">
+        <v>-0.005468318930005933</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>147</v>
       </c>
       <c r="B212">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C212">
-        <v>0.95238095238095233</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D212">
-        <v>-3.0636214354394391</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>-4.7847790637549903E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="F212">
+        <v>-3.063621435439439</v>
+      </c>
+      <c r="G212">
+        <v>-0.00478477906375499</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>147</v>
       </c>
       <c r="B213">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C213">
-        <v>0.95918367346938771</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>141</v>
+      </c>
+      <c r="F213">
         <v>-3.066181433706606</v>
       </c>
-      <c r="E213">
-        <v>-4.1012391975047829E-3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>-0.004101239197504783</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>147</v>
       </c>
       <c r="B214">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C214">
-        <v>0.96598639455782309</v>
+        <v>0.9659863945578231</v>
       </c>
       <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>142</v>
+      </c>
+      <c r="F214">
         <v>-3.068741431973772</v>
       </c>
-      <c r="E214">
-        <v>-3.417699331253687E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>-0.003417699331253687</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>147</v>
       </c>
       <c r="B215">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C215">
-        <v>0.97278911564625847</v>
+        <v>0.9727891156462585</v>
       </c>
       <c r="D215">
-        <v>-3.0713014302409389</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>-2.734159465003036E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F215">
+        <v>-3.071301430240939</v>
+      </c>
+      <c r="G215">
+        <v>-0.002734159465003036</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>147</v>
       </c>
       <c r="B216">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C216">
-        <v>0.97959183673469385</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D216">
-        <v>-3.0738614285081058</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>-2.0506195987519469E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>-3.073861428508106</v>
+      </c>
+      <c r="G216">
+        <v>-0.002050619598751947</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>147</v>
       </c>
       <c r="B217">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C217">
-        <v>0.98639455782312924</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="D217">
-        <v>-3.0764214267752732</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>-1.36707973250174E-3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="F217">
+        <v>-3.076421426775273</v>
+      </c>
+      <c r="G217">
+        <v>-0.00136707973250174</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>147</v>
       </c>
       <c r="B218">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C218">
-        <v>0.99319727891156462</v>
+        <v>0.9931972789115646</v>
       </c>
       <c r="D218">
-        <v>-3.0789814250424401</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>-6.8353986625109206E-4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F218">
+        <v>-3.07898142504244</v>
+      </c>
+      <c r="G218">
+        <v>-0.0006835398662510921</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>147</v>
       </c>
       <c r="B219">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>-3.0815414233096061</v>
+        <v>0</v>
       </c>
       <c r="E219">
+        <v>147</v>
+      </c>
+      <c r="F219">
+        <v>-3.081541423309606</v>
+      </c>
+      <c r="G219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>309</v>
       </c>
@@ -4178,13 +5446,19 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>-2.6820320995474249</v>
+        <v>309</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>-2.682032099547425</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>309</v>
       </c>
@@ -4192,16 +5466,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C221">
-        <v>0.1</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="D221">
-        <v>-2.7238418408981859</v>
+        <v>279</v>
       </c>
       <c r="E221">
-        <v>7.2850835223126076E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>-2.72545563543218</v>
+      </c>
+      <c r="G221">
+        <v>0.004241342632791856</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>309</v>
       </c>
@@ -4209,16 +5489,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C222">
-        <v>0.2</v>
+        <v>0.1974110032362459</v>
       </c>
       <c r="D222">
-        <v>-2.774611608625051</v>
+        <v>248</v>
       </c>
       <c r="E222">
-        <v>5.6101406685207236E-3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F222">
+        <v>-2.774779799454645</v>
+      </c>
+      <c r="G222">
+        <v>0.004170886411792196</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>309</v>
       </c>
@@ -4226,16 +5512,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C223">
-        <v>0.3</v>
+        <v>0.2977346278317152</v>
       </c>
       <c r="D223">
-        <v>-2.8306761955496711</v>
+        <v>217</v>
       </c>
       <c r="E223">
-        <v>-1.359621383025589E-3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>-2.831622488952957</v>
+      </c>
+      <c r="G223">
+        <v>-0.003418095285054878</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>309</v>
       </c>
@@ -4243,16 +5535,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C224">
-        <v>0.4</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="D224">
-        <v>-2.8907274046056721</v>
+        <v>186</v>
       </c>
       <c r="E224">
-        <v>-1.231600556595347E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F224">
+        <v>-2.890727404605672</v>
+      </c>
+      <c r="G224">
+        <v>-0.0132693031363047</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>309</v>
       </c>
@@ -4260,16 +5558,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C225">
-        <v>0.5</v>
+        <v>0.4983818770226537</v>
       </c>
       <c r="D225">
-        <v>-2.9496887723409588</v>
+        <v>155</v>
       </c>
       <c r="E225">
-        <v>-2.2182548428167911E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="F225">
+        <v>-2.949688772340959</v>
+      </c>
+      <c r="G225">
+        <v>-0.02297696307012731</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>309</v>
       </c>
@@ -4277,16 +5581,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C226">
-        <v>0.60000000000000009</v>
+        <v>0.598705501618123</v>
       </c>
       <c r="D226">
-        <v>-2.9909368955664601</v>
+        <v>124</v>
       </c>
       <c r="E226">
-        <v>-1.4335846780595411E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="F226">
+        <v>-2.99093689556646</v>
+      </c>
+      <c r="G226">
+        <v>-0.01497137849416297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>309</v>
       </c>
@@ -4294,16 +5604,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C227">
-        <v>0.70000000000000007</v>
+        <v>0.6990291262135923</v>
       </c>
       <c r="D227">
-        <v>-3.035049185984517</v>
+        <v>93</v>
       </c>
       <c r="E227">
-        <v>-9.3533123255787887E-3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>-3.035107009138524</v>
+      </c>
+      <c r="G227">
+        <v>-0.009887784264761557</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>309</v>
       </c>
@@ -4311,16 +5627,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C228">
-        <v>0.8</v>
+        <v>0.7993527508090615</v>
       </c>
       <c r="D228">
-        <v>-3.0804038111527801</v>
+        <v>62</v>
       </c>
       <c r="E228">
-        <v>-5.6131126207689119E-3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F228">
+        <v>-3.08040381115278</v>
+      </c>
+      <c r="G228">
+        <v>-0.005930878477552581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>309</v>
       </c>
@@ -4328,16 +5650,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C229">
-        <v>0.9</v>
+        <v>0.8996763754045307</v>
       </c>
       <c r="D229">
-        <v>-3.1279547981170119</v>
+        <v>31</v>
       </c>
       <c r="E229">
-        <v>-4.0692747119279171E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F229">
+        <v>-3.127954798117012</v>
+      </c>
+      <c r="G229">
+        <v>-0.004228157640319863</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>309</v>
       </c>
@@ -4348,574 +5676,778 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>-3.1729803482781569</v>
+        <v>0</v>
       </c>
       <c r="E230">
+        <v>309</v>
+      </c>
+      <c r="F230">
+        <v>-3.172980348278157</v>
+      </c>
+      <c r="G230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>561</v>
       </c>
       <c r="B231">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>-2.7311842471339172</v>
+        <v>561</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>-2.731184247133917</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>561</v>
       </c>
       <c r="B232">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C232">
-        <v>0.1</v>
+        <v>0.09982174688057041</v>
       </c>
       <c r="D232">
-        <v>-2.7729946803640302</v>
+        <v>505</v>
       </c>
       <c r="E232">
-        <v>8.1841258699633102E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F232">
+        <v>-2.77299468036403</v>
+      </c>
+      <c r="G232">
+        <v>0.00809500900882254</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>561</v>
       </c>
       <c r="B233">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C233">
-        <v>0.2</v>
+        <v>0.1996434937611408</v>
       </c>
       <c r="D233">
+        <v>449</v>
+      </c>
+      <c r="E233">
+        <v>112</v>
+      </c>
+      <c r="F233">
         <v>-2.820331281122872</v>
       </c>
-      <c r="E233">
-        <v>1.0842084211198699E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>0.01066385048891583</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>561</v>
       </c>
       <c r="B234">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C234">
-        <v>0.3</v>
+        <v>0.2994652406417112</v>
       </c>
       <c r="D234">
+        <v>393</v>
+      </c>
+      <c r="E234">
+        <v>168</v>
+      </c>
+      <c r="F234">
         <v>-2.873829863547178</v>
       </c>
-      <c r="E234">
-        <v>7.3380608869684227E-3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>0.007070710303545225</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>561</v>
       </c>
       <c r="B235">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C235">
-        <v>0.4</v>
+        <v>0.3992869875222816</v>
       </c>
       <c r="D235">
+        <v>337</v>
+      </c>
+      <c r="E235">
+        <v>224</v>
+      </c>
+      <c r="F235">
         <v>-2.931784091640802</v>
       </c>
-      <c r="E235">
-        <v>-6.2160810657929666E-4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>-0.0009780755511430428</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>561</v>
       </c>
       <c r="B236">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C236">
-        <v>0.5</v>
+        <v>0.499108734402852</v>
       </c>
       <c r="D236">
-        <v>-2.9946786970857522</v>
+        <v>281</v>
       </c>
       <c r="E236">
-        <v>-1.3521654451452481E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F236">
+        <v>-2.994678697085752</v>
+      </c>
+      <c r="G236">
+        <v>-0.01396723875715722</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>561</v>
       </c>
       <c r="B237">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C237">
-        <v>0.60000000000000009</v>
+        <v>0.5989304812834224</v>
       </c>
       <c r="D237">
-        <v>-3.0480256578714959</v>
+        <v>225</v>
       </c>
       <c r="E237">
-        <v>-1.687405613712056E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F237">
+        <v>-3.048315064185083</v>
+      </c>
+      <c r="G237">
+        <v>-0.01769816361755261</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>561</v>
       </c>
       <c r="B238">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C238">
-        <v>0.70000000000000007</v>
+        <v>0.6987522281639929</v>
       </c>
       <c r="D238">
+        <v>169</v>
+      </c>
+      <c r="E238">
+        <v>392</v>
+      </c>
+      <c r="F238">
         <v>-3.091296450451285</v>
       </c>
-      <c r="E238">
-        <v>-1.0150289616832181E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>-0.0107741076448189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>561</v>
       </c>
       <c r="B239">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C239">
-        <v>0.8</v>
+        <v>0.7985739750445633</v>
       </c>
       <c r="D239">
-        <v>-3.1371175058882752</v>
+        <v>113</v>
       </c>
       <c r="E239">
-        <v>-5.9767859537463996E-3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="F239">
+        <v>-3.137117505888275</v>
+      </c>
+      <c r="G239">
+        <v>-0.006689720842874114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>561</v>
       </c>
       <c r="B240">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C240">
-        <v>0.9</v>
+        <v>0.8983957219251337</v>
       </c>
       <c r="D240">
-        <v>-3.1830736949615899</v>
+        <v>57</v>
       </c>
       <c r="E240">
-        <v>-1.9384159269845711E-3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="F240">
+        <v>-3.18307369496159</v>
+      </c>
+      <c r="G240">
+        <v>-0.002740467677253389</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>561</v>
       </c>
       <c r="B241">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>-3.2311298381346818</v>
+        <v>0</v>
       </c>
       <c r="E241">
+        <v>561</v>
+      </c>
+      <c r="F241">
+        <v>-3.231129838134682</v>
+      </c>
+      <c r="G241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>923</v>
       </c>
       <c r="B242">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>-2.7651530935507451</v>
+        <v>923</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>-2.765153093550745</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>923</v>
       </c>
       <c r="B243">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C243">
-        <v>0.1</v>
+        <v>0.09967497291440953</v>
       </c>
       <c r="D243">
-        <v>-2.8050720166463239</v>
+        <v>831</v>
       </c>
       <c r="E243">
-        <v>1.069743861687922E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F243">
+        <v>-2.805072016646324</v>
+      </c>
+      <c r="G243">
+        <v>0.01053292173157327</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>923</v>
       </c>
       <c r="B244">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C244">
-        <v>0.2</v>
+        <v>0.1993499458288191</v>
       </c>
       <c r="D244">
-        <v>-2.8510735300533678</v>
+        <v>739</v>
       </c>
       <c r="E244">
-        <v>1.531228692229325E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="F244">
+        <v>-2.851073530053368</v>
+      </c>
+      <c r="G244">
+        <v>0.01498325315168136</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>923</v>
       </c>
       <c r="B245">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C245">
-        <v>0.3</v>
+        <v>0.2990249187432286</v>
       </c>
       <c r="D245">
-        <v>-2.9026600960302669</v>
+        <v>647</v>
       </c>
       <c r="E245">
-        <v>1.434208265785175E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="F245">
+        <v>-2.902660096030267</v>
+      </c>
+      <c r="G245">
+        <v>0.01384853200193437</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>923</v>
       </c>
       <c r="B246">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C246">
-        <v>0.4</v>
+        <v>0.399783315276273</v>
       </c>
       <c r="D246">
-        <v>-2.9588089537168849</v>
+        <v>554</v>
       </c>
       <c r="E246">
-        <v>8.8095866836919168E-3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>-2.959028461404469</v>
+      </c>
+      <c r="G246">
+        <v>0.008480401072570531</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>923</v>
       </c>
       <c r="B247">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C247">
-        <v>0.5</v>
+        <v>0.4994582881906826</v>
       </c>
       <c r="D247">
-        <v>-3.0204646446142869</v>
+        <v>462</v>
       </c>
       <c r="E247">
-        <v>-2.229742501252741E-3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="F247">
+        <v>-3.020556655199321</v>
+      </c>
+      <c r="G247">
+        <v>-0.002595947895130291</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>923</v>
       </c>
       <c r="B248">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C248">
-        <v>0.60000000000000009</v>
+        <v>0.5991332611050921</v>
       </c>
       <c r="D248">
+        <v>370</v>
+      </c>
+      <c r="E248">
+        <v>553</v>
+      </c>
+      <c r="F248">
         <v>-3.087401915152205</v>
       </c>
-      <c r="E248">
-        <v>-1.8550651326712408E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>-0.01898936302086152</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>923</v>
       </c>
       <c r="B249">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C249">
-        <v>0.70000000000000007</v>
+        <v>0.6998916576381365</v>
       </c>
       <c r="D249">
-        <v>-3.1303928613095122</v>
+        <v>277</v>
       </c>
       <c r="E249">
-        <v>-1.0925235771561679E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="F249">
+        <v>-3.130392861309512</v>
+      </c>
+      <c r="G249">
+        <v>-0.0109800747333304</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>923</v>
       </c>
       <c r="B250">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C250">
-        <v>0.8</v>
+        <v>0.7995666305525461</v>
       </c>
       <c r="D250">
-        <v>-3.1769325692435761</v>
+        <v>185</v>
       </c>
       <c r="E250">
-        <v>-6.848581993167735E-3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="F250">
+        <v>-3.176932569243576</v>
+      </c>
+      <c r="G250">
+        <v>-0.007067937840242289</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>923</v>
       </c>
       <c r="B251">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C251">
-        <v>0.9</v>
+        <v>0.8992416034669556</v>
       </c>
       <c r="D251">
-        <v>-3.2230566178427682</v>
+        <v>93</v>
       </c>
       <c r="E251">
-        <v>-2.3562688799015348E-3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="F251">
+        <v>-3.223262274976608</v>
+      </c>
+      <c r="G251">
+        <v>-0.00294579874612233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>923</v>
       </c>
       <c r="B252">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>923</v>
+      </c>
+      <c r="F252">
         <v>-3.271316710675324</v>
       </c>
-      <c r="E252">
+      <c r="G252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>1415</v>
       </c>
       <c r="B253">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253">
-        <v>-2.7900167822443538</v>
+        <v>1415</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>-2.790016782244354</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>1415</v>
       </c>
       <c r="B254">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C254">
-        <v>0.1</v>
+        <v>0.09964664310954063</v>
       </c>
       <c r="D254">
-        <v>-2.8293609995328768</v>
+        <v>1274</v>
       </c>
       <c r="E254">
-        <v>1.172727635256088E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F254">
+        <v>-2.829360999532877</v>
+      </c>
+      <c r="G254">
+        <v>0.01154681171071958</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>1415</v>
       </c>
       <c r="B255">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C255">
         <v>0.2</v>
       </c>
       <c r="D255">
+        <v>1132</v>
+      </c>
+      <c r="E255">
+        <v>283</v>
+      </c>
+      <c r="F255">
         <v>-2.874353830942193</v>
       </c>
-      <c r="E255">
-        <v>1.7805938584328551E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>0.01780593858432855</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>1415</v>
       </c>
       <c r="B256">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C256">
-        <v>0.3</v>
+        <v>0.2996466431095406</v>
       </c>
       <c r="D256">
-        <v>-2.923095760184995</v>
+        <v>991</v>
       </c>
       <c r="E256">
-        <v>2.0135502982608688E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="F256">
+        <v>-2.923328232267044</v>
+      </c>
+      <c r="G256">
+        <v>0.01972256625871971</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>1415</v>
       </c>
       <c r="B257">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C257">
         <v>0.4</v>
       </c>
       <c r="D257">
-        <v>-2.9788298244143432</v>
+        <v>849</v>
       </c>
       <c r="E257">
-        <v>1.547293239434433E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="F257">
+        <v>-2.979093562244004</v>
+      </c>
+      <c r="G257">
+        <v>0.0152091945646835</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>1415</v>
       </c>
       <c r="B258">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C258">
-        <v>0.5</v>
+        <v>0.4996466431095407</v>
       </c>
       <c r="D258">
+        <v>708</v>
+      </c>
+      <c r="E258">
+        <v>707</v>
+      </c>
+      <c r="F258">
         <v>-3.039687563210606</v>
       </c>
-      <c r="E258">
-        <v>5.6866872391643231E-3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>0.005506222597323029</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>1415</v>
       </c>
       <c r="B259">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C259">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D259">
+        <v>566</v>
+      </c>
+      <c r="E259">
+        <v>849</v>
+      </c>
+      <c r="F259">
         <v>-3.105991539352321</v>
       </c>
-      <c r="E259">
-        <v>-9.5457952614674824E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>-0.009545795261467482</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>1415</v>
       </c>
       <c r="B260">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C260">
-        <v>0.70000000000000007</v>
+        <v>0.6996466431095406</v>
       </c>
       <c r="D260">
-        <v>-3.1601438337757419</v>
+        <v>425</v>
       </c>
       <c r="E260">
-        <v>-1.2626596043804891E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+      <c r="F260">
+        <v>-3.160363151752903</v>
+      </c>
+      <c r="G260">
+        <v>-0.01302637866280743</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>1415</v>
       </c>
       <c r="B261">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C261">
         <v>0.8</v>
       </c>
       <c r="D261">
-        <v>-3.2045619549813171</v>
+        <v>283</v>
       </c>
       <c r="E261">
-        <v>-5.9732236082958856E-3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+      <c r="F261">
+        <v>-3.204715164807701</v>
+      </c>
+      <c r="G261">
+        <v>-0.006126433434680223</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>1415</v>
       </c>
       <c r="B262">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C262">
-        <v>0.9</v>
+        <v>0.8996466431095407</v>
       </c>
       <c r="D262">
-        <v>-3.2527249132718312</v>
+        <v>142</v>
       </c>
       <c r="E262">
-        <v>-3.064688257727433E-3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+      <c r="F262">
+        <v>-3.252724913271831</v>
+      </c>
+      <c r="G262">
+        <v>-0.003245152899568726</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>1415</v>
       </c>
       <c r="B263">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>-3.3007317186551872</v>
+        <v>0</v>
       </c>
       <c r="E263">
+        <v>1415</v>
+      </c>
+      <c r="F263">
+        <v>-3.300731718655187</v>
+      </c>
+      <c r="G263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>2057</v>
       </c>
@@ -4926,13 +6458,19 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>-2.8089969310781382</v>
+        <v>2057</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>-2.808996931078138</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>2057</v>
       </c>
@@ -4940,16 +6478,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C265">
-        <v>0.1</v>
+        <v>0.09965969859017987</v>
       </c>
       <c r="D265">
+        <v>1852</v>
+      </c>
+      <c r="E265">
+        <v>205</v>
+      </c>
+      <c r="F265">
         <v>-2.84761631770363</v>
       </c>
-      <c r="E265">
-        <v>1.279954024846219E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>0.01262456091539521</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>2057</v>
       </c>
@@ -4957,16 +6501,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C266">
-        <v>0.2</v>
+        <v>0.1998055420515314</v>
       </c>
       <c r="D266">
+        <v>1646</v>
+      </c>
+      <c r="E266">
+        <v>411</v>
+      </c>
+      <c r="F266">
         <v>-2.891759923695433</v>
       </c>
-      <c r="E266">
-        <v>2.0074861130611851E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>0.01997487294028844</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>2057</v>
       </c>
@@ -4974,16 +6524,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C267">
-        <v>0.3</v>
+        <v>0.2999513855128829</v>
       </c>
       <c r="D267">
+        <v>1440</v>
+      </c>
+      <c r="E267">
+        <v>617</v>
+      </c>
+      <c r="F267">
         <v>-2.940979222819823</v>
       </c>
-      <c r="E267">
-        <v>2.227448888017447E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>0.02224949183259395</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>2057</v>
       </c>
@@ -4991,16 +6547,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C268">
-        <v>0.4</v>
+        <v>0.3996110841030627</v>
       </c>
       <c r="D268">
-        <v>-2.9939435877624891</v>
+        <v>1235</v>
       </c>
       <c r="E268">
-        <v>2.0729050811461699E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="F268">
+        <v>-2.994163640142773</v>
+      </c>
+      <c r="G268">
+        <v>0.0203090220505302</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>2057</v>
       </c>
@@ -5008,16 +6570,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C269">
-        <v>0.5</v>
+        <v>0.4997569275644142</v>
       </c>
       <c r="D269">
-        <v>-3.053646335105614</v>
+        <v>1029</v>
       </c>
       <c r="E269">
-        <v>1.244523034228995E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+      <c r="F269">
+        <v>-3.053808475212735</v>
+      </c>
+      <c r="G269">
+        <v>0.01215810499726433</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>2057</v>
       </c>
@@ -5025,16 +6593,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C270">
-        <v>0.60000000000000009</v>
+        <v>0.5999027710257657</v>
       </c>
       <c r="D270">
-        <v>-3.1191012707354702</v>
+        <v>823</v>
       </c>
       <c r="E270">
-        <v>-1.5907784136128811E-3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+      <c r="F270">
+        <v>-3.119326702863239</v>
+      </c>
+      <c r="G270">
+        <v>-0.001866204636543856</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>2057</v>
       </c>
@@ -5042,16 +6616,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C271">
-        <v>0.70000000000000007</v>
+        <v>0.6995624696159456</v>
       </c>
       <c r="D271">
-        <v>-3.1841419985399328</v>
+        <v>618</v>
       </c>
       <c r="E271">
-        <v>-1.5212579344122901E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1439</v>
+      </c>
+      <c r="F271">
+        <v>-3.184141998539933</v>
+      </c>
+      <c r="G271">
+        <v>-0.01543755277235148</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>2057</v>
       </c>
@@ -5059,16 +6639,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C272">
-        <v>0.8</v>
+        <v>0.7997083130772971</v>
       </c>
       <c r="D272">
+        <v>412</v>
+      </c>
+      <c r="E272">
+        <v>1645</v>
+      </c>
+      <c r="F272">
         <v>-3.22628171651853</v>
       </c>
-      <c r="E272">
-        <v>-5.9333704487666283E-3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>-0.006083352734252312</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>2057</v>
       </c>
@@ -5076,16 +6662,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C273">
-        <v>0.9</v>
+        <v>0.8998541565386485</v>
       </c>
       <c r="D273">
-        <v>-3.2755443520734309</v>
+        <v>206</v>
       </c>
       <c r="E273">
-        <v>-3.777079129714533E-3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1851</v>
+      </c>
+      <c r="F273">
+        <v>-3.275544352073431</v>
+      </c>
+      <c r="G273">
+        <v>-0.003852070272457597</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>2057</v>
       </c>
@@ -5096,13 +6688,19 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>-3.3231861998176702</v>
+        <v>0</v>
       </c>
       <c r="E274">
+        <v>2057</v>
+      </c>
+      <c r="F274">
+        <v>-3.32318619981767</v>
+      </c>
+      <c r="G274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>2869</v>
       </c>
@@ -5113,13 +6711,19 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>-2.8239578690842602</v>
+        <v>2869</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>-2.82395786908426</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>2869</v>
       </c>
@@ -5127,16 +6731,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C276">
-        <v>0.1</v>
+        <v>0.09968630184733357</v>
       </c>
       <c r="D276">
-        <v>-2.8619513857294971</v>
+        <v>2583</v>
       </c>
       <c r="E276">
-        <v>1.3699271466799169E-2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F276">
+        <v>-2.861951385729497</v>
+      </c>
+      <c r="G276">
+        <v>0.01353711214543019</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>2869</v>
       </c>
@@ -5144,16 +6754,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C277">
-        <v>0.2</v>
+        <v>0.1997211571976298</v>
       </c>
       <c r="D277">
-        <v>-2.9050332907147092</v>
+        <v>2296</v>
       </c>
       <c r="E277">
-        <v>2.2310154593623729E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="F277">
+        <v>-2.905033290714709</v>
+      </c>
+      <c r="G277">
+        <v>0.02216601297462883</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>2869</v>
       </c>
@@ -5161,16 +6777,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C278">
-        <v>0.3</v>
+        <v>0.2997560125479261</v>
       </c>
       <c r="D278">
-        <v>-2.9535900155245538</v>
+        <v>2009</v>
       </c>
       <c r="E278">
-        <v>2.5446217895813691E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="F278">
+        <v>-2.953590015524554</v>
+      </c>
+      <c r="G278">
+        <v>0.0253200939791931</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>2869</v>
       </c>
@@ -5178,16 +6800,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C279">
-        <v>0.4</v>
+        <v>0.3997908678982224</v>
       </c>
       <c r="D279">
-        <v>-3.0069220675128681</v>
+        <v>1722</v>
       </c>
       <c r="E279">
-        <v>2.3806954019536471E-2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+      <c r="F279">
+        <v>-3.006922067512868</v>
+      </c>
+      <c r="G279">
+        <v>0.02369884780529041</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>2869</v>
       </c>
@@ -5195,16 +6823,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C280">
-        <v>0.5</v>
+        <v>0.4998257232485186</v>
       </c>
       <c r="D280">
+        <v>1435</v>
+      </c>
+      <c r="E280">
+        <v>1434</v>
+      </c>
+      <c r="F280">
         <v>-3.065747878112056</v>
       </c>
-      <c r="E280">
-        <v>1.6673931532384501E-2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>0.01658384302051275</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>2869</v>
       </c>
@@ -5212,16 +6846,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C281">
-        <v>0.60000000000000009</v>
+        <v>0.5998605785988149</v>
       </c>
       <c r="D281">
-        <v>-3.1291592847097109</v>
+        <v>1148</v>
       </c>
       <c r="E281">
-        <v>4.9553130467643314E-3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+      <c r="F281">
+        <v>-3.129215952790542</v>
+      </c>
+      <c r="G281">
+        <v>0.00482657415643617</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>2869</v>
       </c>
@@ -5229,16 +6869,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C282">
-        <v>0.70000000000000007</v>
+        <v>0.6998954339491111</v>
       </c>
       <c r="D282">
-        <v>-3.1981733361074842</v>
+        <v>861</v>
       </c>
       <c r="E282">
-        <v>-1.2365950238971579E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+      <c r="F282">
+        <v>-3.198173336107484</v>
+      </c>
+      <c r="G282">
+        <v>-0.01242000334609494</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>2869</v>
       </c>
@@ -5246,16 +6892,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C283">
-        <v>0.8</v>
+        <v>0.7999302892994075</v>
       </c>
       <c r="D283">
-        <v>-3.2437937293611792</v>
+        <v>574</v>
       </c>
       <c r="E283">
-        <v>-6.2935553806311439E-3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+      <c r="F283">
+        <v>-3.243911425740421</v>
+      </c>
+      <c r="G283">
+        <v>-0.006447287164621951</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>2869</v>
       </c>
@@ -5263,16 +6915,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C284">
-        <v>0.9</v>
+        <v>0.8999651446497037</v>
       </c>
       <c r="D284">
+        <v>287</v>
+      </c>
+      <c r="E284">
+        <v>2582</v>
+      </c>
+      <c r="F284">
         <v>-3.292755718169007</v>
       </c>
-      <c r="E284">
-        <v>-3.5627560764226458E-3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>-0.00358077377879723</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>2869</v>
       </c>
@@ -5283,570 +6941,774 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>-3.3408857502046199</v>
+        <v>0</v>
       </c>
       <c r="E285">
+        <v>2869</v>
+      </c>
+      <c r="F285">
+        <v>-3.34088575020462</v>
+      </c>
+      <c r="G285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>3871</v>
       </c>
       <c r="B286">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C286">
         <v>0</v>
       </c>
       <c r="D286">
-        <v>-2.8360524578662978</v>
+        <v>3871</v>
       </c>
       <c r="E286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>-2.836052457866298</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>3871</v>
       </c>
       <c r="B287">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C287">
-        <v>0.1</v>
+        <v>0.09997416688194265</v>
       </c>
       <c r="D287">
-        <v>-2.8736069886532878</v>
+        <v>3484</v>
       </c>
       <c r="E287">
-        <v>1.4359649797689221E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="F287">
+        <v>-2.873606988653288</v>
+      </c>
+      <c r="G287">
+        <v>0.01434623874613017</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>3871</v>
       </c>
       <c r="B288">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C288">
-        <v>0.2</v>
+        <v>0.1999483337638853</v>
       </c>
       <c r="D288">
-        <v>-2.9162068630693181</v>
+        <v>3097</v>
       </c>
       <c r="E288">
-        <v>2.3673955966337701E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="F288">
+        <v>-2.916206863069318</v>
+      </c>
+      <c r="G288">
+        <v>0.02364713386321959</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>3871</v>
       </c>
       <c r="B289">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C289">
-        <v>0.3</v>
+        <v>0.2999225006458279</v>
       </c>
       <c r="D289">
-        <v>-2.963761649056706</v>
+        <v>2710</v>
       </c>
       <c r="E289">
-        <v>2.8033350563628549E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+      <c r="F289">
+        <v>-2.963872035927654</v>
+      </c>
+      <c r="G289">
+        <v>0.02788273053800383</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>3871</v>
       </c>
       <c r="B290">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C290">
-        <v>0.4</v>
+        <v>0.3998966675277706</v>
       </c>
       <c r="D290">
+        <v>2323</v>
+      </c>
+      <c r="E290">
+        <v>1548</v>
+      </c>
+      <c r="F290">
         <v>-3.016948683477958</v>
       </c>
-      <c r="E290">
-        <v>2.6760496727055161E-2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>0.02670685252081917</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>3871</v>
       </c>
       <c r="B291">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C291">
-        <v>0.5</v>
+        <v>0.4998708344097132</v>
       </c>
       <c r="D291">
-        <v>-3.0747530921495549</v>
+        <v>1936</v>
       </c>
       <c r="E291">
-        <v>2.0870268640136299E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1935</v>
+      </c>
+      <c r="F291">
+        <v>-3.074753092149555</v>
+      </c>
+      <c r="G291">
+        <v>0.0208032133823417</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>3871</v>
       </c>
       <c r="B292">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C292">
-        <v>0.60000000000000009</v>
+        <v>0.5998450012916559</v>
       </c>
       <c r="D292">
-        <v>-3.1379954923601052</v>
+        <v>1549</v>
       </c>
       <c r="E292">
-        <v>9.5420490142654746E-3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2322</v>
+      </c>
+      <c r="F292">
+        <v>-3.138054992592655</v>
+      </c>
+      <c r="G292">
+        <v>0.009402082472361739</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>3871</v>
       </c>
       <c r="B293">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C293">
-        <v>0.70000000000000007</v>
+        <v>0.6998191681735986</v>
       </c>
       <c r="D293">
-        <v>-3.2059666226772312</v>
+        <v>1162</v>
       </c>
       <c r="E293">
-        <v>-6.5149007181817256E-3</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2709</v>
+      </c>
+      <c r="F293">
+        <v>-3.205966622677231</v>
+      </c>
+      <c r="G293">
+        <v>-0.006608778079094435</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>3871</v>
       </c>
       <c r="B294">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C294">
-        <v>0.8</v>
+        <v>0.7997933350555412</v>
       </c>
       <c r="D294">
-        <v>-3.2584145367552719</v>
+        <v>775</v>
       </c>
       <c r="E294">
-        <v>-7.0486342115440026E-3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3096</v>
+      </c>
+      <c r="F294">
+        <v>-3.258536464143704</v>
+      </c>
+      <c r="G294">
+        <v>-0.007277850012447518</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>3871</v>
       </c>
       <c r="B295">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C295">
-        <v>0.9</v>
+        <v>0.8997675019374839</v>
       </c>
       <c r="D295">
-        <v>-3.3059535514152079</v>
+        <v>388</v>
       </c>
       <c r="E295">
-        <v>-2.6734682868019828E-3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3483</v>
+      </c>
+      <c r="F295">
+        <v>-3.30600249378926</v>
+      </c>
+      <c r="G295">
+        <v>-0.002843110124883697</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>3871</v>
       </c>
       <c r="B296">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>-3.3551942637130852</v>
+        <v>0</v>
       </c>
       <c r="E296">
+        <v>3871</v>
+      </c>
+      <c r="F296">
+        <v>-3.355194263713085</v>
+      </c>
+      <c r="G296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>5083</v>
       </c>
       <c r="B297">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
       <c r="D297">
-        <v>-2.8460315760815869</v>
+        <v>5083</v>
       </c>
       <c r="E297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>-2.846031576081587</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>5083</v>
       </c>
       <c r="B298">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C298">
-        <v>0.1</v>
+        <v>0.09994097973637615</v>
       </c>
       <c r="D298">
-        <v>-2.8832748366123111</v>
+        <v>4575</v>
       </c>
       <c r="E298">
-        <v>1.48535886585619E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="F298">
+        <v>-2.883466583070044</v>
+      </c>
+      <c r="G298">
+        <v>0.01463109450309696</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>5083</v>
       </c>
       <c r="B299">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C299">
-        <v>0.2</v>
+        <v>0.1998819594727523</v>
       </c>
       <c r="D299">
-        <v>-2.9256046253934969</v>
+        <v>4067</v>
       </c>
       <c r="E299">
-        <v>2.4620649066660061E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+      <c r="F299">
+        <v>-2.925604625393497</v>
+      </c>
+      <c r="G299">
+        <v>0.02455915367119754</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>5083</v>
       </c>
       <c r="B300">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C300">
-        <v>0.3</v>
+        <v>0.2998229392091284</v>
       </c>
       <c r="D300">
+        <v>3559</v>
+      </c>
+      <c r="E300">
+        <v>1524</v>
+      </c>
+      <c r="F300">
         <v>-2.972771122779887</v>
       </c>
-      <c r="E300">
-        <v>2.9551000869556091E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>0.02945875777636209</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>5083</v>
       </c>
       <c r="B301">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C301">
-        <v>0.4</v>
+        <v>0.3999606531575841</v>
       </c>
       <c r="D301">
-        <v>-3.0251258646160322</v>
+        <v>3050</v>
       </c>
       <c r="E301">
-        <v>2.9293108222695489E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="F301">
+        <v>-3.025136706014028</v>
+      </c>
+      <c r="G301">
+        <v>0.02926176835954508</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>5083</v>
       </c>
       <c r="B302">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C302">
-        <v>0.5</v>
+        <v>0.4999016328939603</v>
       </c>
       <c r="D302">
-        <v>-3.0824298318429828</v>
+        <v>2542</v>
       </c>
       <c r="E302">
-        <v>2.4085990185029441E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2541</v>
+      </c>
+      <c r="F302">
+        <v>-3.082502019542326</v>
+      </c>
+      <c r="G302">
+        <v>0.02396255632280142</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>5083</v>
       </c>
       <c r="B303">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C303">
-        <v>0.60000000000000009</v>
+        <v>0.5998426126303364</v>
       </c>
       <c r="D303">
-        <v>-3.1447640877064762</v>
+        <v>2034</v>
       </c>
       <c r="E303">
-        <v>1.384858351082174E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3049</v>
+      </c>
+      <c r="F303">
+        <v>-3.145075660412685</v>
+      </c>
+      <c r="G303">
+        <v>0.01345501694399642</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>5083</v>
       </c>
       <c r="B304">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C304">
-        <v>0.70000000000000007</v>
+        <v>0.6999803265787921</v>
       </c>
       <c r="D304">
-        <v>-3.2124600587478769</v>
+        <v>1525</v>
       </c>
       <c r="E304">
-        <v>-1.7505383412946831E-3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3558</v>
+      </c>
+      <c r="F304">
+        <v>-3.212460058747877</v>
+      </c>
+      <c r="G304">
+        <v>-0.001760787573871325</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>5083</v>
       </c>
       <c r="B305">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C305">
-        <v>0.8</v>
+        <v>0.7999213063151682</v>
       </c>
       <c r="D305">
-        <v>-3.2710886133133208</v>
+        <v>1017</v>
       </c>
       <c r="E305">
-        <v>-8.2822437174527863E-3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4066</v>
+      </c>
+      <c r="F305">
+        <v>-3.271088613313321</v>
+      </c>
+      <c r="G305">
+        <v>-0.008323240647761132</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>5083</v>
       </c>
       <c r="B306">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C306">
-        <v>0.9</v>
+        <v>0.8998622860515444</v>
       </c>
       <c r="D306">
-        <v>-3.3171137951177849</v>
+        <v>509</v>
       </c>
       <c r="E306">
-        <v>-2.2105763326325518E-3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4574</v>
+      </c>
+      <c r="F306">
+        <v>-3.317265434060941</v>
+      </c>
+      <c r="G306">
+        <v>-0.002433959903827609</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>5083</v>
       </c>
       <c r="B307">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>-3.3670000679744381</v>
+        <v>0</v>
       </c>
       <c r="E307">
+        <v>5083</v>
+      </c>
+      <c r="F307">
+        <v>-3.367000067974438</v>
+      </c>
+      <c r="G307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>6525</v>
       </c>
       <c r="B308">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>-2.8544051244242419</v>
+        <v>6525</v>
       </c>
       <c r="E308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>-2.854405124424242</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>6525</v>
       </c>
       <c r="B309">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C309">
-        <v>0.1</v>
+        <v>0.09992337164750958</v>
       </c>
       <c r="D309">
-        <v>-2.8913672517693301</v>
+        <v>5873</v>
       </c>
       <c r="E309">
-        <v>1.528800035624567E-2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="F309">
+        <v>-2.891431541964657</v>
+      </c>
+      <c r="G309">
+        <v>0.01518367174888624</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>6525</v>
       </c>
       <c r="B310">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C310">
         <v>0.2</v>
       </c>
       <c r="D310">
-        <v>-2.9334836837997642</v>
+        <v>5220</v>
       </c>
       <c r="E310">
-        <v>2.5421696027144058E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+      <c r="F310">
+        <v>-2.933483683799764</v>
+      </c>
+      <c r="G310">
+        <v>0.02542169602714406</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>6525</v>
       </c>
       <c r="B311">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C311">
-        <v>0.3</v>
+        <v>0.2999233716475096</v>
       </c>
       <c r="D311">
-        <v>-2.980179191783686</v>
+        <v>4568</v>
       </c>
       <c r="E311">
-        <v>3.0976315744553728E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1957</v>
+      </c>
+      <c r="F311">
+        <v>-2.980822869366548</v>
+      </c>
+      <c r="G311">
+        <v>0.03029259974966014</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>6525</v>
       </c>
       <c r="B312">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C312">
         <v>0.4</v>
       </c>
       <c r="D312">
-        <v>-3.0321918028240629</v>
+        <v>3915</v>
       </c>
       <c r="E312">
-        <v>3.1213832405509571E-2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2610</v>
+      </c>
+      <c r="F312">
+        <v>-3.032191802824063</v>
+      </c>
+      <c r="G312">
+        <v>0.03121383240550957</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>6525</v>
       </c>
       <c r="B313">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C313">
-        <v>0.5</v>
+        <v>0.4999233716475096</v>
       </c>
       <c r="D313">
+        <v>3263</v>
+      </c>
+      <c r="E313">
+        <v>3262</v>
+      </c>
+      <c r="F313">
         <v>-3.088949855137809</v>
       </c>
-      <c r="E313">
-        <v>2.6705907793096451E-2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <v>0.02666586938106486</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>6525</v>
       </c>
       <c r="B314">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C314">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D314">
-        <v>-3.1513420539520829</v>
+        <v>2610</v>
       </c>
       <c r="E314">
-        <v>1.6563836680155038E-2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3915</v>
+      </c>
+      <c r="F314">
+        <v>-3.151342053952083</v>
+      </c>
+      <c r="G314">
+        <v>0.01656383668015526</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>6525</v>
       </c>
       <c r="B315">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C315">
-        <v>0.70000000000000007</v>
+        <v>0.6999233716475096</v>
       </c>
       <c r="D315">
-        <v>-3.2179969507393449</v>
+        <v>1958</v>
       </c>
       <c r="E315">
-        <v>2.1590675942252391E-3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4567</v>
+      </c>
+      <c r="F315">
+        <v>-3.217996950739345</v>
+      </c>
+      <c r="G315">
+        <v>0.002119029182193422</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>6525</v>
       </c>
       <c r="B316">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C316">
         <v>0.8</v>
       </c>
       <c r="D316">
-        <v>-3.2820067199292162</v>
+        <v>1305</v>
       </c>
       <c r="E316">
-        <v>-9.6005738943123475E-3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5220</v>
+      </c>
+      <c r="F316">
+        <v>-3.28205009141783</v>
+      </c>
+      <c r="G316">
+        <v>-0.009643945382926677</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>6525</v>
       </c>
       <c r="B317">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C317">
-        <v>0.9</v>
+        <v>0.8999233716475096</v>
       </c>
       <c r="D317">
-        <v>-3.3265609929022739</v>
+        <v>653</v>
       </c>
       <c r="E317">
-        <v>-1.904719166038626E-3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5872</v>
+      </c>
+      <c r="F317">
+        <v>-3.326641887584411</v>
+      </c>
+      <c r="G317">
+        <v>-0.002025652260206512</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>6525</v>
       </c>
       <c r="B318">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>6525</v>
+      </c>
+      <c r="F318">
         <v>-3.376906401437568</v>
       </c>
-      <c r="E318">
+      <c r="G318">
         <v>0</v>
       </c>
     </row>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.644853203256579</v>
+        <v>-2.645634813165411</v>
       </c>
       <c r="G35">
         <v>-0.02269100651437883</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.690572182560999</v>
+        <v>-2.691353792469833</v>
       </c>
       <c r="G41">
         <v>-0.01916179430848164</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.751009748361005</v>
+        <v>-2.752572968178673</v>
       </c>
       <c r="G49">
         <v>-0.01393510476139781</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.784354970896342</v>
+        <v>-2.785136580805176</v>
       </c>
       <c r="G53">
         <v>-0.01444819962318999</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.62093014660463</v>
+        <v>-2.621138370137336</v>
       </c>
       <c r="G77">
         <v>2.886175969463167e-05</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.624351694336815</v>
+        <v>-2.624382246314314</v>
       </c>
       <c r="G78">
         <v>-0.0001491478390729384</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.627387346981088</v>
+        <v>-2.628073121534202</v>
       </c>
       <c r="G79">
         <v>5.8737650071361e-05</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.630778342735775</v>
+        <v>-2.630808894713273</v>
       </c>
       <c r="G80">
         <v>-8.871997119808128e-05</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.637040465724894</v>
+        <v>-2.637266095089732</v>
       </c>
       <c r="G82">
         <v>0.0001362333065184629</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.643688483801924</v>
+        <v>-2.644409070019304</v>
       </c>
       <c r="G84">
         <v>-2.470850367730648e-05</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.650657033325104</v>
+        <v>-2.650688598840555</v>
       </c>
       <c r="G86">
         <v>-0.0005061817600222618</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.65675000413255</v>
+        <v>-2.657015071933485</v>
       </c>
       <c r="G88">
         <v>-0.000112076300633035</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.666880673896764</v>
+        <v>-2.667853181769713</v>
       </c>
       <c r="G91">
         <v>-0.0005121316645944063</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.670762366817224</v>
+        <v>-2.672529711007916</v>
       </c>
       <c r="G92">
         <v>-0.001150286451636617</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.685504202177876</v>
+        <v>-2.686446158073327</v>
       </c>
       <c r="G96">
         <v>-0.002917969278619648</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.696894113134875</v>
+        <v>-2.697067525003314</v>
       </c>
       <c r="G99">
         <v>-0.004577265835365552</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.712278024925778</v>
+        <v>-2.713467642790031</v>
       </c>
       <c r="G103">
         <v>-0.00698702509259963</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.7162645199241</v>
+        <v>-2.716494408975706</v>
       </c>
       <c r="G104">
         <v>-0.007729981957503185</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.71975143129805</v>
+        <v>-2.720371842209398</v>
       </c>
       <c r="G105">
         <v>-0.007973355198036547</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.735608634422592</v>
+        <v>-2.736234318558664</v>
       </c>
       <c r="G109">
         <v>-0.01085640578890845</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.743294524014338</v>
+        <v>-2.744010850544951</v>
       </c>
       <c r="G111">
         <v>-0.01205521911381946</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.752295485529145</v>
+        <v>-2.753111987365788</v>
       </c>
       <c r="G113">
         <v>-0.01456910436179171</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.759534376077981</v>
+        <v>-2.760715107483636</v>
       </c>
       <c r="G115">
         <v>-0.01532091864379215</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.768044640427012</v>
+        <v>-2.769065106109595</v>
       </c>
       <c r="G117">
         <v>-0.01734410672598852</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.780341695615196</v>
+        <v>-2.780836652467738</v>
       </c>
       <c r="G120">
         <v>-0.01991054751391985</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.851001334495814</v>
+        <v>-2.851262338500666</v>
       </c>
       <c r="G142">
         <v>-0.01921234745935396</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.864681080390673</v>
+        <v>-2.86523452347706</v>
       </c>
       <c r="G147">
         <v>-0.01667440268712506</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.873270051072721</v>
+        <v>-2.873839211697451</v>
       </c>
       <c r="G150">
         <v>-0.01553275896892115</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.878329391208845</v>
+        <v>-2.878882834295231</v>
       </c>
       <c r="G152">
         <v>-0.01410502283821002</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.884512342389091</v>
+        <v>-2.884527052594427</v>
       </c>
       <c r="G154">
         <v>-0.01380089775162108</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.896345859638195</v>
+        <v>-2.896661371360744</v>
       </c>
       <c r="G158">
         <v>-0.01266026246705487</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.901443989953675</v>
+        <v>-2.90199743304006</v>
       </c>
       <c r="G160">
         <v>-0.01127131651569968</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.925990356362508</v>
+        <v>-2.927435826898837</v>
       </c>
       <c r="G168">
         <v>-0.009869377857193218</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.931902933769219</v>
+        <v>-2.932204742619443</v>
       </c>
       <c r="G170">
         <v>-0.009294878997069378</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.940791698635473</v>
+        <v>-2.941084137717011</v>
       </c>
       <c r="G173">
         <v>-0.008453029463071249</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.959732636924465</v>
+        <v>-2.960032431108669</v>
       </c>
       <c r="G179">
         <v>-0.007932738951557994</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.97837378102925</v>
+        <v>-2.979534167586711</v>
       </c>
       <c r="G185">
         <v>-0.007112654255838402</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.984885946804373</v>
+        <v>-2.985470824967445</v>
       </c>
       <c r="G187">
         <v>-0.007137743764126014</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.991392772142843</v>
+        <v>-2.9922533645161</v>
       </c>
       <c r="G189">
         <v>-0.007157492835761281</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.994637318709898</v>
+        <v>-2.994929757791434</v>
       </c>
       <c r="G190">
         <v>-0.007158501269398099</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.99789022771263</v>
+        <v>-2.998759182521562</v>
       </c>
       <c r="G191">
         <v>-0.00716787213871295</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.004403400820761</v>
+        <v>-3.004695839902297</v>
       </c>
       <c r="G193">
         <v>-0.007193968980009235</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.013879058516101</v>
+        <v>-3.014447211807822</v>
       </c>
       <c r="G196">
         <v>-0.006939012275097078</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.774779799454645</v>
+        <v>-2.776947670387621</v>
       </c>
       <c r="G222">
         <v>0.004170886411792196</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.831622488952957</v>
+        <v>-2.831765799727597</v>
       </c>
       <c r="G223">
         <v>-0.003418095285054878</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.890727404605672</v>
+        <v>-2.890872053441688</v>
       </c>
       <c r="G224">
         <v>-0.0132693031363047</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.99093689556646</v>
+        <v>-2.99119922559168</v>
       </c>
       <c r="G226">
         <v>-0.01497137849416297</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.127954798117012</v>
+        <v>-3.128175217972618</v>
       </c>
       <c r="G229">
         <v>-0.004228157640319863</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.77299468036403</v>
+        <v>-2.773693890612809</v>
       </c>
       <c r="G232">
         <v>0.00809500900882254</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.820331281122872</v>
+        <v>-2.820764443899358</v>
       </c>
       <c r="G233">
         <v>0.01066385048891583</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.873829863547178</v>
+        <v>-2.873990443014427</v>
       </c>
       <c r="G234">
         <v>0.007070710303545225</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.931784091640802</v>
+        <v>-2.931834092000845</v>
       </c>
       <c r="G235">
         <v>-0.0009780755511430428</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.091296450451285</v>
+        <v>-3.091320814064812</v>
       </c>
       <c r="G238">
         <v>-0.0107741076448189</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.18307369496159</v>
+        <v>-3.183198097059396</v>
       </c>
       <c r="G240">
         <v>-0.002740467677253389</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.805072016646324</v>
+        <v>-2.805802420233543</v>
       </c>
       <c r="G243">
         <v>0.01053292173157327</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.851073530053368</v>
+        <v>-2.851267187873987</v>
       </c>
       <c r="G244">
         <v>0.01498325315168136</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.020556655199321</v>
+        <v>-3.02076708872863</v>
       </c>
       <c r="G247">
         <v>-0.002595947895130291</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.087401915152205</v>
+        <v>-3.087479834730082</v>
       </c>
       <c r="G248">
         <v>-0.01898936302086152</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.130392861309512</v>
+        <v>-3.130613444072039</v>
       </c>
       <c r="G249">
         <v>-0.0109800747333304</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.176932569243576</v>
+        <v>-3.177283858421449</v>
       </c>
       <c r="G250">
         <v>-0.007067937840242289</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.923328232267044</v>
+        <v>-2.923422156683714</v>
       </c>
       <c r="G256">
         <v>0.01972256625871971</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.979093562244004</v>
+        <v>-2.979290330024877</v>
       </c>
       <c r="G257">
         <v>0.0152091945646835</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.039687563210606</v>
+        <v>-3.039822655808179</v>
       </c>
       <c r="G258">
         <v>0.005506222597323029</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.204715164807701</v>
+        <v>-3.204810920949193</v>
       </c>
       <c r="G261">
         <v>-0.006126433434680223</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.053808475212735</v>
+        <v>-3.054217706217506</v>
       </c>
       <c r="G269">
         <v>0.01215810499726433</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.22628171651853</v>
+        <v>-3.226465807366165</v>
       </c>
       <c r="G272">
         <v>-0.006083352734252312</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.006922067512868</v>
+        <v>-3.007074472582891</v>
       </c>
       <c r="G279">
         <v>0.02369884780529041</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.129215952790542</v>
+        <v>-3.129276953435744</v>
       </c>
       <c r="G281">
         <v>0.00482657415643617</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.292755718169007</v>
+        <v>-3.29276992764103</v>
       </c>
       <c r="G284">
         <v>-0.00358077377879723</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.963872035927654</v>
+        <v>-2.964267308378179</v>
       </c>
       <c r="G289">
         <v>0.02788273053800383</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.074753092149555</v>
+        <v>-3.075097538524701</v>
       </c>
       <c r="G291">
         <v>0.0208032133823417</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.258536464143704</v>
+        <v>-3.258714824187416</v>
       </c>
       <c r="G294">
         <v>-0.007277850012447518</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.30600249378926</v>
+        <v>-3.306177078081882</v>
       </c>
       <c r="G295">
         <v>-0.002843110124883697</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.925604625393497</v>
+        <v>-2.925670802368445</v>
       </c>
       <c r="G299">
         <v>0.02455915367119754</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.972771122779887</v>
+        <v>-2.972799002710052</v>
       </c>
       <c r="G300">
         <v>0.02945875777636209</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.025136706014028</v>
+        <v>-3.025212241608743</v>
       </c>
       <c r="G301">
         <v>0.02926176835954508</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.082502019542326</v>
+        <v>-3.082865280172565</v>
       </c>
       <c r="G302">
         <v>0.02396255632280142</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.145075660412685</v>
+        <v>-3.145342890184007</v>
       </c>
       <c r="G303">
         <v>0.01345501694399642</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.212460058747877</v>
+        <v>-3.212621289873333</v>
       </c>
       <c r="G304">
         <v>-0.001760787573871325</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.271088613313321</v>
+        <v>-3.271165660706933</v>
       </c>
       <c r="G305">
         <v>-0.008323240647761132</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.891431541964657</v>
+        <v>-2.891650547293624</v>
       </c>
       <c r="G309">
         <v>0.01518367174888624</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.933483683799764</v>
+        <v>-2.933575201511906</v>
       </c>
       <c r="G310">
         <v>0.02542169602714406</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.032191802824063</v>
+        <v>-3.032340822084214</v>
       </c>
       <c r="G312">
         <v>0.03121383240550957</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.088949855137809</v>
+        <v>-3.089222073906805</v>
       </c>
       <c r="G313">
         <v>0.02666586938106486</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.217996950739345</v>
+        <v>-3.218088536215872</v>
       </c>
       <c r="G315">
         <v>0.002119029182193422</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.630808894713273</v>
+        <v>-2.631047670223478</v>
       </c>
       <c r="G80">
         <v>-8.871997119808128e-05</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.634113874845248</v>
+        <v>-2.634291546400456</v>
       </c>
       <c r="G81">
         <v>-0.000180713947254052</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.647652946196282</v>
+        <v>-2.648099945239193</v>
       </c>
       <c r="G85">
         <v>-0.0007456327646178096</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.667853181769713</v>
+        <v>-2.669112422962499</v>
       </c>
       <c r="G91">
         <v>-0.0005121316645944063</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.697067525003314</v>
+        <v>-2.69757988768799</v>
       </c>
       <c r="G99">
         <v>-0.004577265835365552</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.700537030545133</v>
+        <v>-2.700788952200702</v>
       </c>
       <c r="G100">
         <v>-0.004976645112206413</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.708361520341051</v>
+        <v>-2.708987204477122</v>
       </c>
       <c r="G102">
         <v>-0.006314058641289311</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.716494408975706</v>
+        <v>-2.716698372821643</v>
       </c>
       <c r="G104">
         <v>-0.007729981957503185</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.744010850544951</v>
+        <v>-2.744058808354583</v>
       </c>
       <c r="G111">
         <v>-0.01205521911381946</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.837582592605809</v>
+        <v>-2.837843596610659</v>
       </c>
       <c r="G137">
         <v>-0.02201129623643561</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.845633837739812</v>
+        <v>-2.845894841744662</v>
       </c>
       <c r="G140">
         <v>-0.02033192697018649</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.870309581151525</v>
+        <v>-2.87058630269472</v>
       </c>
       <c r="G149">
         <v>-0.01581582718114238</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.90199743304006</v>
+        <v>-2.902022520347088</v>
       </c>
       <c r="G160">
         <v>-0.01127131651569968</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.947021802430752</v>
+        <v>-2.948436845223403</v>
       </c>
       <c r="G175">
         <v>-0.008196056991515155</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.953219463816334</v>
+        <v>-2.954388212809472</v>
       </c>
       <c r="G177">
         <v>-0.007906642110261264</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.001150491818029</v>
+        <v>-3.001442930899566</v>
       </c>
       <c r="G192">
         <v>-0.007184598110694773</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.014447211807822</v>
+        <v>-3.014747005992026</v>
       </c>
       <c r="G196">
         <v>-0.006939012275097078</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.017707475913221</v>
+        <v>-3.017992559892089</v>
       </c>
       <c r="G197">
         <v>-0.007523891538799177</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.033972020926877</v>
+        <v>-3.034264460008413</v>
       </c>
       <c r="G202">
         <v>-0.007570745885367436</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.890872053441688</v>
+        <v>-2.891402704012243</v>
       </c>
       <c r="G224">
         <v>-0.0132693031363047</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.99119922559168</v>
+        <v>-2.991592720629517</v>
       </c>
       <c r="G226">
         <v>-0.01497137849416297</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.035107009138524</v>
+        <v>-3.035151625081348</v>
       </c>
       <c r="G227">
         <v>-0.009887784264761557</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.994678697085752</v>
+        <v>-2.994710074732278</v>
       </c>
       <c r="G236">
         <v>-0.01396723875715722</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.091320814064812</v>
+        <v>-3.091633739120856</v>
       </c>
       <c r="G238">
         <v>-0.0107741076448189</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.183198097059396</v>
+        <v>-3.183264676930977</v>
       </c>
       <c r="G240">
         <v>-0.002740467677253389</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.851267187873987</v>
+        <v>-2.851443388752883</v>
       </c>
       <c r="G244">
         <v>0.01498325315168136</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.923422156683714</v>
+        <v>-2.923665383044652</v>
       </c>
       <c r="G256">
         <v>0.01972256625871971</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.160363151752903</v>
+        <v>-3.160468567249288</v>
       </c>
       <c r="G260">
         <v>-0.01302637866280743</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.84761631770363</v>
+        <v>-2.847646790615402</v>
       </c>
       <c r="G265">
         <v>0.01262456091539521</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.994163640142773</v>
+        <v>-2.994380292692849</v>
       </c>
       <c r="G268">
         <v>0.0203090220505302</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.226465807366165</v>
+        <v>-3.226590787875113</v>
       </c>
       <c r="G272">
         <v>-0.006083352734252312</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.275544352073431</v>
+        <v>-3.275573936856891</v>
       </c>
       <c r="G273">
         <v>-0.003852070272457597</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.905033290714709</v>
+        <v>-2.905092692834559</v>
       </c>
       <c r="G277">
         <v>0.02216601297462883</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.198173336107484</v>
+        <v>-3.198202570743265</v>
       </c>
       <c r="G282">
         <v>-0.01242000334609494</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.29276992764103</v>
+        <v>-3.292802862802632</v>
       </c>
       <c r="G284">
         <v>-0.00358077377879723</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.873606988653288</v>
+        <v>-2.873863989280586</v>
       </c>
       <c r="G287">
         <v>0.01434623874613017</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.916206863069318</v>
+        <v>-2.916367498584735</v>
       </c>
       <c r="G288">
         <v>0.02364713386321959</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.972799002710052</v>
+        <v>-2.972901813188335</v>
       </c>
       <c r="G300">
         <v>0.02945875777636209</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.933575201511906</v>
+        <v>-2.93371227722202</v>
       </c>
       <c r="G310">
         <v>0.02542169602714406</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.674290376247747</v>
+        <v>-2.675071986156581</v>
       </c>
       <c r="G39">
         <v>-0.01929605183200245</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.697540670854374</v>
+        <v>-2.698322280763208</v>
       </c>
       <c r="G42">
         <v>-0.0179222506834702</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.744822869976463</v>
+        <v>-2.745604479885296</v>
       </c>
       <c r="G48">
         <v>-0.01595625829524283</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.768854774491924</v>
+        <v>-2.769636384400759</v>
       </c>
       <c r="G51">
         <v>-0.01536406705554438</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.634291546400456</v>
+        <v>-2.634499769933162</v>
       </c>
       <c r="G81">
         <v>-0.000180713947254052</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.637266095089732</v>
+        <v>-2.637565974554932</v>
       </c>
       <c r="G82">
         <v>0.0001362333065184629</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.640687642821918</v>
+        <v>-2.641195745819824</v>
       </c>
       <c r="G83">
         <v>-0.000267405657088382</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.644409070019304</v>
+        <v>-2.644630439697375</v>
       </c>
       <c r="G84">
         <v>-2.470850367730648e-05</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.650688598840555</v>
+        <v>-2.651613148903874</v>
       </c>
       <c r="G86">
         <v>-0.0005061817600222618</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.657015071933485</v>
+        <v>-2.657175337656559</v>
       </c>
       <c r="G88">
         <v>-0.000112076300633035</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.674943939202886</v>
+        <v>-2.676615367774315</v>
       </c>
       <c r="G93">
         <v>-0.002088320703882207</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.679225686894579</v>
+        <v>-2.679876649783427</v>
       </c>
       <c r="G94">
         <v>-0.003126530262157257</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.686446158073327</v>
+        <v>-2.686954261071235</v>
       </c>
       <c r="G96">
         <v>-0.002917969278619648</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.689911403928377</v>
+        <v>-2.690024725379773</v>
       </c>
       <c r="G97">
         <v>-0.004081632895702736</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.700788952200702</v>
+        <v>-2.701378811134552</v>
       </c>
       <c r="G100">
         <v>-0.004976645112206413</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.716698372821643</v>
+        <v>-2.71693714833185</v>
       </c>
       <c r="G104">
         <v>-0.007729981957503185</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.731935165034837</v>
+        <v>-2.732668897397582</v>
       </c>
       <c r="G108">
         <v>-0.01042647453457124</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.736234318558664</v>
+        <v>-2.736646505937308</v>
       </c>
       <c r="G109">
         <v>-0.01085640578890845</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.740302569492929</v>
+        <v>-2.740350527302562</v>
       </c>
       <c r="G110">
         <v>-0.01230680272582796</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.77665082039531</v>
+        <v>-2.776889595905513</v>
       </c>
       <c r="G119">
         <v>-0.01946321042745103</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.780836652467738</v>
+        <v>-2.781058022145809</v>
       </c>
       <c r="G120">
         <v>-0.01991054751391985</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.85931358363467</v>
+        <v>-2.859867026721058</v>
       </c>
       <c r="G145">
         <v>-0.01779398219795691</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.86791827185506</v>
+        <v>-2.868194993398254</v>
       </c>
       <c r="G148">
         <v>-0.01666805601809496</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.878882834295231</v>
+        <v>-2.879436277381619</v>
       </c>
       <c r="G152">
         <v>-0.01410502283821002</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.881843304216427</v>
+        <v>-2.882136750630972</v>
       </c>
       <c r="G153">
         <v>-0.01437539771237439</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.884527052594427</v>
+        <v>-2.884819491675965</v>
       </c>
       <c r="G154">
         <v>-0.01380089775162108</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.890164923123966</v>
+        <v>-2.890447992436818</v>
       </c>
       <c r="G156">
         <v>-0.0129664022196605</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.899036963118867</v>
+        <v>-2.899621841281939</v>
       </c>
       <c r="G159">
         <v>-0.01210782781430897</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.902022520347088</v>
+        <v>-2.902867395182001</v>
       </c>
       <c r="G160">
         <v>-0.01127131651569968</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.929250620467907</v>
+        <v>-2.92981141865696</v>
       </c>
       <c r="G169">
         <v>-0.009886103829175097</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.934871766126092</v>
+        <v>-2.935164205207628</v>
       </c>
       <c r="G171">
         <v>-0.009020173220524286</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.941084137717011</v>
+        <v>-2.942254901376162</v>
       </c>
       <c r="G173">
         <v>-0.008453029463071249</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.963269622573057</v>
+        <v>-2.963570424090268</v>
       </c>
       <c r="G180">
         <v>-0.008226186466732455</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.966238454929927</v>
+        <v>-2.966522531575787</v>
       </c>
       <c r="G181">
         <v>-0.007951480690185142</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.988138855807105</v>
+        <v>-2.988431294888641</v>
       </c>
       <c r="G188">
         <v>-0.007147114633440976</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.994929757791434</v>
+        <v>-2.995515643287515</v>
       </c>
       <c r="G190">
         <v>-0.007158501269398099</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.007948748905029</v>
+        <v>-3.008233832883895</v>
       </c>
       <c r="G194">
         <v>-0.00749577893085962</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.010909218826223</v>
+        <v>-3.011202665240766</v>
       </c>
       <c r="G195">
         <v>-0.007212710718635884</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.023920854837147</v>
+        <v>-3.02450573300022</v>
       </c>
       <c r="G199">
         <v>-0.007250194195890292</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.72545563543218</v>
+        <v>-2.725806719028554</v>
       </c>
       <c r="G221">
         <v>0.004241342632791856</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.891402704012243</v>
+        <v>-2.891567697828819</v>
       </c>
       <c r="G224">
         <v>-0.0132693031363047</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.773693890612809</v>
+        <v>-2.773962232147075</v>
       </c>
       <c r="G232">
         <v>0.00809500900882254</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.931834092000845</v>
+        <v>-2.932382184994894</v>
       </c>
       <c r="G235">
         <v>-0.0009780755511430428</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.994710074732278</v>
+        <v>-2.995148421814253</v>
       </c>
       <c r="G236">
         <v>-0.01396723875715722</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.183264676930977</v>
+        <v>-3.183443906885155</v>
       </c>
       <c r="G240">
         <v>-0.002740467677253389</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.851443388752883</v>
+        <v>-2.851714748656276</v>
       </c>
       <c r="G244">
         <v>0.01498325315168136</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.902660096030267</v>
+        <v>-2.903101270177195</v>
       </c>
       <c r="G245">
         <v>0.01384853200193437</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.130613444072039</v>
+        <v>-3.13074517751374</v>
       </c>
       <c r="G249">
         <v>-0.0109800747333304</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.829360999532877</v>
+        <v>-2.829711033920274</v>
       </c>
       <c r="G254">
         <v>0.01154681171071958</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.874353830942193</v>
+        <v>-2.874972703409824</v>
       </c>
       <c r="G255">
         <v>0.01780593858432855</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.979290330024877</v>
+        <v>-2.979345838252736</v>
       </c>
       <c r="G257">
         <v>0.0152091945646835</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.204810920949193</v>
+        <v>-3.205058882028033</v>
       </c>
       <c r="G261">
         <v>-0.006126433434680223</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.847646790615402</v>
+        <v>-2.847709802226801</v>
       </c>
       <c r="G265">
         <v>0.01262456091539521</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.994380292692849</v>
+        <v>-2.99471284125489</v>
       </c>
       <c r="G268">
         <v>0.0203090220505302</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.275573936856891</v>
+        <v>-3.275607048055424</v>
       </c>
       <c r="G273">
         <v>-0.003852070272457597</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.861951385729497</v>
+        <v>-2.86217704915921</v>
       </c>
       <c r="G276">
         <v>0.01353711214543019</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.905092692834559</v>
+        <v>-2.905339129204722</v>
       </c>
       <c r="G277">
         <v>0.02216601297462883</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.065747878112056</v>
+        <v>-3.065839588276748</v>
       </c>
       <c r="G280">
         <v>0.01658384302051275</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.129276953435744</v>
+        <v>-3.129505474914156</v>
       </c>
       <c r="G281">
         <v>0.00482657415643617</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.198202570743265</v>
+        <v>-3.198276894321253</v>
       </c>
       <c r="G282">
         <v>-0.01242000334609494</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.243911425740421</v>
+        <v>-3.24435453573507</v>
       </c>
       <c r="G283">
         <v>-0.006447287164621951</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.292802862802632</v>
+        <v>-3.292868898330678</v>
       </c>
       <c r="G284">
         <v>-0.00358077377879723</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.916367498584735</v>
+        <v>-2.916428678135792</v>
       </c>
       <c r="G288">
         <v>0.02364713386321959</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.016948683477958</v>
+        <v>-3.017456427899476</v>
       </c>
       <c r="G290">
         <v>0.02670685252081917</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.075097538524701</v>
+        <v>-3.075185206835919</v>
       </c>
       <c r="G291">
         <v>0.0208032133823417</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.205966622677231</v>
+        <v>-3.205994985152226</v>
       </c>
       <c r="G293">
         <v>-0.006608778079094435</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.883466583070044</v>
+        <v>-2.88352594119328</v>
       </c>
       <c r="G298">
         <v>0.01463109450309696</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.025212241608743</v>
+        <v>-3.025622067535627</v>
       </c>
       <c r="G301">
         <v>0.02926176835954508</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.271165660706933</v>
+        <v>-3.271178965640444</v>
       </c>
       <c r="G305">
         <v>-0.008323240647761132</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.089222073906805</v>
+        <v>-3.089311725958793</v>
       </c>
       <c r="G313">
         <v>0.02666586938106486</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.151342053952083</v>
+        <v>-3.151414212377743</v>
       </c>
       <c r="G314">
         <v>0.01656383668015526</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.214425596731849</v>
+        <v>-2.272631571907541</v>
       </c>
       <c r="G3">
         <v>-0.0316883621511499</v>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.232546957997232</v>
+        <v>-2.341895646539313</v>
       </c>
       <c r="G4">
         <v>-0.01950172375920256</v>
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.254486695881022</v>
+        <v>-2.425417410405929</v>
       </c>
       <c r="G5">
         <v>-0.01113346198566267</v>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.280244810383219</v>
+        <v>-2.523196863507389</v>
       </c>
       <c r="G6">
         <v>-0.006583576830529347</v>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-2.306002924885417</v>
+        <v>-2.620976316608849</v>
       </c>
       <c r="G7">
         <v>-0.002033691675396687</v>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.331761039387615</v>
+        <v>-2.718755769710309</v>
       </c>
       <c r="G8">
         <v>0.002516193479735751</v>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.361337530508219</v>
+        <v>-2.830792912046613</v>
       </c>
       <c r="G9">
         <v>0.003247702016461407</v>
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.387095645010417</v>
+        <v>-2.928572365148073</v>
       </c>
       <c r="G10">
         <v>0.007797587171594067</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.416672136131022</v>
+        <v>-3.040609507484376</v>
       </c>
       <c r="G11">
         <v>0.008529095708319501</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.446248627251626</v>
+        <v>-3.15264664982068</v>
       </c>
       <c r="G12">
         <v>0.009260604245045156</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.475825118372232</v>
+        <v>-3.264683792156983</v>
       </c>
       <c r="G13">
         <v>0.009992112781769924</v>
@@ -714,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.509219986111243</v>
+        <v>-3.390978623728129</v>
       </c>
       <c r="G14">
         <v>0.006905244700088797</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.546433230468662</v>
+        <v>-3.531531144534118</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.474879586620425</v>
+        <v>-2.483697070400148</v>
       </c>
       <c r="G17">
         <v>-0.0004619644091761188</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.484187764766168</v>
+        <v>-2.502290548095691</v>
       </c>
       <c r="G18">
         <v>-0.001562110636532665</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.494134124730093</v>
+        <v>-2.521990023379478</v>
       </c>
       <c r="G19">
         <v>-0.003300438682071416</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.504080484694017</v>
+        <v>-2.541689498663263</v>
       </c>
       <c r="G20">
         <v>-0.005038766727610167</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.514026844657943</v>
+        <v>-2.56138897394705</v>
       </c>
       <c r="G21">
         <v>-0.006777094773148917</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.524611386440049</v>
+        <v>-2.582194446819077</v>
       </c>
       <c r="G22">
         <v>-0.009153604636868984</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.534557746403973</v>
+        <v>-2.601893922102864</v>
       </c>
       <c r="G23">
         <v>-0.01089193268240729</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.54514228818608</v>
+        <v>-2.622699394974892</v>
       </c>
       <c r="G24">
         <v>-0.01326844254612825</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.556236833640626</v>
+        <v>-2.644546024313989</v>
       </c>
       <c r="G25">
         <v>-0.01615495608228734</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.567459557240915</v>
+        <v>-2.666457494774261</v>
       </c>
       <c r="G26">
         <v>-0.0191696477641905</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.578682280841202</v>
+        <v>-2.688368965234531</v>
       </c>
       <c r="G27">
         <v>-0.02218433944609166</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.590543186259672</v>
+        <v>-2.711386433283045</v>
       </c>
       <c r="G28">
         <v>-0.02583721294617525</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.603042273496324</v>
+        <v>-2.7355098989198</v>
       </c>
       <c r="G29">
         <v>-0.03012826826444059</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.609229151880867</v>
+        <v>-2.752543291221651</v>
       </c>
       <c r="G30">
         <v>-0.02810711473059735</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.616197640174243</v>
+        <v>-2.771516526297742</v>
       </c>
       <c r="G31">
         <v>-0.02686757110558724</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.623947738376451</v>
+        <v>-2.790489761373831</v>
       </c>
       <c r="G32">
         <v>-0.02640963738940916</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.630916226669826</v>
+        <v>-2.811608458051281</v>
       </c>
       <c r="G33">
         <v>-0.02517009376439883</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.637884714963202</v>
+        <v>-2.830376074300251</v>
       </c>
       <c r="G34">
         <v>-0.02393055013938805</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.645634813165411</v>
+        <v>-2.847409466602103</v>
       </c>
       <c r="G35">
         <v>-0.02269100651437883</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.653384911367621</v>
+        <v>-2.866588320505312</v>
       </c>
       <c r="G36">
         <v>-0.02301468270703455</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.660353399660996</v>
+        <v>-2.892096162153841</v>
       </c>
       <c r="G37">
         <v>-0.02177513908202355</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.667321887954372</v>
+        <v>-2.909129554455695</v>
       </c>
       <c r="G38">
         <v>-0.02053559545701278</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.675071986156581</v>
+        <v>-2.933922317854498</v>
       </c>
       <c r="G39">
         <v>-0.01929605183200245</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.682040474449958</v>
+        <v>-2.946360946358146</v>
       </c>
       <c r="G40">
         <v>-0.01883811811582681</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.691353792469833</v>
+        <v>-2.970948090929828</v>
       </c>
       <c r="G41">
         <v>-0.01916179430848164</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.698322280763208</v>
+        <v>-2.991047641909888</v>
       </c>
       <c r="G42">
         <v>-0.0179222506834702</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.706072378965417</v>
+        <v>-3.014410021957055</v>
       </c>
       <c r="G43">
         <v>-0.01824592687612703</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.713040867258794</v>
+        <v>-3.033588875860268</v>
       </c>
       <c r="G44">
         <v>-0.01700638325111758</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.721572575369836</v>
+        <v>-3.050720716782663</v>
       </c>
       <c r="G45">
         <v>-0.01733005944377441</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.730104283480879</v>
+        <v>-3.079089098282275</v>
       </c>
       <c r="G46">
         <v>-0.01765373563643036</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.737072771774254</v>
+        <v>-3.100207794959723</v>
       </c>
       <c r="G47">
         <v>-0.0164141920114198</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.745604479885296</v>
+        <v>-3.126636333685097</v>
       </c>
       <c r="G48">
         <v>-0.01595625829524283</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.752572968178673</v>
+        <v>-3.155004715184715</v>
       </c>
       <c r="G49">
         <v>-0.01393510476139781</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.761104676289715</v>
+        <v>-3.165601949534669</v>
       </c>
       <c r="G50">
         <v>-0.01582200077172191</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.769636384400759</v>
+        <v>-3.189474015856621</v>
       </c>
       <c r="G51">
         <v>-0.01536406705554438</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.777386482602966</v>
+        <v>-3.212943566110371</v>
       </c>
       <c r="G52">
         <v>-0.01568774324820066</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.785136580805176</v>
+        <v>-3.241723185264232</v>
       </c>
       <c r="G53">
         <v>-0.01444819962318999</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.793668288916217</v>
+        <v>-3.262430644287436</v>
       </c>
       <c r="G54">
         <v>-0.01555348572467963</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.801418387118427</v>
+        <v>-3.289528480774862</v>
       </c>
       <c r="G55">
         <v>-0.01509555200850321</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.80995009522947</v>
+        <v>-3.31416140583422</v>
       </c>
       <c r="G56">
         <v>-0.01541922820115993</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.817700193431679</v>
+        <v>-3.339736322140403</v>
       </c>
       <c r="G57">
         <v>-0.01496129448498218</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.826231901542722</v>
+        <v>-3.35792740430911</v>
       </c>
       <c r="G58">
         <v>-0.01528497067763934</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.835545219562599</v>
+        <v>-3.383640864784762</v>
       </c>
       <c r="G59">
         <v>-0.01639025677912964</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.84238739674939</v>
+        <v>-3.41027502233726</v>
       </c>
       <c r="G60">
         <v>-0.01502440204753486</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.849229573936181</v>
+        <v>-3.430982481360465</v>
       </c>
       <c r="G61">
         <v>-0.01365854731594052</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.856071751122973</v>
+        <v>-3.453835401985027</v>
       </c>
       <c r="G62">
         <v>-0.01229269258434545</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.862913928309765</v>
+        <v>-3.480263940710405</v>
       </c>
       <c r="G63">
         <v>-0.01092683785275156</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.869756105496556</v>
+        <v>-3.502097715637579</v>
       </c>
       <c r="G64">
         <v>-0.00956098312115633</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.876598282683349</v>
+        <v>-3.532200321084309</v>
       </c>
       <c r="G65">
         <v>-0.008195128389562878</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.883440459870141</v>
+        <v>-3.553319017761757</v>
       </c>
       <c r="G66">
         <v>-0.006829273657969009</v>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.890282637056933</v>
+        <v>-3.576887016636049</v>
       </c>
       <c r="G67">
         <v>-0.005463418926374669</v>
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.897124814243726</v>
+        <v>-3.602394858284577</v>
       </c>
       <c r="G68">
         <v>-0.004097564194781217</v>
@@ -1979,7 +1979,7 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.903966991430518</v>
+        <v>-3.62734554071669</v>
       </c>
       <c r="G69">
         <v>-0.002731709463187335</v>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.910809168617311</v>
+        <v>-3.653774079442065</v>
       </c>
       <c r="G70">
         <v>-0.001365854731593889</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.917651345804103</v>
+        <v>-3.680044699134132</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.891650547293624</v>
+        <v>-2.938119656455225</v>
       </c>
       <c r="G309">
         <v>0.01518367174888624</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.93371227722202</v>
+        <v>-3.042370100245309</v>
       </c>
       <c r="G310">
         <v>0.02542169602714406</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.980822869366548</v>
+        <v>-3.132346051002539</v>
       </c>
       <c r="G311">
         <v>0.03029259974966014</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.032340822084214</v>
+        <v>-3.223306810957435</v>
       </c>
       <c r="G312">
         <v>0.03121383240550957</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.089311725958793</v>
+        <v>-3.33207975565473</v>
       </c>
       <c r="G313">
         <v>0.02666586938106486</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.151414212377743</v>
+        <v>-3.454089882385437</v>
       </c>
       <c r="G314">
         <v>0.01656383668015526</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.218088536215872</v>
+        <v>-3.584337650531226</v>
       </c>
       <c r="G315">
         <v>0.002119029182193422</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.28205009141783</v>
+        <v>-3.712581085015</v>
       </c>
       <c r="G316">
         <v>-0.009643945382926677</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.326641887584411</v>
+        <v>-3.822220632181137</v>
       </c>
       <c r="G317">
         <v>-0.002025652260206512</v>
@@ -7706,7 +7706,7 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.376906401437568</v>
+        <v>-3.952066137077082</v>
       </c>
       <c r="G318">
         <v>0</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.682040474449958</v>
+        <v>-2.682822084358791</v>
       </c>
       <c r="G40">
         <v>-0.01883811811582681</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.752572968178673</v>
+        <v>-2.753354578087507</v>
       </c>
       <c r="G49">
         <v>-0.01393510476139781</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.634499769933162</v>
+        <v>-2.634707993465867</v>
       </c>
       <c r="G81">
         <v>-0.000180713947254052</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.69757988768799</v>
+        <v>-2.697879767153191</v>
       </c>
       <c r="G99">
         <v>-0.004577265835365552</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.840266340983808</v>
+        <v>-2.84052734498866</v>
       </c>
       <c r="G138">
         <v>-0.02145150648101768</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.820764443899358</v>
+        <v>-2.820831815882229</v>
       </c>
       <c r="G233">
         <v>0.01066385048891583</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.959028461404469</v>
+        <v>-2.959505503568167</v>
       </c>
       <c r="G246">
         <v>0.008480401072570531</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.326641887584411</v>
+        <v>-3.326679120219971</v>
       </c>
       <c r="G317">
         <v>-0.002025652260206512</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.679876649783427</v>
+        <v>-2.679911461447694</v>
       </c>
       <c r="G94">
         <v>-0.003126530262157257</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.724110675238918</v>
+        <v>-2.724318898771624</v>
       </c>
       <c r="G106">
         <v>-0.009089061005486787</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.729221057374666</v>
+        <v>-2.72974230651794</v>
       </c>
       <c r="G107">
         <v>-0.01095590500781762</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.744058808354583</v>
+        <v>-2.744232220223022</v>
       </c>
       <c r="G111">
         <v>-0.01205521911381946</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.772725429351985</v>
+        <v>-2.77273857549735</v>
       </c>
       <c r="G118">
         <v>-0.01878135751754328</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.832215095849806</v>
+        <v>-2.832476099854655</v>
       </c>
       <c r="G135">
         <v>-0.02313087574726813</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.856629835256669</v>
+        <v>-2.857183278343056</v>
       </c>
       <c r="G144">
         <v>-0.01835377195337351</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.004695839902297</v>
+        <v>-3.004980923881166</v>
       </c>
       <c r="G193">
         <v>-0.007193968980009235</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.030719111924146</v>
+        <v>-3.031011551005682</v>
       </c>
       <c r="G201">
         <v>-0.007561375016054306</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.037224929929607</v>
+        <v>-3.037517369011145</v>
       </c>
       <c r="G203">
         <v>-0.00758011675468051</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.851714748656276</v>
+        <v>-2.852070199862593</v>
       </c>
       <c r="G244">
         <v>0.01498325315168136</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.959505503568167</v>
+        <v>-2.959533052670823</v>
       </c>
       <c r="G246">
         <v>0.008480401072570531</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.02076708872863</v>
+        <v>-3.021155732248092</v>
       </c>
       <c r="G247">
         <v>-0.002595947895130291</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.923665383044652</v>
+        <v>-2.923816533203029</v>
       </c>
       <c r="G256">
         <v>0.01972256625871971</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.160468567249288</v>
+        <v>-3.160506702224378</v>
       </c>
       <c r="G260">
         <v>-0.01302637866280743</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.847709802226801</v>
+        <v>-2.847803787417712</v>
       </c>
       <c r="G265">
         <v>0.01262456091539521</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.916428678135792</v>
+        <v>-2.916590651731199</v>
       </c>
       <c r="G288">
         <v>0.02364713386321959</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.205994985152226</v>
+        <v>-3.206021624550894</v>
       </c>
       <c r="G293">
         <v>-0.006608778079094435</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.152429234923369</v>
+        <v>-2.152429234923367</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.220446049250313e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.214425596731849</v>
+        <v>-2.214425596731847</v>
       </c>
       <c r="G3">
-        <v>-0.0316883621511499</v>
+        <v>-0.03168836215114768</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.232546957997232</v>
+        <v>-2.23254695799723</v>
       </c>
       <c r="G4">
-        <v>-0.01950172375920256</v>
+        <v>-0.01950172375920034</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.254486695881022</v>
+        <v>-2.25448669588102</v>
       </c>
       <c r="G5">
-        <v>-0.01113346198566267</v>
+        <v>-0.01113346198566045</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.280244810383219</v>
+        <v>-2.280244810383218</v>
       </c>
       <c r="G6">
-        <v>-0.006583576830529347</v>
+        <v>-0.006583576830527571</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-2.306002924885417</v>
+        <v>-2.306002924885415</v>
       </c>
       <c r="G7">
-        <v>-0.002033691675396687</v>
+        <v>-0.002033691675394911</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.331761039387615</v>
+        <v>-2.331761039387613</v>
       </c>
       <c r="G8">
-        <v>0.002516193479735751</v>
+        <v>0.002516193479737083</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.361337530508219</v>
+        <v>-2.361337530508218</v>
       </c>
       <c r="G9">
-        <v>0.003247702016461407</v>
+        <v>0.003247702016462739</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.387095645010417</v>
+        <v>-2.387095645010416</v>
       </c>
       <c r="G10">
-        <v>0.007797587171594067</v>
+        <v>0.007797587171595399</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.416672136131022</v>
+        <v>-2.416672136131021</v>
       </c>
       <c r="G11">
-        <v>0.008529095708319501</v>
+        <v>0.008529095708320389</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.475825118372232</v>
+        <v>-2.475825118372231</v>
       </c>
       <c r="G13">
-        <v>0.009992112781769924</v>
+        <v>0.009992112781770812</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.546433230468662</v>
+        <v>-2.546433230468663</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-4.440892098500626e-16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.466209590292863</v>
+        <v>-2.466209590292846</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.643130076445232e-14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.474879586620425</v>
+        <v>-2.474879586620409</v>
       </c>
       <c r="G17">
-        <v>-0.0004619644091761188</v>
+        <v>-0.0004619644091601316</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.484187764766168</v>
+        <v>-2.484187764766153</v>
       </c>
       <c r="G18">
-        <v>-0.001562110636532665</v>
+        <v>-0.00156211063651801</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.494134124730093</v>
+        <v>-2.494134124730079</v>
       </c>
       <c r="G19">
-        <v>-0.003300438682071416</v>
+        <v>-0.003300438682057205</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.504080484694017</v>
+        <v>-2.504080484694005</v>
       </c>
       <c r="G20">
-        <v>-0.005038766727610167</v>
+        <v>-0.005038766727597288</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.514026844657943</v>
+        <v>-2.51402684465793</v>
       </c>
       <c r="G21">
-        <v>-0.006777094773148917</v>
+        <v>-0.006777094773136483</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.524611386440049</v>
+        <v>-2.524611386440037</v>
       </c>
       <c r="G22">
-        <v>-0.009153604636868984</v>
+        <v>-0.009153604636857438</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.534557746403973</v>
+        <v>-2.534557746403963</v>
       </c>
       <c r="G23">
-        <v>-0.01089193268240729</v>
+        <v>-0.01089193268239708</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.54514228818608</v>
+        <v>-2.545014110040326</v>
       </c>
       <c r="G24">
-        <v>-0.01326844254612825</v>
+        <v>-0.01314026440037441</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.556236833640626</v>
+        <v>-2.556236833640614</v>
       </c>
       <c r="G25">
-        <v>-0.01615495608228734</v>
+        <v>-0.0161549560822758</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.567459557240915</v>
+        <v>-2.566821375422724</v>
       </c>
       <c r="G26">
-        <v>-0.0191696477641905</v>
+        <v>-0.01853146594599941</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.578682280841202</v>
+        <v>-2.578682280841194</v>
       </c>
       <c r="G27">
-        <v>-0.02218433944609166</v>
+        <v>-0.02218433944608278</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.590543186259672</v>
+        <v>-2.590543186259664</v>
       </c>
       <c r="G28">
-        <v>-0.02583721294617525</v>
+        <v>-0.02583721294616637</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.603042273496324</v>
+        <v>-2.603042273496315</v>
       </c>
       <c r="G29">
-        <v>-0.03012826826444059</v>
+        <v>-0.03012826826443171</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.609229151880867</v>
+        <v>-2.609229151880857</v>
       </c>
       <c r="G30">
-        <v>-0.02810711473059735</v>
+        <v>-0.02810711473058802</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.616197640174243</v>
+        <v>-2.616197640174233</v>
       </c>
       <c r="G31">
-        <v>-0.02686757110558724</v>
+        <v>-0.02686757110557791</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.623947738376451</v>
+        <v>-2.622384518558774</v>
       </c>
       <c r="G32">
-        <v>-0.02640963738940916</v>
+        <v>-0.02484641757173267</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.630916226669826</v>
+        <v>-2.630134616760985</v>
       </c>
       <c r="G33">
-        <v>-0.02517009376439883</v>
+        <v>-0.02438848385555725</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.637884714963202</v>
+        <v>-2.636321495145525</v>
       </c>
       <c r="G34">
-        <v>-0.02393055013938805</v>
+        <v>-0.02236733032171068</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.645634813165411</v>
+        <v>-2.643289983438904</v>
       </c>
       <c r="G35">
-        <v>-0.02269100651437883</v>
+        <v>-0.02112778669670412</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.653384911367621</v>
+        <v>-2.650258471732279</v>
       </c>
       <c r="G36">
-        <v>-0.02301468270703455</v>
+        <v>-0.01988824307169312</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.660353399660996</v>
+        <v>-2.658790179843322</v>
       </c>
       <c r="G37">
-        <v>-0.02177513908202355</v>
+        <v>-0.02021191926434973</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.667321887954372</v>
+        <v>-2.664977058227862</v>
       </c>
       <c r="G38">
-        <v>-0.02053559545701278</v>
+        <v>-0.0181907657305036</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.675071986156581</v>
+        <v>-2.67429037624774</v>
       </c>
       <c r="G39">
-        <v>-0.01929605183200245</v>
+        <v>-0.01929605183199534</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.682822084358791</v>
+        <v>-2.681914163343364</v>
       </c>
       <c r="G40">
-        <v>-0.01883811811582681</v>
+        <v>-0.01871180700923269</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.691353792469833</v>
+        <v>-2.689008962743323</v>
       </c>
       <c r="G41">
-        <v>-0.01916179430848164</v>
+        <v>-0.01759857449080604</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.698322280763208</v>
+        <v>-2.6936326213102</v>
       </c>
       <c r="G42">
-        <v>-0.0179222506834702</v>
+        <v>-0.01401420113929652</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.706072378965417</v>
+        <v>-2.702164329421243</v>
       </c>
       <c r="G43">
-        <v>-0.01824592687612703</v>
+        <v>-0.0143378773319538</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.713040867258794</v>
+        <v>-2.710696037532286</v>
       </c>
       <c r="G44">
-        <v>-0.01700638325111758</v>
+        <v>-0.01466155352460974</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.721572575369836</v>
+        <v>-2.718446135734497</v>
       </c>
       <c r="G45">
-        <v>-0.01733005944377441</v>
+        <v>-0.01420361980843521</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.730104283480879</v>
+        <v>-2.726977843845537</v>
       </c>
       <c r="G46">
-        <v>-0.01765373563643036</v>
+        <v>-0.01452729600108893</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.737072771774254</v>
+        <v>-2.73707277177425</v>
       </c>
       <c r="G47">
-        <v>-0.0164141920114198</v>
+        <v>-0.01641419201141536</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.745604479885296</v>
+        <v>-2.743259650158792</v>
       </c>
       <c r="G48">
-        <v>-0.01595625829524283</v>
+        <v>-0.01439303847757167</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.753354578087507</v>
+        <v>-2.750228138452165</v>
       </c>
       <c r="G49">
-        <v>-0.01393510476139781</v>
+        <v>-0.01315349485255846</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.761104676289715</v>
+        <v>-2.759541456472046</v>
       </c>
       <c r="G50">
-        <v>-0.01582200077172191</v>
+        <v>-0.01425878095405253</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.769636384400759</v>
+        <v>-2.768073164583086</v>
       </c>
       <c r="G51">
-        <v>-0.01536406705554438</v>
+        <v>-0.01458245714670681</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.777386482602966</v>
+        <v>-2.775041652876461</v>
       </c>
       <c r="G52">
-        <v>-0.01568774324820066</v>
+        <v>-0.01334291352169548</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.785136580805176</v>
+        <v>-2.785136580805174</v>
       </c>
       <c r="G53">
-        <v>-0.01444819962318999</v>
+        <v>-0.01522980953202269</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.793668288916217</v>
+        <v>-2.79210506909855</v>
       </c>
       <c r="G54">
-        <v>-0.01555348572467963</v>
+        <v>-0.01399026590701247</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.801418387118427</v>
+        <v>-2.801418387118424</v>
       </c>
       <c r="G55">
-        <v>-0.01509555200850321</v>
+        <v>-0.01509555200850055</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.80995009522947</v>
+        <v>-2.808386875411803</v>
       </c>
       <c r="G56">
-        <v>-0.01541922820115993</v>
+        <v>-0.01385600838349321</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.817700193431679</v>
+        <v>-2.816918583522845</v>
       </c>
       <c r="G57">
-        <v>-0.01496129448498218</v>
+        <v>-0.01417968457614815</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.826231901542722</v>
+        <v>-2.826231901542724</v>
       </c>
       <c r="G58">
-        <v>-0.01528497067763934</v>
+        <v>-0.01528497067764201</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.835545219562599</v>
+        <v>-2.8355452195626</v>
       </c>
       <c r="G59">
-        <v>-0.01639025677912964</v>
+        <v>-0.01639025677913142</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.84238739674939</v>
+        <v>-2.842387396749394</v>
       </c>
       <c r="G60">
-        <v>-0.01502440204753486</v>
+        <v>-0.01502440204753885</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.849229573936181</v>
+        <v>-2.849229573936186</v>
       </c>
       <c r="G61">
-        <v>-0.01365854731594052</v>
+        <v>-0.0136585473159454</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.856071751122973</v>
+        <v>-2.856071751122979</v>
       </c>
       <c r="G62">
-        <v>-0.01229269258434545</v>
+        <v>-0.01229269258435212</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.862913928309765</v>
+        <v>-2.862913928309773</v>
       </c>
       <c r="G63">
-        <v>-0.01092683785275156</v>
+        <v>-0.01092683785275955</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.869756105496556</v>
+        <v>-2.869756105496565</v>
       </c>
       <c r="G64">
-        <v>-0.00956098312115633</v>
+        <v>-0.009560983121165656</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.876598282683349</v>
+        <v>-2.876598282683359</v>
       </c>
       <c r="G65">
-        <v>-0.008195128389562878</v>
+        <v>-0.008195128389573092</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.883440459870141</v>
+        <v>-2.883440459870152</v>
       </c>
       <c r="G66">
-        <v>-0.006829273657969009</v>
+        <v>-0.006829273657979668</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.890282637056933</v>
+        <v>-2.890282637056945</v>
       </c>
       <c r="G67">
-        <v>-0.005463418926374669</v>
+        <v>-0.005463418926386659</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.897124814243726</v>
+        <v>-2.897124814243738</v>
       </c>
       <c r="G68">
-        <v>-0.004097564194781217</v>
+        <v>-0.004097564194793651</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.903966991430518</v>
+        <v>-2.903966991430531</v>
       </c>
       <c r="G69">
-        <v>-0.002731709463187335</v>
+        <v>-0.002731709463200213</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.910809168617311</v>
+        <v>-2.910809168617324</v>
       </c>
       <c r="G70">
-        <v>-0.001365854731593889</v>
+        <v>-0.001365854731606768</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.917651345804103</v>
+        <v>-2.917651345804116</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-1.287858708565182e-14</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-2.604741317697237</v>
+        <v>-2.604741317697222</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1.509903313490213e-14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-2.607985193874215</v>
+        <v>-2.607985193874201</v>
       </c>
       <c r="G73">
-        <v>-3.380435602551302e-07</v>
+        <v>-3.380435464883647e-07</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-2.611229070051194</v>
+        <v>-2.611229070051181</v>
       </c>
       <c r="G74">
-        <v>-6.760871213984387e-07</v>
+        <v>-6.760871089639409e-07</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.614472946228172</v>
+        <v>-2.61447294622816</v>
       </c>
       <c r="G75">
-        <v>-1.014130682097658e-06</v>
+        <v>-1.014130670995428e-06</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.617716822405149</v>
+        <v>-2.617716822405138</v>
       </c>
       <c r="G76">
-        <v>-1.352174242352788e-06</v>
+        <v>-1.352174230806469e-06</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.621138370137336</v>
+        <v>-2.620930146604619</v>
       </c>
       <c r="G77">
-        <v>2.886175969463167e-05</v>
+        <v>2.88617597057339e-05</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.624382246314314</v>
+        <v>-2.624112918826598</v>
       </c>
       <c r="G78">
-        <v>-0.0001491478390729384</v>
+        <v>8.962767114395476e-05</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.628073121534202</v>
+        <v>-2.627326243026078</v>
       </c>
       <c r="G79">
-        <v>5.8737650071361e-05</v>
+        <v>0.0001198416050813833</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.631047670223478</v>
+        <v>-2.631017118245967</v>
       </c>
       <c r="G80">
-        <v>-8.871997119808128e-05</v>
+        <v>-0.0003274954813896613</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.634707993465867</v>
+        <v>-2.633844547357535</v>
       </c>
       <c r="G81">
-        <v>-0.000180713947254052</v>
+        <v>8.861354045963665e-05</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.637565974554932</v>
+        <v>-2.636549768559107</v>
       </c>
       <c r="G82">
-        <v>0.0001362333065184629</v>
+        <v>0.0006269304723045543</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.641195745819824</v>
+        <v>-2.6408098507319</v>
       </c>
       <c r="G83">
-        <v>-0.000267405657088382</v>
+        <v>-0.000389613567070235</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.644630439697375</v>
+        <v>-2.644470173974291</v>
       </c>
       <c r="G84">
-        <v>-2.470850367730648e-05</v>
+        <v>-0.00080639867604404</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.648099945239193</v>
+        <v>-2.647604988386638</v>
       </c>
       <c r="G85">
-        <v>-0.0007456327646178096</v>
+        <v>-0.0006976749549738592</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.651613148903874</v>
+        <v>-2.648617115497883</v>
       </c>
       <c r="G86">
-        <v>-0.0005061817600222618</v>
+        <v>0.00153373606719942</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.65425726615045</v>
+        <v>-2.652529360395843</v>
       </c>
       <c r="G87">
-        <v>-0.0008628764519502674</v>
+        <v>0.0008650293026564171</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.657175337656559</v>
+        <v>-2.656684640490772</v>
       </c>
       <c r="G88">
-        <v>-0.000112076300633035</v>
+        <v>-4.671265885569653e-05</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.661969448032926</v>
+        <v>-2.660666508717264</v>
       </c>
       <c r="G89">
-        <v>-0.002087982067591643</v>
+        <v>-0.0007850427519295877</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.665004087139245</v>
+        <v>-2.663858167397841</v>
       </c>
       <c r="G90">
-        <v>-0.001879083040493779</v>
+        <v>-0.0007331632990892345</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.669112422962499</v>
+        <v>-2.667102043574821</v>
       </c>
       <c r="G91">
-        <v>-0.0005121316645944063</v>
+        <v>-0.0007335013426521542</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.672529711007916</v>
+        <v>-2.671044840450278</v>
       </c>
       <c r="G92">
-        <v>-0.001150286451636617</v>
+        <v>-0.001432760084691065</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.676615367774315</v>
+        <v>-2.673554984264512</v>
       </c>
       <c r="G93">
-        <v>-0.002088320703882207</v>
+        <v>-0.0006993657655081087</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.679911461447694</v>
+        <v>-2.676950239705965</v>
       </c>
       <c r="G94">
-        <v>-0.003126530262157257</v>
+        <v>-0.0008510830735430908</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.683394113134876</v>
+        <v>-2.682529653488585</v>
       </c>
       <c r="G95">
-        <v>-0.004051418369037219</v>
+        <v>-0.003186958722745992</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.686954261071235</v>
+        <v>-2.686060262985399</v>
       </c>
       <c r="G96">
-        <v>-0.002917969278619648</v>
+        <v>-0.003474030086141777</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.690024725379773</v>
+        <v>-2.6901981372482</v>
       </c>
       <c r="G97">
-        <v>-0.004081632895702736</v>
+        <v>-0.004368366215525832</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.694861520341051</v>
+        <v>-2.693320819053137</v>
       </c>
       <c r="G98">
-        <v>-0.005788211174959201</v>
+        <v>-0.004247509887045364</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.697879767153191</v>
+        <v>-2.696811343660962</v>
       </c>
       <c r="G99">
-        <v>-0.004577265835365552</v>
+        <v>-0.004494496361453049</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.701378811134552</v>
+        <v>-2.701283909053227</v>
       </c>
       <c r="G100">
-        <v>-0.004976645112206413</v>
+        <v>-0.005723523620301041</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.705625747161978</v>
+        <v>-2.705912480481798</v>
       </c>
       <c r="G101">
-        <v>-0.006821823595634768</v>
+        <v>-0.007108556915454756</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.708987204477122</v>
+        <v>-2.7065951896883</v>
       </c>
       <c r="G102">
-        <v>-0.006314058641289311</v>
+        <v>-0.004547727988538419</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.713467642790031</v>
+        <v>-2.710159597311425</v>
       </c>
       <c r="G103">
-        <v>-0.00698702509259963</v>
+        <v>-0.004868597478246528</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.71693714833185</v>
+        <v>-2.717175923842035</v>
       </c>
       <c r="G104">
-        <v>-0.007729981957503185</v>
+        <v>-0.008641385875438612</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.720371842209398</v>
+        <v>-2.718669861660455</v>
       </c>
       <c r="G105">
-        <v>-0.007973355198036547</v>
+        <v>-0.006891785560440677</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.724318898771624</v>
+        <v>-2.722439246667474</v>
       </c>
       <c r="G106">
-        <v>-0.009089061005486787</v>
+        <v>-0.007417632434042698</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.72974230651794</v>
+        <v>-2.727992368159362</v>
       </c>
       <c r="G107">
-        <v>-0.01095590500781762</v>
+        <v>-0.009727215792513011</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.732668897397582</v>
+        <v>-2.732412716055229</v>
       </c>
       <c r="G108">
-        <v>-0.01042647453457124</v>
+        <v>-0.01090402555496239</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.736646505937308</v>
+        <v>-2.73444956853582</v>
       </c>
       <c r="G109">
-        <v>-0.01085640578890845</v>
+        <v>-0.00969733990213606</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.740350527302562</v>
+        <v>-2.739412831093858</v>
       </c>
       <c r="G110">
-        <v>-0.01230680272582796</v>
+        <v>-0.01141706432675682</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.744232220223022</v>
+        <v>-2.742183415937198</v>
       </c>
       <c r="G111">
-        <v>-0.01205521911381946</v>
+        <v>-0.01094411103667992</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.748926155293359</v>
+        <v>-2.748717931760634</v>
       </c>
       <c r="G112">
-        <v>-0.01444331225942297</v>
+        <v>-0.01423508872669799</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.753111987365788</v>
+        <v>-2.751817934508716</v>
       </c>
       <c r="G113">
-        <v>-0.01456910436179171</v>
+        <v>-0.01409155334136192</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.757024232263749</v>
+        <v>-2.755591579202503</v>
       </c>
       <c r="G114">
-        <v>-0.01605431296297755</v>
+        <v>-0.0146216599017317</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.760715107483636</v>
+        <v>-2.760154786989307</v>
       </c>
       <c r="G115">
-        <v>-0.01532091864379215</v>
+        <v>-0.01594132955511851</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.764627352381595</v>
+        <v>-2.763637438676493</v>
       </c>
       <c r="G116">
-        <v>-0.01717035681398849</v>
+        <v>-0.016180443108887</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.769065106109595</v>
+        <v>-2.767649858880483</v>
       </c>
       <c r="G117">
-        <v>-0.01734410672598852</v>
+        <v>-0.01694932517945924</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.77273857549735</v>
+        <v>-2.771319068581469</v>
       </c>
       <c r="G118">
-        <v>-0.01878135751754328</v>
+        <v>-0.0173749967470278</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.776889595905513</v>
+        <v>-2.775747935850871</v>
       </c>
       <c r="G119">
-        <v>-0.01946321042745103</v>
+        <v>-0.01856032588301249</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.781058022145809</v>
+        <v>-2.780133472082468</v>
       </c>
       <c r="G120">
-        <v>-0.01991054751391985</v>
+        <v>-0.0197023239811922</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.784987672875902</v>
+        <v>-2.784987672875878</v>
       </c>
       <c r="G121">
-        <v>-0.02131298664120806</v>
+        <v>-0.02131298664118408</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.789156099116199</v>
+        <v>-2.788678548095767</v>
       </c>
       <c r="G122">
-        <v>-0.02223787474808803</v>
+        <v>-0.02176032372765646</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.793324525356496</v>
+        <v>-2.792877526313563</v>
       </c>
       <c r="G123">
-        <v>-0.02316276285496732</v>
+        <v>-0.02271576381203477</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.797523503574291</v>
+        <v>-2.797284728064062</v>
       </c>
       <c r="G124">
-        <v>-0.02411820293934497</v>
+        <v>-0.02387942742911608</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.801691929814587</v>
+        <v>-2.801691929814562</v>
       </c>
       <c r="G125">
-        <v>-0.02504309104622404</v>
+        <v>-0.02504309104619873</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.806099131565089</v>
+        <v>-2.806099131565063</v>
       </c>
       <c r="G126">
-        <v>-0.0262067546633078</v>
+        <v>-0.0262067546632816</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.810745108825794</v>
+        <v>-2.810745108825766</v>
       </c>
       <c r="G127">
-        <v>-0.0276091937905949</v>
+        <v>-0.02760919379056737</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.813428857203796</v>
+        <v>-2.813428857203768</v>
       </c>
       <c r="G128">
-        <v>-0.02704940403517964</v>
+        <v>-0.02704940403515166</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.816112605581796</v>
+        <v>-2.81611260558177</v>
       </c>
       <c r="G129">
-        <v>-0.02648961427976304</v>
+        <v>-0.0264896142797364</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.818796353959797</v>
+        <v>-2.818796353959772</v>
       </c>
       <c r="G130">
-        <v>-0.025929824524346</v>
+        <v>-0.02592982452432113</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.821480102337798</v>
+        <v>-2.821480102337773</v>
       </c>
       <c r="G131">
-        <v>-0.02537003476893007</v>
+        <v>-0.02537003476890476</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.8241638507158</v>
+        <v>-2.824163850715775</v>
       </c>
       <c r="G132">
-        <v>-0.02481024501351392</v>
+        <v>-0.0248102450134895</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.826847599093802</v>
+        <v>-2.826847599093777</v>
       </c>
       <c r="G133">
-        <v>-0.02425045525809888</v>
+        <v>-0.02425045525807401</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.829531347471804</v>
+        <v>-2.829531347471777</v>
       </c>
       <c r="G134">
-        <v>-0.02369066550268384</v>
+        <v>-0.02369066550265675</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.832476099854655</v>
+        <v>-2.832215095849779</v>
       </c>
       <c r="G135">
-        <v>-0.02313087574726813</v>
+        <v>-0.02313087574724149</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.834898844227808</v>
+        <v>-2.834898844227781</v>
       </c>
       <c r="G136">
-        <v>-0.0225710859918522</v>
+        <v>-0.022571085991826</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.837843596610659</v>
+        <v>-2.837582592605783</v>
       </c>
       <c r="G137">
-        <v>-0.02201129623643561</v>
+        <v>-0.02201129623641029</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.84052734498866</v>
+        <v>-2.840266340983784</v>
       </c>
       <c r="G138">
-        <v>-0.02145150648101768</v>
+        <v>-0.02145150648099414</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.84295008936181</v>
+        <v>-2.842950089361787</v>
       </c>
       <c r="G139">
-        <v>-0.02089171672560175</v>
+        <v>-0.02089171672557866</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.845894841744662</v>
+        <v>-2.845633837739789</v>
       </c>
       <c r="G140">
-        <v>-0.02033192697018649</v>
+        <v>-0.02033192697016295</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.848578590122664</v>
+        <v>-2.848317586117787</v>
       </c>
       <c r="G141">
-        <v>-0.02003314121962108</v>
+        <v>-0.01977213721474458</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.851262338500666</v>
+        <v>-2.85100133449579</v>
       </c>
       <c r="G142">
-        <v>-0.01921234745935396</v>
+        <v>-0.01921234745932998</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.853946086878667</v>
+        <v>-2.853685082873792</v>
       </c>
       <c r="G143">
-        <v>-0.01891356170878944</v>
+        <v>-0.01865255770391383</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.857183278343056</v>
+        <v>-2.856629835256643</v>
       </c>
       <c r="G144">
-        <v>-0.01835377195337351</v>
+        <v>-0.01835377195334775</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.859867026721058</v>
+        <v>-2.859867026721029</v>
       </c>
       <c r="G145">
-        <v>-0.01779398219795691</v>
+        <v>-0.0183474252843161</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.861997332012671</v>
+        <v>-2.861997332012646</v>
       </c>
       <c r="G146">
-        <v>-0.01723419244254076</v>
+        <v>-0.01723419244251589</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.86523452347706</v>
+        <v>-2.864681080390647</v>
       </c>
       <c r="G147">
-        <v>-0.01667440268712506</v>
+        <v>-0.0166744026870993</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.868194993398254</v>
+        <v>-2.867088107225458</v>
       </c>
       <c r="G148">
-        <v>-0.01666805601809496</v>
+        <v>-0.01583789138849245</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.87058630269472</v>
+        <v>-2.870586302694695</v>
       </c>
       <c r="G149">
-        <v>-0.01581582718114238</v>
+        <v>-0.01609254872431243</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.873839211697451</v>
+        <v>-2.872977611991161</v>
       </c>
       <c r="G150">
-        <v>-0.01553275896892115</v>
+        <v>-0.0152403198873603</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.876214803455573</v>
+        <v>-2.875645642830819</v>
       </c>
       <c r="G151">
-        <v>-0.01523397321835551</v>
+        <v>-0.01466481259360153</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.879436277381619</v>
+        <v>-2.878606112752015</v>
       </c>
       <c r="G152">
-        <v>-0.01410502283821002</v>
+        <v>-0.01438174438137962</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.882136750630972</v>
+        <v>-2.880720700505289</v>
       </c>
       <c r="G153">
-        <v>-0.01437539771237439</v>
+        <v>-0.01325279400123591</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.884819491675965</v>
+        <v>-2.88397360950802</v>
       </c>
       <c r="G154">
-        <v>-0.01380089775162108</v>
+        <v>-0.01326216487054999</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.887772606494492</v>
+        <v>-2.886625922809335</v>
       </c>
       <c r="G155">
-        <v>-0.01381762372360429</v>
+        <v>-0.01267094003844704</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.890447992436818</v>
+        <v>-2.89015555335526</v>
       </c>
       <c r="G156">
-        <v>-0.0129664022196605</v>
+        <v>-0.0129570324509547</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.893961905444399</v>
+        <v>-2.893108668173786</v>
       </c>
       <c r="G157">
-        <v>-0.01351984640667636</v>
+        <v>-0.01266660913606366</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.896661371360744</v>
+        <v>-2.896646661155382</v>
       </c>
       <c r="G158">
-        <v>-0.01266026246705487</v>
+        <v>-0.01296106398424191</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.899621841281939</v>
+        <v>-2.898760241575652</v>
       </c>
       <c r="G159">
-        <v>-0.01210782781430897</v>
+        <v>-0.01183110627109452</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.902867395182001</v>
+        <v>-2.901152558205124</v>
       </c>
       <c r="G160">
-        <v>-0.01127131651569968</v>
+        <v>-0.01097988476714873</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.905536433354669</v>
+        <v>-2.904366677028498</v>
       </c>
       <c r="G161">
-        <v>-0.01212022178327676</v>
+        <v>-0.01095046545710576</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.908795690127059</v>
+        <v>-2.907065135611841</v>
       </c>
       <c r="G162">
-        <v>-0.01213594042224897</v>
+        <v>-0.010405385907031</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.911171281885181</v>
+        <v>-2.910309682178893</v>
       </c>
       <c r="G163">
-        <v>-0.01126799404695356</v>
+        <v>-0.01040639434066537</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.914131751806376</v>
+        <v>-2.914433560656569</v>
       </c>
       <c r="G164">
-        <v>-0.0109849258347311</v>
+        <v>-0.01128673468492358</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.917692817428987</v>
+        <v>-2.916523061102819</v>
       </c>
       <c r="G165">
-        <v>-0.01130245332392488</v>
+        <v>-0.01013269699775654</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.920930008893375</v>
+        <v>-2.92036185560163</v>
       </c>
       <c r="G166">
-        <v>-0.01129610665489533</v>
+        <v>-0.01072795336314991</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.923890478814573</v>
+        <v>-2.923598039733012</v>
       </c>
       <c r="G167">
-        <v>-0.01101303844267609</v>
+        <v>-0.0107205993611148</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.927435826898837</v>
+        <v>-2.925420188404748</v>
       </c>
       <c r="G168">
-        <v>-0.009869377857193218</v>
+        <v>-0.009299209899433336</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.92981141865696</v>
+        <v>-2.930096502635804</v>
       </c>
       <c r="G169">
-        <v>-0.009886103829175097</v>
+        <v>-0.01073198599707159</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.932204742619443</v>
+        <v>-2.932218445491743</v>
       </c>
       <c r="G170">
-        <v>-0.009294878997069378</v>
+        <v>-0.009610390719593354</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.935164205207628</v>
+        <v>-2.933716720005262</v>
       </c>
       <c r="G171">
-        <v>-0.009020173220524286</v>
+        <v>-0.007865127099694225</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.938692828420545</v>
+        <v>-2.938400389338983</v>
       </c>
       <c r="G172">
-        <v>-0.009597697381560577</v>
+        <v>-0.009305258299998398</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.942254901376162</v>
+        <v>-2.939931106262196</v>
       </c>
       <c r="G173">
-        <v>-0.008453029463071249</v>
+        <v>-0.007592437089793402</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.944622130698609</v>
+        <v>-2.944345409155394</v>
       </c>
       <c r="G174">
-        <v>-0.009039923392789029</v>
+        <v>-0.008763201849574132</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.948436845223403</v>
+        <v>-2.946713645810852</v>
       </c>
       <c r="G175">
-        <v>-0.008196056991515155</v>
+        <v>-0.007887900371614576</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.951143666242416</v>
+        <v>-2.952005265948659</v>
       </c>
       <c r="G176">
-        <v>-0.009074382669761238</v>
+        <v>-0.009935982376004127</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.954388212809472</v>
+        <v>-2.95294173494011</v>
       </c>
       <c r="G177">
-        <v>-0.007906642110261264</v>
+        <v>-0.00762891323403736</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.956756449464926</v>
+        <v>-2.956487083024375</v>
       </c>
       <c r="G178">
-        <v>-0.008200089625436613</v>
+        <v>-0.007930723184885968</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.960032431108669</v>
+        <v>-2.959449567611588</v>
       </c>
       <c r="G179">
-        <v>-0.007932738951557994</v>
+        <v>-0.007649669638681189</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.963570424090268</v>
+        <v>-2.963270629906042</v>
       </c>
       <c r="G180">
-        <v>-0.008226186466732455</v>
+        <v>-0.00822719379971748</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.966522531575787</v>
+        <v>-2.966824340425976</v>
       </c>
       <c r="G181">
-        <v>-0.007951480690185142</v>
+        <v>-0.00853736618623413</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.969775440578519</v>
+        <v>-2.969498719035301</v>
       </c>
       <c r="G182">
-        <v>-0.008244928205359603</v>
+        <v>-0.007968206662141597</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.972469566058213</v>
+        <v>-2.97273591049969</v>
       </c>
       <c r="G183">
-        <v>-0.007695515551635501</v>
+        <v>-0.007961859993112941</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.975712097959252</v>
+        <v>-2.975128227129167</v>
       </c>
       <c r="G184">
-        <v>-0.007694509319256859</v>
+        <v>-0.00711063848917215</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.979534167586711</v>
+        <v>-2.978965006961961</v>
       </c>
       <c r="G185">
-        <v>-0.007112654255838402</v>
+        <v>-0.007703880188549173</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.982787076589442</v>
+        <v>-2.982210560862014</v>
       </c>
       <c r="G186">
-        <v>-0.008282411682612678</v>
+        <v>-0.007705895955184228</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.985470824967445</v>
+        <v>-2.986624863755215</v>
       </c>
       <c r="G187">
-        <v>-0.007137743764126014</v>
+        <v>-0.008876660714967954</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.988431294888641</v>
+        <v>-2.98871637886748</v>
       </c>
       <c r="G188">
-        <v>-0.007147114633440976</v>
+        <v>-0.007724637693815817</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.9922533645161</v>
+        <v>-2.991099325728275</v>
       </c>
       <c r="G189">
-        <v>-0.007157492835761281</v>
+        <v>-0.00686404642119276</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.995515643287515</v>
+        <v>-2.995213834437269</v>
       </c>
       <c r="G190">
-        <v>-0.007158501269398099</v>
+        <v>-0.007735016996769262</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.998759182521562</v>
+        <v>-2.997597788631067</v>
       </c>
       <c r="G191">
-        <v>-0.00716787213871295</v>
+        <v>-0.00687543305715077</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.001442930899566</v>
+        <v>-3.000858052736465</v>
       </c>
       <c r="G192">
-        <v>-0.007184598110694773</v>
+        <v>-0.006892159029130374</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.004980923881166</v>
+        <v>-3.005265000526997</v>
       </c>
       <c r="G193">
-        <v>-0.007193968980009235</v>
+        <v>-0.008055568686245462</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.008233832883895</v>
+        <v>-3.007665679592145</v>
       </c>
       <c r="G194">
-        <v>-0.00749577893085962</v>
+        <v>-0.007212709617976154</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.011202665240766</v>
+        <v>-3.011202665240735</v>
       </c>
       <c r="G195">
-        <v>-0.007212710718635884</v>
+        <v>-0.00750615713314845</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.014747005992026</v>
+        <v>-3.014454566910458</v>
       </c>
       <c r="G196">
-        <v>-0.006939012275097078</v>
+        <v>-0.00751452066945435</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.017992559892089</v>
+        <v>-3.018284998973594</v>
       </c>
       <c r="G197">
-        <v>-0.007523891538799177</v>
+        <v>-0.008101414599171797</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.021252823997488</v>
+        <v>-3.020667945834381</v>
       </c>
       <c r="G198">
-        <v>-0.007825701489648673</v>
+        <v>-0.007240823326542078</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.02450573300022</v>
+        <v>-3.024505733000187</v>
       </c>
       <c r="G199">
-        <v>-0.007250194195890292</v>
+        <v>-0.007835072358930717</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.028051081084487</v>
+        <v>-3.026881324758306</v>
       </c>
       <c r="G200">
-        <v>-0.008136882309812687</v>
+        <v>-0.006967125983632361</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.031011551005682</v>
+        <v>-3.030719111924112</v>
       </c>
       <c r="G201">
-        <v>-0.007561375016054306</v>
+        <v>-0.007561375016020555</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.034264460008413</v>
+        <v>-3.033981390695527</v>
       </c>
       <c r="G202">
-        <v>-0.007570745885367436</v>
+        <v>-0.007580115654017727</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.037517369011145</v>
+        <v>-3.03751736901111</v>
       </c>
       <c r="G203">
-        <v>-0.00758011675468051</v>
+        <v>-0.007872555836183182</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.040770278013875</v>
+        <v>-3.040477838932302</v>
       </c>
       <c r="G204">
-        <v>-0.007881926705531395</v>
+        <v>-0.007589487623958557</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.044023187016606</v>
+        <v>-3.044023187016569</v>
       </c>
       <c r="G205">
-        <v>-0.007891297574844969</v>
+        <v>-0.007891297574807221</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.047276096019337</v>
+        <v>-3.047276096019301</v>
       </c>
       <c r="G206">
-        <v>-0.007900668444158543</v>
+        <v>-0.007900668444122572</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.050821444103605</v>
+        <v>-3.050821444103567</v>
       </c>
       <c r="G207">
-        <v>-0.008202478395008511</v>
+        <v>-0.008202478394970764</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.053381442370772</v>
+        <v>-3.053381442370735</v>
       </c>
       <c r="G208">
-        <v>-0.007518938528757874</v>
+        <v>-0.00751893852872057</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.055941440637939</v>
+        <v>-3.055941440637901</v>
       </c>
       <c r="G209">
-        <v>-0.006835398662507652</v>
+        <v>-0.006835398662469905</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.058501438905106</v>
+        <v>-3.058501438905068</v>
       </c>
       <c r="G210">
-        <v>-0.006151858796257015</v>
+        <v>-0.006151858796219711</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.061061437172272</v>
+        <v>-3.061061437172235</v>
       </c>
       <c r="G211">
-        <v>-0.005468318930005933</v>
+        <v>-0.005468318929969074</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.063621435439439</v>
+        <v>-3.063621435439402</v>
       </c>
       <c r="G212">
-        <v>-0.00478477906375499</v>
+        <v>-0.004784779063718575</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.066181433706606</v>
+        <v>-3.066181433706569</v>
       </c>
       <c r="G213">
-        <v>-0.004101239197504783</v>
+        <v>-0.004101239197467924</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.068741431973772</v>
+        <v>-3.068741431973736</v>
       </c>
       <c r="G214">
-        <v>-0.003417699331253687</v>
+        <v>-0.003417699331217272</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.071301430240939</v>
+        <v>-3.071301430240903</v>
       </c>
       <c r="G215">
-        <v>-0.002734159465003036</v>
+        <v>-0.002734159464967065</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-3.073861428508106</v>
+        <v>-3.07386142850807</v>
       </c>
       <c r="G216">
-        <v>-0.002050619598751947</v>
+        <v>-0.002050619598715976</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-3.076421426775273</v>
+        <v>-3.076421426775237</v>
       </c>
       <c r="G217">
-        <v>-0.00136707973250174</v>
+        <v>-0.001367079732465769</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-3.07898142504244</v>
+        <v>-3.078981425042404</v>
       </c>
       <c r="G218">
-        <v>-0.0006835398662510921</v>
+        <v>-0.0006835398662155649</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-3.081541423309606</v>
+        <v>-3.081541423309571</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>3.508304757815495e-14</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-2.682032099547425</v>
+        <v>-2.682032099547423</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.725806719028554</v>
+        <v>-2.724564796518301</v>
       </c>
       <c r="G221">
-        <v>0.004241342632791856</v>
+        <v>0.00513218154667161</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.776947670387621</v>
+        <v>-2.776485021011164</v>
       </c>
       <c r="G222">
-        <v>0.004170886411792196</v>
+        <v>0.002465664855272998</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.831765799727597</v>
+        <v>-2.831892588335125</v>
       </c>
       <c r="G223">
-        <v>-0.003418095285054878</v>
+        <v>-0.003688194667223144</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.891567697828819</v>
+        <v>-2.891833569672448</v>
       </c>
       <c r="G224">
-        <v>-0.0132693031363047</v>
+        <v>-0.014375468203081</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.949688772340959</v>
+        <v>-2.949557607328394</v>
       </c>
       <c r="G225">
-        <v>-0.02297696307012731</v>
+        <v>-0.02284579805756182</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.991592720629517</v>
+        <v>-2.991330390604367</v>
       </c>
       <c r="G226">
-        <v>-0.01497137849416297</v>
+        <v>-0.0153648735320695</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.035151625081348</v>
+        <v>-3.035107009138595</v>
       </c>
       <c r="G227">
-        <v>-0.009887784264761557</v>
+        <v>-0.009887784264833055</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.08040381115278</v>
+        <v>-3.080753755231561</v>
       </c>
       <c r="G228">
-        <v>-0.005930878477552581</v>
+        <v>-0.006280822556333887</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.128175217972618</v>
+        <v>-3.128237019372673</v>
       </c>
       <c r="G229">
-        <v>-0.004228157640319863</v>
+        <v>-0.004510378895981104</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.172980348278157</v>
+        <v>-3.172980348278067</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>9.059419880941277e-14</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-2.731184247133917</v>
+        <v>-2.731184247133912</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.773962232147075</v>
+        <v>-2.772944170173116</v>
       </c>
       <c r="G232">
-        <v>0.00809500900882254</v>
+        <v>0.00814551919973594</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.820831815882229</v>
+        <v>-2.823530195812279</v>
       </c>
       <c r="G233">
-        <v>0.01066385048891583</v>
+        <v>0.007464935799508243</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.873990443014427</v>
+        <v>-2.878822888907509</v>
       </c>
       <c r="G234">
-        <v>0.007070710303545225</v>
+        <v>0.002077684943213809</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.932382184994894</v>
+        <v>-2.936195317823307</v>
       </c>
       <c r="G235">
-        <v>-0.0009780755511430428</v>
+        <v>-0.005389301733647933</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.995148421814253</v>
+        <v>-2.996595844013549</v>
       </c>
       <c r="G236">
-        <v>-0.01396723875715722</v>
+        <v>-0.01588438568495487</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.048315064185083</v>
+        <v>-3.048050021485184</v>
       </c>
       <c r="G237">
-        <v>-0.01769816361755261</v>
+        <v>-0.0174331209176537</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.091633739120856</v>
+        <v>-3.091344332807257</v>
       </c>
       <c r="G238">
-        <v>-0.0107741076448189</v>
+        <v>-0.01082199000079109</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.137117505888275</v>
+        <v>-3.136916475367935</v>
       </c>
       <c r="G239">
-        <v>-0.006689720842874114</v>
+        <v>-0.006488690322533519</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.183443906885155</v>
+        <v>-3.183887485698743</v>
       </c>
       <c r="G240">
-        <v>-0.002740467677253389</v>
+        <v>-0.00355425841440643</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.231129838134682</v>
+        <v>-3.231129838134792</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>-1.101341240428155e-13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-2.765153093550745</v>
+        <v>-2.765153093550538</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>2.069455717901292e-13</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.805802420233543</v>
+        <v>-2.806515915203583</v>
       </c>
       <c r="G243">
-        <v>0.01053292173157327</v>
+        <v>0.009089023174313926</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.852070199862593</v>
+        <v>-2.85450652878273</v>
       </c>
       <c r="G244">
-        <v>0.01498325315168136</v>
+        <v>0.01155025442231894</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.903101270177195</v>
+        <v>-2.907408781300781</v>
       </c>
       <c r="G245">
-        <v>0.01384853200193437</v>
+        <v>0.009099846731420058</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.959533052670823</v>
+        <v>-2.965858844409824</v>
       </c>
       <c r="G246">
-        <v>0.008480401072570531</v>
+        <v>0.001650018067215653</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.021155732248092</v>
+        <v>-3.025115893584194</v>
       </c>
       <c r="G247">
-        <v>-0.002595947895130291</v>
+        <v>-0.007155186280003001</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.087479834730082</v>
+        <v>-3.087627081597565</v>
       </c>
       <c r="G248">
-        <v>-0.01898936302086152</v>
+        <v>-0.01921452946622115</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.13074517751374</v>
+        <v>-3.130905757125479</v>
       </c>
       <c r="G249">
-        <v>-0.0109800747333304</v>
+        <v>-0.01149297054929721</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.177283858421449</v>
+        <v>-3.177337608956611</v>
       </c>
       <c r="G250">
-        <v>-0.007067937840242289</v>
+        <v>-0.007472977553277582</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.223262274976608</v>
+        <v>-3.223803309938906</v>
       </c>
       <c r="G251">
-        <v>-0.00294579874612233</v>
+        <v>-0.0034868337084204</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.271316710675324</v>
+        <v>-3.27131671067524</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>8.393286066166183e-14</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-2.790016782244354</v>
+        <v>-2.790016782244128</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>2.264854970235319e-13</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.829711033920274</v>
+        <v>-2.830283717882006</v>
       </c>
       <c r="G254">
-        <v>0.01154681171071958</v>
+        <v>0.01062409336159087</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.874972703409824</v>
+        <v>-2.877491384314998</v>
       </c>
       <c r="G255">
-        <v>0.01780593858432855</v>
+        <v>0.01466838521152303</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.923816533203029</v>
+        <v>-2.929643801209044</v>
       </c>
       <c r="G256">
-        <v>0.01972256625871971</v>
+        <v>0.01340699731671924</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.979345838252736</v>
+        <v>-2.985003837421464</v>
       </c>
       <c r="G257">
-        <v>0.0152091945646835</v>
+        <v>0.009298919387223492</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.039822655808179</v>
+        <v>-3.043975475152526</v>
       </c>
       <c r="G258">
-        <v>0.005506222597323029</v>
+        <v>0.001218310655403121</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.105991539352321</v>
+        <v>-3.1075259405632</v>
       </c>
       <c r="G259">
-        <v>-0.009545795261467482</v>
+        <v>-0.01108019647234615</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.160506702224378</v>
+        <v>-3.160620772186426</v>
       </c>
       <c r="G260">
-        <v>-0.01302637866280743</v>
+        <v>-0.01328399909633016</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.205058882028033</v>
+        <v>-3.205622587151724</v>
       </c>
       <c r="G261">
-        <v>-0.006126433434680223</v>
+        <v>-0.007033855778703302</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.252724913271831</v>
+        <v>-3.253006261778443</v>
       </c>
       <c r="G262">
-        <v>-0.003245152899568726</v>
+        <v>-0.003526501406180937</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.300731718655187</v>
+        <v>-3.300731718655721</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-5.333511410299252e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-2.808996931078138</v>
+        <v>-2.808996931078332</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-1.940669847044774e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.847803787417712</v>
+        <v>-2.849052051588913</v>
       </c>
       <c r="G265">
-        <v>0.01262456091539521</v>
+        <v>0.0111888270301117</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.891759923695433</v>
+        <v>-2.895424142280877</v>
       </c>
       <c r="G266">
-        <v>0.01997487294028844</v>
+        <v>0.01631065435484391</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.940979222819823</v>
+        <v>-2.945844589788069</v>
       </c>
       <c r="G267">
-        <v>0.02224949183259395</v>
+        <v>0.01738412486434782</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.99471284125489</v>
+        <v>-3.001057132236614</v>
       </c>
       <c r="G268">
-        <v>0.0203090220505302</v>
+        <v>0.0134155299566896</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.054217706217506</v>
+        <v>-3.059301390227813</v>
       </c>
       <c r="G269">
-        <v>0.01215810499726433</v>
+        <v>0.00666518998218657</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.119326702863239</v>
+        <v>-3.121805521902617</v>
       </c>
       <c r="G270">
-        <v>-0.001866204636543856</v>
+        <v>-0.004345023675921489</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.184141998539933</v>
+        <v>-3.184089417613621</v>
       </c>
       <c r="G271">
-        <v>-0.01543755277235148</v>
+        <v>-0.01538497184603893</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.226590787875113</v>
+        <v>-3.227124966399568</v>
       </c>
       <c r="G272">
-        <v>-0.006083352734252312</v>
+        <v>-0.006926602615290101</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.275607048055424</v>
+        <v>-3.275620077240575</v>
       </c>
       <c r="G273">
-        <v>-0.003852070272457597</v>
+        <v>-0.003927795439601534</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.32318619981767</v>
+        <v>-3.323186199818896</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-1.226574397605873e-12</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-2.82395786908426</v>
+        <v>-2.823957869084533</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-2.726707748479384e-13</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.86217704915921</v>
+        <v>-2.863246482997421</v>
       </c>
       <c r="G276">
-        <v>0.01353711214543019</v>
+        <v>0.01224201487750598</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.905339129204722</v>
+        <v>-2.90982958220005</v>
       </c>
       <c r="G277">
-        <v>0.02216601297462883</v>
+        <v>0.01736972148928739</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.953590015524554</v>
+        <v>-2.958755099529609</v>
       </c>
       <c r="G278">
-        <v>0.0253200939791931</v>
+        <v>0.02015500997413788</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.007074472582891</v>
+        <v>-3.01319167661578</v>
       </c>
       <c r="G279">
-        <v>0.02369884780529041</v>
+        <v>0.01742923870237822</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.065839588276748</v>
+        <v>-3.070726307056799</v>
       </c>
       <c r="G280">
-        <v>0.01658384302051275</v>
+        <v>0.01160541407576954</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.129505474914156</v>
+        <v>-3.133416649030234</v>
       </c>
       <c r="G281">
-        <v>0.00482657415643617</v>
+        <v>0.0006258779167440665</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.198276894321253</v>
+        <v>-3.198813661330406</v>
       </c>
       <c r="G282">
-        <v>-0.01242000334609494</v>
+        <v>-0.01306032856901751</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.24435453573507</v>
+        <v>-3.244443895773505</v>
       </c>
       <c r="G283">
-        <v>-0.006447287164621951</v>
+        <v>-0.006979757197705716</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.292868898330678</v>
+        <v>-3.292991441338167</v>
       </c>
       <c r="G284">
-        <v>-0.00358077377879723</v>
+        <v>-0.003816496947957326</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.34088575020462</v>
+        <v>-3.340885750205778</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-1.158184659288963e-12</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-2.836052457866298</v>
+        <v>-2.836052457867516</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>-1.217692613408872e-12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.873863989280586</v>
+        <v>-2.875189244270567</v>
       </c>
       <c r="G287">
-        <v>0.01434623874613017</v>
+        <v>0.01276398312885085</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.916590651731199</v>
+        <v>-2.920330552633785</v>
       </c>
       <c r="G288">
-        <v>0.02364713386321959</v>
+        <v>0.01952344429875241</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.964267308378179</v>
+        <v>-2.969628336322544</v>
       </c>
       <c r="G289">
-        <v>0.02788273053800383</v>
+        <v>0.02212643014311322</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.017456427899476</v>
+        <v>-3.022474730743</v>
       </c>
       <c r="G290">
-        <v>0.02670685252081917</v>
+        <v>0.02118080525577692</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.075185206835919</v>
+        <v>-3.080087204037723</v>
       </c>
       <c r="G291">
-        <v>0.0208032133823417</v>
+        <v>0.01546910149417458</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.138054992592655</v>
+        <v>-3.142114357659095</v>
       </c>
       <c r="G292">
-        <v>0.009402082472361739</v>
+        <v>0.005342717405921737</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.206021624550894</v>
+        <v>-3.207302791165929</v>
       </c>
       <c r="G293">
-        <v>-0.006608778079094435</v>
+        <v>-0.007944946567792321</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.258714824187416</v>
+        <v>-3.258946951360472</v>
       </c>
       <c r="G294">
-        <v>-0.007277850012447518</v>
+        <v>-0.007688337229215803</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.306177078081882</v>
+        <v>-3.306445893813081</v>
       </c>
       <c r="G295">
-        <v>-0.002843110124883697</v>
+        <v>-0.003286510148705069</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.355194263713085</v>
+        <v>-3.355194263712564</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>5.209166431541234e-13</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7223,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>-2.846031576081587</v>
+        <v>-2.846031576080589</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>9.983125437429408e-13</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.88352594119328</v>
+        <v>-2.885138260640858</v>
       </c>
       <c r="G298">
-        <v>0.01463109450309696</v>
+        <v>0.01295941693228331</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.925670802368445</v>
+        <v>-2.929060546215056</v>
       </c>
       <c r="G299">
-        <v>0.02455915367119754</v>
+        <v>0.02110323284963922</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.972901813188335</v>
+        <v>-2.977378949358905</v>
       </c>
       <c r="G300">
-        <v>0.02945875777636209</v>
+        <v>0.02485093119734394</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.025622067535627</v>
+        <v>-3.030112534224978</v>
       </c>
       <c r="G301">
-        <v>0.02926176835954508</v>
+        <v>0.02428594014859509</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.082865280172565</v>
+        <v>-3.08712500759803</v>
       </c>
       <c r="G302">
-        <v>0.02396255632280142</v>
+        <v>0.01933956826709715</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.145342890184007</v>
+        <v>-3.148791426601011</v>
       </c>
       <c r="G303">
-        <v>0.01345501694399642</v>
+        <v>0.009739250755670614</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.212621289873333</v>
+        <v>-3.214126943297047</v>
       </c>
       <c r="G304">
-        <v>-0.001760787573871325</v>
+        <v>-0.003427672123040515</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.271178965640444</v>
+        <v>-3.271229309918898</v>
       </c>
       <c r="G305">
-        <v>-0.008323240647761132</v>
+        <v>-0.008463937253337939</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.317265434060941</v>
+        <v>-3.3176013510403</v>
       </c>
       <c r="G306">
-        <v>-0.002433959903827609</v>
+        <v>-0.002769876883186473</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7453,10 +7453,10 @@
         <v>5083</v>
       </c>
       <c r="F307">
-        <v>-3.367000067974438</v>
+        <v>-3.367000067972194</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>2.243982777372366e-12</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>-2.854405124424242</v>
+        <v>-2.854405124421669</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>2.573496971081113e-12</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.891650547293624</v>
+        <v>-2.893163398291431</v>
       </c>
       <c r="G309">
-        <v>0.01518367174888624</v>
+        <v>0.01345181542211193</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.93371227722202</v>
+        <v>-2.936205710432292</v>
       </c>
       <c r="G310">
-        <v>0.02542169602714406</v>
+        <v>0.02269966939461554</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.980822869366548</v>
+        <v>-2.984829641673648</v>
       </c>
       <c r="G311">
-        <v>0.03029259974966014</v>
+        <v>0.02628582744256058</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.032340822084214</v>
+        <v>-3.036798991867277</v>
       </c>
       <c r="G312">
-        <v>0.03121383240550957</v>
+        <v>0.02660664336229557</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.089311725958793</v>
+        <v>-3.093836838986158</v>
       </c>
       <c r="G313">
-        <v>0.02666586938106486</v>
+        <v>0.02177888553271545</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.151414212377743</v>
+        <v>-3.154489598837623</v>
       </c>
       <c r="G314">
-        <v>0.01656383668015526</v>
+        <v>0.01341629179461523</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.218088536215872</v>
+        <v>-3.219793150097201</v>
       </c>
       <c r="G315">
-        <v>0.002119029182193422</v>
+        <v>0.0003228298243381778</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.28205009141783</v>
+        <v>-3.282100914162134</v>
       </c>
       <c r="G316">
-        <v>-0.009643945382926677</v>
+        <v>-0.009694768127230802</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.326679120219971</v>
+        <v>-3.327159863052084</v>
       </c>
       <c r="G317">
-        <v>-0.002025652260206512</v>
+        <v>-0.002543627727880138</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7706,10 +7706,10 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.376906401437568</v>
+        <v>-3.376906401434639</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>2.929212428171013e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.545014110040326</v>
+        <v>-2.545142288186069</v>
       </c>
       <c r="G24">
         <v>-0.01314026440037441</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.566821375422724</v>
+        <v>-2.567459557240904</v>
       </c>
       <c r="G26">
         <v>-0.01853146594599941</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.622384518558774</v>
+        <v>-2.623166128467609</v>
       </c>
       <c r="G32">
         <v>-0.02484641757173267</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.643289983438904</v>
+        <v>-2.644071593347737</v>
       </c>
       <c r="G35">
         <v>-0.02112778669670412</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.650258471732279</v>
+        <v>-2.651821691549945</v>
       </c>
       <c r="G36">
         <v>-0.01988824307169312</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.664977058227862</v>
+        <v>-2.665758668136697</v>
       </c>
       <c r="G38">
         <v>-0.0181907657305036</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.681914163343364</v>
+        <v>-2.682040474449948</v>
       </c>
       <c r="G40">
         <v>-0.01871180700923269</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.6936326213102</v>
+        <v>-2.695195841127869</v>
       </c>
       <c r="G42">
         <v>-0.01401420113929652</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.702164329421243</v>
+        <v>-2.704509159147741</v>
       </c>
       <c r="G43">
         <v>-0.0143378773319538</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.718446135734497</v>
+        <v>-2.719227745643331</v>
       </c>
       <c r="G45">
         <v>-0.01420361980843521</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.726977843845537</v>
+        <v>-2.72932267357204</v>
       </c>
       <c r="G46">
         <v>-0.01452729600108893</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.750228138452165</v>
+        <v>-2.751009748361001</v>
       </c>
       <c r="G49">
         <v>-0.01315349485255846</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.768073164583086</v>
+        <v>-2.768854774491921</v>
       </c>
       <c r="G51">
         <v>-0.01458245714670681</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.775041652876461</v>
+        <v>-2.776604872694128</v>
       </c>
       <c r="G52">
         <v>-0.01334291352169548</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.79210506909855</v>
+        <v>-2.792886679007383</v>
       </c>
       <c r="G54">
         <v>-0.01399026590701247</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.816918583522845</v>
+        <v>-2.817700193431682</v>
       </c>
       <c r="G57">
         <v>-0.01417968457614815</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.620930146604619</v>
+        <v>-2.621138370137321</v>
       </c>
       <c r="G77">
         <v>2.88617597057339e-05</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.636549768559107</v>
+        <v>-2.636979361769884</v>
       </c>
       <c r="G82">
         <v>0.0006269304723045543</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.648617115497883</v>
+        <v>-2.649016156731159</v>
       </c>
       <c r="G86">
         <v>0.00153373606719942</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.652529360395843</v>
+        <v>-2.654270412295804</v>
       </c>
       <c r="G87">
         <v>0.0008650293026564171</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.656684640490772</v>
+        <v>-2.657144785679046</v>
       </c>
       <c r="G88">
         <v>-4.671265885569653e-05</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.673554984264512</v>
+        <v>-2.674166508717263</v>
       </c>
       <c r="G93">
         <v>-0.0006993657655081087</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.676950239705965</v>
+        <v>-2.679081813465668</v>
       </c>
       <c r="G94">
         <v>-0.0008510830735430908</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.693320819053137</v>
+        <v>-2.694288053701363</v>
       </c>
       <c r="G98">
         <v>-0.004247509887045364</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.696811343660962</v>
+        <v>-2.697293154368138</v>
       </c>
       <c r="G99">
         <v>-0.004494496361453049</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.7065951896883</v>
+        <v>-2.709942306517922</v>
       </c>
       <c r="G102">
         <v>-0.004547727988538419</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.710159597311425</v>
+        <v>-2.713723824132351</v>
       </c>
       <c r="G103">
         <v>-0.004868597478246528</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.718669861660455</v>
+        <v>-2.720437205851147</v>
       </c>
       <c r="G105">
         <v>-0.006891785560440677</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.722439246667474</v>
+        <v>-2.72361571838636</v>
       </c>
       <c r="G106">
         <v>-0.007417632434042698</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.727992368159362</v>
+        <v>-2.72969434870829</v>
       </c>
       <c r="G107">
         <v>-0.009727215792513011</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.73444956853582</v>
+        <v>-2.736915833424993</v>
       </c>
       <c r="G109">
         <v>-0.00969733990213606</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.742183415937198</v>
+        <v>-2.744089360332065</v>
       </c>
       <c r="G111">
         <v>-0.01094411103667992</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.755591579202503</v>
+        <v>-2.756559827388687</v>
       </c>
       <c r="G114">
         <v>-0.0146216599017317</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.763637438676493</v>
+        <v>-2.764340619061738</v>
       </c>
       <c r="G116">
         <v>-0.016180443108887</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.771319068581469</v>
+        <v>-2.772708023519829</v>
       </c>
       <c r="G118">
         <v>-0.0173749967470278</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.775747935850871</v>
+        <v>-2.77688959590549</v>
       </c>
       <c r="G119">
         <v>-0.01856032588301249</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.780133472082468</v>
+        <v>-2.780341695615174</v>
       </c>
       <c r="G120">
         <v>-0.0197023239811922</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.788678548095767</v>
+        <v>-2.788917323605969</v>
       </c>
       <c r="G122">
         <v>-0.02176032372765646</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.792877526313563</v>
+        <v>-2.793085749846266</v>
       </c>
       <c r="G123">
         <v>-0.02271576381203477</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.853685082873792</v>
+        <v>-2.853946086878641</v>
       </c>
       <c r="G143">
         <v>-0.01865255770391383</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.867088107225458</v>
+        <v>-2.867641550311842</v>
       </c>
       <c r="G148">
         <v>-0.01583789138849245</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.878606112752015</v>
+        <v>-2.879175273376742</v>
       </c>
       <c r="G152">
         <v>-0.01438174438137962</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.880720700505289</v>
+        <v>-2.881289861130018</v>
       </c>
       <c r="G153">
         <v>-0.01325279400123591</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.886625922809335</v>
+        <v>-2.886934079429214</v>
       </c>
       <c r="G155">
         <v>-0.01267094003844704</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.901152558205124</v>
+        <v>-2.901444997286663</v>
       </c>
       <c r="G160">
         <v>-0.01097988476714873</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.904366677028498</v>
+        <v>-2.904957902961232</v>
       </c>
       <c r="G161">
         <v>-0.01095046545710576</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.907065135611841</v>
+        <v>-2.907349212257704</v>
       </c>
       <c r="G162">
         <v>-0.010405385907031</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.910309682178893</v>
+        <v>-2.910617838798772</v>
       </c>
       <c r="G163">
         <v>-0.01040639434066537</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.916523061102819</v>
+        <v>-2.918246260515347</v>
       </c>
       <c r="G165">
         <v>-0.01013269699775654</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.92036185560163</v>
+        <v>-2.920930008893352</v>
       </c>
       <c r="G166">
         <v>-0.01072795336314991</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.923598039733012</v>
+        <v>-2.923890478814542</v>
       </c>
       <c r="G167">
         <v>-0.0107205993611148</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.925420188404748</v>
+        <v>-2.926551154551537</v>
       </c>
       <c r="G168">
         <v>-0.009299209899433336</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.933716720005262</v>
+        <v>-2.934587689480208</v>
       </c>
       <c r="G171">
         <v>-0.007865127099694225</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.939931106262196</v>
+        <v>-2.941392294336865</v>
       </c>
       <c r="G173">
         <v>-0.007592437089793402</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.946713645810852</v>
+        <v>-2.948451555428711</v>
       </c>
       <c r="G175">
         <v>-0.007887900371614576</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.95294173494011</v>
+        <v>-2.954096781060914</v>
       </c>
       <c r="G177">
         <v>-0.00762891323403736</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.959449567611588</v>
+        <v>-2.960601591733365</v>
       </c>
       <c r="G179">
         <v>-0.007649669638681189</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.97273591049969</v>
+        <v>-2.973028349581223</v>
       </c>
       <c r="G183">
         <v>-0.007961859993112941</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.975128227129167</v>
+        <v>-2.975704742856556</v>
       </c>
       <c r="G184">
         <v>-0.00711063848917215</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.991099325728275</v>
+        <v>-2.992253364516069</v>
       </c>
       <c r="G189">
         <v>-0.00686404642119276</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.997597788631067</v>
+        <v>-2.999051621603071</v>
       </c>
       <c r="G191">
         <v>-0.00687543305715077</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.000858052736465</v>
+        <v>-3.001736377314077</v>
       </c>
       <c r="G192">
         <v>-0.006892159029130374</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.007665679592145</v>
+        <v>-3.007949756238006</v>
       </c>
       <c r="G194">
         <v>-0.007212709617976154</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.030719111924112</v>
+        <v>-3.031011551005648</v>
       </c>
       <c r="G201">
         <v>-0.007561375016020555</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.724564796518301</v>
+        <v>-2.725548439237798</v>
       </c>
       <c r="G221">
         <v>0.00513218154667161</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.776485021011164</v>
+        <v>-2.777588953401989</v>
       </c>
       <c r="G222">
         <v>0.002465664855272998</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.831892588335125</v>
+        <v>-2.83228930169212</v>
       </c>
       <c r="G223">
         <v>-0.003688194667223144</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.035107009138595</v>
+        <v>-3.035187822446653</v>
       </c>
       <c r="G227">
         <v>-0.009887784264833055</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.128237019372673</v>
+        <v>-3.128320260900329</v>
       </c>
       <c r="G229">
         <v>-0.004510378895981104</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.772944170173116</v>
+        <v>-2.773422144751465</v>
       </c>
       <c r="G232">
         <v>0.00814551919973594</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.996595844013549</v>
+        <v>-2.99679684804026</v>
       </c>
       <c r="G236">
         <v>-0.01588438568495487</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.091344332807257</v>
+        <v>-3.091874418207377</v>
       </c>
       <c r="G238">
         <v>-0.01082199000079109</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.136916475367935</v>
+        <v>-3.137023615438747</v>
       </c>
       <c r="G239">
         <v>-0.006488690322533519</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.806515915203583</v>
+        <v>-2.80664644741101</v>
       </c>
       <c r="G243">
         <v>0.009089023174313926</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.85450652878273</v>
+        <v>-2.854575983575101</v>
       </c>
       <c r="G244">
         <v>0.01155025442231894</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.025115893584194</v>
+        <v>-3.025421772671993</v>
       </c>
       <c r="G247">
         <v>-0.007155186280003001</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.087627081597565</v>
+        <v>-3.087657702307174</v>
       </c>
       <c r="G248">
         <v>-0.01921452946622115</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.130905757125479</v>
+        <v>-3.131243008352955</v>
       </c>
       <c r="G249">
         <v>-0.01149297054929721</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.177337608956611</v>
+        <v>-3.177401040399403</v>
       </c>
       <c r="G250">
         <v>-0.007472977553277582</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.830283717882006</v>
+        <v>-2.830732328541576</v>
       </c>
       <c r="G254">
         <v>0.01062409336159087</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.877491384314998</v>
+        <v>-2.878868022603887</v>
       </c>
       <c r="G255">
         <v>0.01466838521152303</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.929643801209044</v>
+        <v>-2.929828528924229</v>
       </c>
       <c r="G256">
         <v>0.01340699731671924</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.985003837421464</v>
+        <v>-2.986284488992089</v>
       </c>
       <c r="G257">
         <v>0.009298919387223492</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.043975475152526</v>
+        <v>-3.044987554444726</v>
       </c>
       <c r="G258">
         <v>0.001218310655403121</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.1075259405632</v>
+        <v>-3.107895999645247</v>
       </c>
       <c r="G259">
         <v>-0.01108019647234615</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.895424142280877</v>
+        <v>-2.896046239415437</v>
       </c>
       <c r="G266">
         <v>0.01631065435484391</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.945844589788069</v>
+        <v>-2.946307158397514</v>
       </c>
       <c r="G267">
         <v>0.01738412486434782</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.001057132236614</v>
+        <v>-3.001447508919053</v>
       </c>
       <c r="G268">
         <v>0.0134155299566896</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.227124966399568</v>
+        <v>-3.227227942776993</v>
       </c>
       <c r="G272">
         <v>-0.006926602615290101</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.863246482997421</v>
+        <v>-2.863800171269826</v>
       </c>
       <c r="G276">
         <v>0.01224201487750598</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.958755099529609</v>
+        <v>-2.959364687111813</v>
       </c>
       <c r="G278">
         <v>0.02015500997413788</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.070726307056799</v>
+        <v>-3.070936573930026</v>
       </c>
       <c r="G280">
         <v>0.01160541407576954</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.244443895773505</v>
+        <v>-3.244626311283956</v>
       </c>
       <c r="G283">
         <v>-0.006979757197705716</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.292991441338167</v>
+        <v>-3.293071521133396</v>
       </c>
       <c r="G284">
         <v>-0.003816496947957326</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.875189244270567</v>
+        <v>-2.875420690252443</v>
       </c>
       <c r="G287">
         <v>0.01276398312885085</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.022474730743</v>
+        <v>-3.022717461450056</v>
       </c>
       <c r="G290">
         <v>0.02118080525577692</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.207302791165929</v>
+        <v>-3.207336727705967</v>
       </c>
       <c r="G293">
         <v>-0.007944946567792321</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.929060546215056</v>
+        <v>-2.92924423670246</v>
       </c>
       <c r="G299">
         <v>0.02110323284963922</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.030112534224978</v>
+        <v>-3.030415945423658</v>
       </c>
       <c r="G301">
         <v>0.02428594014859509</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.148791426601011</v>
+        <v>-3.148969310035863</v>
       </c>
       <c r="G303">
         <v>0.009739250755670614</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.214126943297047</v>
+        <v>-3.21436928381771</v>
       </c>
       <c r="G304">
         <v>-0.003427672123040515</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.936205710432292</v>
+        <v>-2.936787194446639</v>
       </c>
       <c r="G310">
         <v>0.02269966939461554</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.689008962743323</v>
+        <v>-2.691353792469824</v>
       </c>
       <c r="G41">
         <v>-0.01759857449080604</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.751009748361001</v>
+        <v>-2.752446657072083</v>
       </c>
       <c r="G49">
         <v>-0.01315349485255846</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.624112918826598</v>
+        <v>-2.6243822463143</v>
       </c>
       <c r="G78">
         <v>8.962767114395476e-05</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.627326243026078</v>
+        <v>-2.627786388214353</v>
       </c>
       <c r="G79">
         <v>0.0001198416050813833</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.633844547357535</v>
+        <v>-2.634052770890241</v>
       </c>
       <c r="G81">
         <v>8.861354045963665e-05</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.649016156731159</v>
+        <v>-2.649190039271256</v>
       </c>
       <c r="G86">
         <v>0.00153373606719942</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.011202665240735</v>
+        <v>-3.011387071749779</v>
       </c>
       <c r="G195">
         <v>-0.00750615713314845</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.636321495145525</v>
+        <v>-2.637103105054359</v>
       </c>
       <c r="G34">
         <v>-0.02236733032171068</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.152429234923367</v>
       </c>
       <c r="G2">
-        <v>2.220446049250313e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.214425596731847</v>
       </c>
       <c r="G3">
-        <v>-0.03168836215114768</v>
+        <v>-0.03168836215114967</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.23254695799723</v>
       </c>
       <c r="G4">
-        <v>-0.01950172375920034</v>
+        <v>-0.01950172375920189</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.25448669588102</v>
       </c>
       <c r="G5">
-        <v>-0.01113346198566045</v>
+        <v>-0.01113346198566201</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.280244810383218</v>
       </c>
       <c r="G6">
-        <v>-0.006583576830527571</v>
+        <v>-0.006583576830528903</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.306002924885415</v>
       </c>
       <c r="G7">
-        <v>-0.002033691675394911</v>
+        <v>-0.002033691675396021</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.331761039387613</v>
       </c>
       <c r="G8">
-        <v>0.002516193479737083</v>
+        <v>0.002516193479736195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.361337530508218</v>
       </c>
       <c r="G9">
-        <v>0.003247702016462739</v>
+        <v>0.003247702016461962</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.387095645010416</v>
       </c>
       <c r="G10">
-        <v>0.007797587171595399</v>
+        <v>0.007797587171594733</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.416672136131021</v>
       </c>
       <c r="G11">
-        <v>0.008529095708320389</v>
+        <v>0.008529095708320167</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.446248627251626</v>
       </c>
       <c r="G12">
-        <v>0.009260604245045156</v>
+        <v>0.009260604245045101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.475825118372231</v>
       </c>
       <c r="G13">
-        <v>0.009992112781770812</v>
+        <v>0.009992112781770923</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.509219986111243</v>
       </c>
       <c r="G14">
-        <v>0.006905244700088797</v>
+        <v>0.006905244700089075</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.546433230468663</v>
       </c>
       <c r="G15">
-        <v>-4.440892098500626e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.466209590292846</v>
       </c>
       <c r="G16">
-        <v>1.643130076445232e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.474879586620409</v>
       </c>
       <c r="G17">
-        <v>-0.0004619644091601316</v>
+        <v>-0.0004619644091756747</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-2.484187764766153</v>
       </c>
       <c r="G18">
-        <v>-0.00156211063651801</v>
+        <v>-0.001562110636533109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-2.494134124730079</v>
       </c>
       <c r="G19">
-        <v>-0.003300438682057205</v>
+        <v>-0.003300438682072748</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.504080484694005</v>
+        <v>-2.504080484694004</v>
       </c>
       <c r="G20">
-        <v>-0.005038766727597288</v>
+        <v>-0.005038766727611055</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -878,7 +878,7 @@
         <v>-2.51402684465793</v>
       </c>
       <c r="G21">
-        <v>-0.006777094773136483</v>
+        <v>-0.00677709477315025</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.524611386440037</v>
+        <v>-2.523973204621855</v>
       </c>
       <c r="G22">
-        <v>-0.009153604636857438</v>
+        <v>-0.008515422818688556</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -924,7 +924,7 @@
         <v>-2.534557746403963</v>
       </c>
       <c r="G23">
-        <v>-0.01089193268239708</v>
+        <v>-0.01089193268240951</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.545142288186069</v>
+        <v>-2.540744624788505</v>
       </c>
       <c r="G24">
-        <v>-0.01314026440037441</v>
+        <v>-0.008870779148564711</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.556236833640614</v>
+        <v>-2.546946753117955</v>
       </c>
       <c r="G25">
-        <v>-0.0161549560822758</v>
+        <v>-0.006864875559628114</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.567459557240904</v>
+        <v>-2.553133631502497</v>
       </c>
       <c r="G26">
-        <v>-0.01853146594599941</v>
+        <v>-0.004843722025783315</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.578682280841194</v>
+        <v>-2.564356355102785</v>
       </c>
       <c r="G27">
-        <v>-0.02218433944608278</v>
+        <v>-0.007858413707685363</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.590543186259664</v>
+        <v>-2.571453021541903</v>
       </c>
       <c r="G28">
-        <v>-0.02583721294616637</v>
+        <v>-0.006747048228415986</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.603042273496315</v>
+        <v>-2.582052813268922</v>
       </c>
       <c r="G29">
-        <v>-0.03012826826443171</v>
+        <v>-0.009138808037048696</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.609229151880857</v>
+        <v>-2.584551924119406</v>
       </c>
       <c r="G30">
-        <v>-0.02810711473058802</v>
+        <v>-0.003429886969145812</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.616197640174233</v>
+        <v>-2.60152038879895</v>
       </c>
       <c r="G31">
-        <v>-0.02686757110557791</v>
+        <v>-0.01219031973030305</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.623166128467609</v>
+        <v>-2.607140799410634</v>
       </c>
       <c r="G32">
-        <v>-0.02484641757173267</v>
+        <v>-0.009602698423600398</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.630134616760985</v>
+        <v>-2.617191258431155</v>
       </c>
       <c r="G33">
-        <v>-0.02438848385555725</v>
+        <v>-0.0114451255257344</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.637103105054359</v>
+        <v>-2.619905511417622</v>
       </c>
       <c r="G34">
-        <v>-0.02236733032171068</v>
+        <v>-0.005951346593815021</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.644071593347737</v>
+        <v>-2.629043016335574</v>
       </c>
       <c r="G35">
-        <v>-0.02112778669670412</v>
+        <v>-0.006880819593379606</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.651821691549945</v>
+        <v>-2.642180285390408</v>
       </c>
       <c r="G36">
-        <v>-0.01988824307169312</v>
+        <v>-0.01181005672982671</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.658790179843322</v>
+        <v>-2.64439978464934</v>
       </c>
       <c r="G37">
-        <v>-0.02021191926434973</v>
+        <v>-0.005821524070372286</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.665758668136697</v>
+        <v>-2.647823933499312</v>
       </c>
       <c r="G38">
-        <v>-0.0181907657305036</v>
+        <v>-0.001037641001958356</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.67429037624774</v>
+        <v>-2.655702209847265</v>
       </c>
       <c r="G39">
-        <v>-0.01929605183199534</v>
+        <v>-0.0007078854315245575</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.682040474449948</v>
+        <v>-2.677946784217757</v>
       </c>
       <c r="G40">
-        <v>-0.01871180700923269</v>
+        <v>-0.01474442788362973</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.691353792469824</v>
+        <v>-2.674574098641156</v>
       </c>
       <c r="G41">
-        <v>-0.01759857449080604</v>
+        <v>-0.003163710388641716</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.695195841127869</v>
+        <v>-2.686423747751149</v>
       </c>
       <c r="G42">
-        <v>-0.01401420113929652</v>
+        <v>-0.006805327580247988</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.704509159147741</v>
+        <v>-2.699633859006719</v>
       </c>
       <c r="G43">
-        <v>-0.0143378773319538</v>
+        <v>-0.0118074069174321</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.710696037532286</v>
+        <v>-2.712788245045621</v>
       </c>
       <c r="G44">
-        <v>-0.01466155352460974</v>
+        <v>-0.01675376103794646</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.719227745643331</v>
+        <v>-2.703346866045435</v>
       </c>
       <c r="G45">
-        <v>-0.01420361980843521</v>
+        <v>0.0008956498806258484</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.72932267357204</v>
+        <v>-2.719075363818606</v>
       </c>
       <c r="G46">
-        <v>-0.01452729600108893</v>
+        <v>-0.006624815974158205</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.73707277177425</v>
+        <v>-2.736291161865417</v>
       </c>
       <c r="G47">
-        <v>-0.01641419201141536</v>
+        <v>-0.01563258210258223</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.743259650158792</v>
+        <v>-2.736633233201255</v>
       </c>
       <c r="G48">
-        <v>-0.01439303847757167</v>
+        <v>-0.007766621520033379</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.752446657072083</v>
+        <v>-2.737956067753247</v>
       </c>
       <c r="G49">
-        <v>-0.01315349485255846</v>
+        <v>-0.000881424153639121</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.759541456472046</v>
+        <v>-2.75381756489704</v>
       </c>
       <c r="G50">
-        <v>-0.01425878095405253</v>
+        <v>-0.008534889379044786</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.768854774491921</v>
+        <v>-2.763725723982321</v>
       </c>
       <c r="G51">
-        <v>-0.01458245714670681</v>
+        <v>-0.01023501654593983</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.776604872694128</v>
+        <v>-2.774133731861046</v>
       </c>
       <c r="G52">
-        <v>-0.01334291352169548</v>
+        <v>-0.01243499250627789</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.785136580805174</v>
+        <v>-2.779941676925841</v>
       </c>
       <c r="G53">
-        <v>-0.01522980953202269</v>
+        <v>-0.01003490565268583</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.792886679007383</v>
+        <v>-2.789381306052297</v>
       </c>
       <c r="G54">
-        <v>-0.01399026590701247</v>
+        <v>-0.0112665028607557</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.801418387118424</v>
+        <v>-2.798039325269927</v>
       </c>
       <c r="G55">
-        <v>-0.01509555200850055</v>
+        <v>-0.01171649015999832</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.808386875411803</v>
+        <v>-2.799818305316853</v>
       </c>
       <c r="G56">
-        <v>-0.01385600838349321</v>
+        <v>-0.005287438288537616</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.817700193431682</v>
+        <v>-2.811789533013244</v>
       </c>
       <c r="G57">
-        <v>-0.01417968457614815</v>
+        <v>-0.009050634066542829</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.826231901542724</v>
+        <v>-2.824542370618472</v>
       </c>
       <c r="G58">
-        <v>-0.01528497067764201</v>
+        <v>-0.01359543975338329</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.8355452195626</v>
+        <v>-2.828913406972179</v>
       </c>
       <c r="G59">
-        <v>-0.01639025677913142</v>
+        <v>-0.009758444188703974</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.842387396749394</v>
+        <v>-2.835629273052391</v>
       </c>
       <c r="G60">
-        <v>-0.01502440204753885</v>
+        <v>-0.00826627835052901</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.849229573936186</v>
+        <v>-2.846758433103104</v>
       </c>
       <c r="G61">
-        <v>-0.0136585473159454</v>
+        <v>-0.01118740648285532</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.856071751122979</v>
+        <v>-2.85112946945681</v>
       </c>
       <c r="G62">
-        <v>-0.01229269258435212</v>
+        <v>-0.007350410918174899</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.862913928309773</v>
+        <v>-2.86044278747669</v>
       </c>
       <c r="G63">
-        <v>-0.01092683785275955</v>
+        <v>-0.008455697019667974</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1867,7 +1867,7 @@
         <v>-2.869756105496565</v>
       </c>
       <c r="G64">
-        <v>-0.009560983121165656</v>
+        <v>-0.009560983121156663</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1890,7 +1890,7 @@
         <v>-2.876598282683359</v>
       </c>
       <c r="G65">
-        <v>-0.008195128389573092</v>
+        <v>-0.008195128389563378</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>-2.883440459870152</v>
       </c>
       <c r="G66">
-        <v>-0.006829273657979668</v>
+        <v>-0.006829273657969176</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>-2.890282637056945</v>
       </c>
       <c r="G67">
-        <v>-0.005463418926386659</v>
+        <v>-0.005463418926376307</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-2.897124814243738</v>
       </c>
       <c r="G68">
-        <v>-0.004097564194793651</v>
+        <v>-0.004097564194782577</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-2.903966991430531</v>
       </c>
       <c r="G69">
-        <v>-0.002731709463200213</v>
+        <v>-0.002731709463188375</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-2.910809168617324</v>
       </c>
       <c r="G70">
-        <v>-0.001365854731606768</v>
+        <v>-0.001365854731594632</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-2.917651345804116</v>
       </c>
       <c r="G71">
-        <v>-1.287858708565182e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-2.604741317697222</v>
       </c>
       <c r="G72">
-        <v>1.509903313490213e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-2.607985193874201</v>
       </c>
       <c r="G73">
-        <v>-3.380435464883647e-07</v>
+        <v>-3.38043562031487e-07</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-2.611229070051181</v>
       </c>
       <c r="G74">
-        <v>-6.760871089639409e-07</v>
+        <v>-6.760871245070632e-07</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-2.61447294622816</v>
       </c>
       <c r="G75">
-        <v>-1.014130670995428e-06</v>
+        <v>-1.014130685650372e-06</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.617716822405138</v>
+        <v>-2.617716822405139</v>
       </c>
       <c r="G76">
-        <v>-1.352174230806469e-06</v>
+        <v>-1.352174247681859e-06</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.621138370137321</v>
+        <v>-2.62089959462712</v>
       </c>
       <c r="G77">
-        <v>2.88617597057339e-05</v>
+        <v>5.941373718831855e-05</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.6243822463143</v>
+        <v>-2.624351694336801</v>
       </c>
       <c r="G78">
-        <v>8.962767114395476e-05</v>
+        <v>-0.0001491478390756029</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.627786388214353</v>
+        <v>-2.626747645877111</v>
       </c>
       <c r="G79">
-        <v>0.0001198416050813833</v>
+        <v>0.0006984387540325265</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.631017118245967</v>
+        <v>-2.629478095851558</v>
       </c>
       <c r="G80">
-        <v>-0.0003274954813896613</v>
+        <v>0.001211526913002636</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.634052770890241</v>
+        <v>-2.632335013422767</v>
       </c>
       <c r="G81">
-        <v>8.861354045963665e-05</v>
+        <v>0.001598147475211587</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.636979361769884</v>
+        <v>-2.635357812120434</v>
       </c>
       <c r="G82">
-        <v>0.0006269304723045543</v>
+        <v>0.001818886910961659</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.6408098507319</v>
+        <v>-2.63910979129532</v>
       </c>
       <c r="G83">
-        <v>-0.000389613567070235</v>
+        <v>0.001310445869492582</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.644470173974291</v>
+        <v>-2.640852410692208</v>
       </c>
       <c r="G84">
-        <v>-0.00080639867604404</v>
+        <v>0.002811364606022604</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.647604988386638</v>
+        <v>-2.641777737633605</v>
       </c>
       <c r="G85">
-        <v>-0.0006976749549738592</v>
+        <v>0.00512957579804274</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.649190039271256</v>
+        <v>-2.646287729991306</v>
       </c>
       <c r="G86">
-        <v>0.00153373606719942</v>
+        <v>0.00386312157375901</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.654270412295804</v>
+        <v>-2.649541522093223</v>
       </c>
       <c r="G87">
-        <v>0.0008650293026564171</v>
+        <v>0.00385286760525938</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.657144785679046</v>
+        <v>-2.652792992758141</v>
       </c>
       <c r="G88">
-        <v>-4.671265885569653e-05</v>
+        <v>0.003844935073758826</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.660666508717264</v>
+        <v>-2.656127951321167</v>
       </c>
       <c r="G89">
-        <v>-0.0007850427519295877</v>
+        <v>0.003753514644149636</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.663858167397841</v>
+        <v>-2.658187599276141</v>
       </c>
       <c r="G90">
-        <v>-0.0007331632990892345</v>
+        <v>0.004937404822593638</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.667102043574821</v>
+        <v>-2.660256041747391</v>
       </c>
       <c r="G91">
-        <v>-0.0007335013426521542</v>
+        <v>0.006112500484759753</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.671044840450278</v>
+        <v>-2.662528380137561</v>
       </c>
       <c r="G92">
-        <v>-0.001432760084691065</v>
+        <v>0.007083700228007306</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.674166508717263</v>
+        <v>-2.664484361727169</v>
       </c>
       <c r="G93">
-        <v>-0.0006993657655081087</v>
+        <v>0.008371256771817492</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.679081813465668</v>
+        <v>-2.668022110546613</v>
       </c>
       <c r="G94">
-        <v>-0.0008510830735430908</v>
+        <v>0.008077046085790851</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.682529653488585</v>
+        <v>-2.67099229425434</v>
       </c>
       <c r="G95">
-        <v>-0.003186958722745992</v>
+        <v>0.008350400511480949</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.686060262985399</v>
+        <v>-2.676622407405465</v>
       </c>
       <c r="G96">
-        <v>-0.003474030086141777</v>
+        <v>0.00596382549377239</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.6901981372482</v>
+        <v>-2.676487951266652</v>
       </c>
       <c r="G97">
-        <v>-0.004368366215525832</v>
+        <v>0.009341819766003567</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.694288053701363</v>
+        <v>-2.68000547080295</v>
       </c>
       <c r="G98">
-        <v>-0.004247509887045364</v>
+        <v>0.009067838363122416</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.697293154368138</v>
+        <v>-2.682521824512449</v>
       </c>
       <c r="G99">
-        <v>-0.004494496361453049</v>
+        <v>0.009795022787041585</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.701283909053227</v>
+        <v>-2.688939831306179</v>
       </c>
       <c r="G100">
-        <v>-0.005723523620301041</v>
+        <v>0.006620554126728351</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.705912480481798</v>
+        <v>-2.684786614787072</v>
       </c>
       <c r="G101">
-        <v>-0.007108556915454756</v>
+        <v>0.01401730877925322</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.709942306517922</v>
+        <v>-2.693055088511141</v>
       </c>
       <c r="G102">
-        <v>-0.004547727988538419</v>
+        <v>0.008992373188601022</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.713723824132351</v>
+        <v>-2.696231510181707</v>
       </c>
       <c r="G103">
-        <v>-0.004868597478246528</v>
+        <v>0.009059489651452868</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.717175923842035</v>
+        <v>-2.696674170527394</v>
       </c>
       <c r="G104">
-        <v>-0.008641385875438612</v>
+        <v>0.01186036743918306</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.720437205851147</v>
+        <v>-2.698019452730959</v>
       </c>
       <c r="G105">
-        <v>-0.006891785560440677</v>
+        <v>0.01375862336903522</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.72361571838636</v>
+        <v>-2.704733663452745</v>
       </c>
       <c r="G106">
-        <v>-0.007417632434042698</v>
+        <v>0.01028795078066658</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.72969434870829</v>
+        <v>-2.706572693309145</v>
       </c>
       <c r="G107">
-        <v>-0.009727215792513011</v>
+        <v>0.0116924590576839</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.732412716055229</v>
+        <v>-2.707706655631654</v>
       </c>
       <c r="G108">
-        <v>-0.01090402555496239</v>
+        <v>0.01380203486859233</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.736915833424993</v>
+        <v>-2.711681922937949</v>
       </c>
       <c r="G109">
-        <v>-0.00969733990213606</v>
+        <v>0.01307030569571443</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.739412831093858</v>
+        <v>-2.713568509059745</v>
       </c>
       <c r="G110">
-        <v>-0.01141706432675682</v>
+        <v>0.01442725770733633</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.744089360332065</v>
+        <v>-2.722923864892263</v>
       </c>
       <c r="G111">
-        <v>-0.01094411103667992</v>
+        <v>0.008315440008234809</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.748717931760634</v>
+        <v>-2.725485955697581</v>
       </c>
       <c r="G112">
-        <v>-0.01423508872669799</v>
+        <v>0.00899688733633508</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.751817934508716</v>
+        <v>-2.723398841195139</v>
       </c>
       <c r="G113">
-        <v>-0.01409155334136192</v>
+        <v>0.0143275399721936</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.756559827388687</v>
+        <v>-2.725526494997943</v>
       </c>
       <c r="G114">
-        <v>-0.0146216599017317</v>
+        <v>0.01544342430280699</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.760154786989307</v>
+        <v>-2.730550391362689</v>
       </c>
       <c r="G115">
-        <v>-0.01594132955511851</v>
+        <v>0.01366306607147871</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.764340619061738</v>
+        <v>-2.740032754234005</v>
       </c>
       <c r="G116">
-        <v>-0.016180443108887</v>
+        <v>0.007424241333580106</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.767649858880483</v>
+        <v>-2.734273828708313</v>
       </c>
       <c r="G117">
-        <v>-0.01694932517945924</v>
+        <v>0.01642670499268939</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.772708023519829</v>
+        <v>-2.738517883612951</v>
       </c>
       <c r="G118">
-        <v>-0.0173749967470278</v>
+        <v>0.01542618822146857</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.77688959590549</v>
+        <v>-2.741721382356133</v>
       </c>
       <c r="G119">
-        <v>-0.01856032588301249</v>
+        <v>0.01546622761170435</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.780341695615174</v>
+        <v>-2.743623697155742</v>
       </c>
       <c r="G120">
-        <v>-0.0197023239811922</v>
+        <v>0.01680745094551206</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.784987672875878</v>
+        <v>-2.750559610490438</v>
       </c>
       <c r="G121">
-        <v>-0.02131298664118408</v>
+        <v>0.01311507574423376</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.788917323605969</v>
+        <v>-2.750840292284556</v>
       </c>
       <c r="G122">
-        <v>-0.02176032372765646</v>
+        <v>0.01607793208353292</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.793085749846266</v>
+        <v>-2.755185956293495</v>
       </c>
       <c r="G123">
-        <v>-0.02271576381203477</v>
+        <v>0.01497580620801187</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.797284728064062</v>
+        <v>-2.757256605712501</v>
       </c>
       <c r="G124">
-        <v>-0.02387942742911608</v>
+        <v>0.01614869492242343</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.801691929814562</v>
+        <v>-2.758474126602534</v>
       </c>
       <c r="G125">
-        <v>-0.02504309104619873</v>
+        <v>0.01817471216580691</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.806099131565063</v>
+        <v>-2.760893168373165</v>
       </c>
       <c r="G126">
-        <v>-0.0262067546632816</v>
+        <v>0.01899920852859349</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.810745108825766</v>
+        <v>-2.767356997886559</v>
       </c>
       <c r="G127">
-        <v>-0.02760919379056737</v>
+        <v>0.01577891714861734</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.813428857203768</v>
+        <v>-2.773741209951788</v>
       </c>
       <c r="G128">
-        <v>-0.02704940403515166</v>
+        <v>0.01263824321680485</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.81611260558177</v>
+        <v>-2.780479047466264</v>
       </c>
       <c r="G129">
-        <v>-0.0264896142797364</v>
+        <v>0.009143943835746571</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.818796353959772</v>
+        <v>-2.777185692545256</v>
       </c>
       <c r="G130">
-        <v>-0.02592982452432113</v>
+        <v>0.0156808368901713</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.821480102337773</v>
+        <v>-2.784326993016257</v>
       </c>
       <c r="G131">
-        <v>-0.02537003476890476</v>
+        <v>0.01178307455258776</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.824163850715775</v>
+        <v>-2.789624563432656</v>
       </c>
       <c r="G132">
-        <v>-0.0248102450134895</v>
+        <v>0.009729042269607024</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.826847599093777</v>
+        <v>-2.787977342354095</v>
       </c>
       <c r="G133">
-        <v>-0.02425045525807401</v>
+        <v>0.01461980148158526</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.829531347471777</v>
+        <v>-2.788953002103729</v>
       </c>
       <c r="G134">
-        <v>-0.02369066550265675</v>
+        <v>0.01688767986536766</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.832215095849779</v>
+        <v>-2.794406492955838</v>
       </c>
       <c r="G135">
-        <v>-0.02313087574724149</v>
+        <v>0.01467772714667603</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.834898844227781</v>
+        <v>-2.804188010519847</v>
       </c>
       <c r="G136">
-        <v>-0.022571085991826</v>
+        <v>0.008139747716084944</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.837582592605783</v>
+        <v>-2.795386720034801</v>
       </c>
       <c r="G137">
-        <v>-0.02201129623641029</v>
+        <v>0.02018457633454829</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.840266340983784</v>
+        <v>-2.802053678221347</v>
       </c>
       <c r="G138">
-        <v>-0.02145150648099414</v>
+        <v>0.01676115628141917</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.842950089361787</v>
+        <v>-2.806136745047652</v>
       </c>
       <c r="G139">
-        <v>-0.02089171672557866</v>
+        <v>0.01592162758853211</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.845633837739789</v>
+        <v>-2.810630604655531</v>
       </c>
       <c r="G140">
-        <v>-0.02033192697016295</v>
+        <v>0.01467130611407041</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.848317586117787</v>
+        <v>-2.814186408556572</v>
       </c>
       <c r="G141">
-        <v>-0.01977213721474458</v>
+        <v>0.01435904034644642</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.85100133449579</v>
+        <v>-2.812838253086499</v>
       </c>
       <c r="G142">
-        <v>-0.01921234745932998</v>
+        <v>0.0189507339499364</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.853946086878641</v>
+        <v>-2.818664279862602</v>
       </c>
       <c r="G143">
-        <v>-0.01865255770391383</v>
+        <v>0.01636824530725134</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.856629835256643</v>
+        <v>-2.82814733031694</v>
       </c>
       <c r="G144">
-        <v>-0.01835377195334775</v>
+        <v>0.01012873298633044</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.859867026721029</v>
+        <v>-2.828671257488129</v>
       </c>
       <c r="G145">
-        <v>-0.0183474252843161</v>
+        <v>0.01284834394855938</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.861997332012646</v>
+        <v>-2.832010996954659</v>
       </c>
       <c r="G146">
-        <v>-0.01723419244251589</v>
+        <v>0.01275214261544599</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.864681080390647</v>
+        <v>-2.834312209085013</v>
       </c>
       <c r="G147">
-        <v>-0.0166744026870993</v>
+        <v>0.01369446861850965</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.867641550311842</v>
+        <v>-2.834363970745732</v>
       </c>
       <c r="G148">
-        <v>-0.01583789138849245</v>
+        <v>0.01688624509120817</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.870586302694695</v>
+        <v>-2.838569447603023</v>
       </c>
       <c r="G149">
-        <v>-0.01609254872431243</v>
+        <v>0.01592430636733444</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.872977611991161</v>
+        <v>-2.848444409041211</v>
       </c>
       <c r="G150">
-        <v>-0.0152403198873603</v>
+        <v>0.009292883062563373</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.875645642830819</v>
+        <v>-2.850431888767611</v>
       </c>
       <c r="G151">
-        <v>-0.01466481259360153</v>
+        <v>0.01054894146958141</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.879175273376742</v>
+        <v>-2.845849818965114</v>
       </c>
       <c r="G152">
-        <v>-0.01438174438137962</v>
+        <v>0.01837454940549499</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.881289861130018</v>
+        <v>-2.854220368875367</v>
       </c>
       <c r="G153">
-        <v>-0.01325279400123591</v>
+        <v>0.01324753762865982</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.88397360950802</v>
+        <v>-2.852131084428184</v>
       </c>
       <c r="G154">
-        <v>-0.01326216487054999</v>
+        <v>0.01858036020926024</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.886934079429214</v>
+        <v>-2.858664343116679</v>
       </c>
       <c r="G155">
-        <v>-0.01267094003844704</v>
+        <v>0.01529063965418209</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.89015555335526</v>
+        <v>-2.863930413599938</v>
       </c>
       <c r="G156">
-        <v>-0.0129570324509547</v>
+        <v>0.01326810730434058</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.893108668173786</v>
+        <v>-2.868197529948683</v>
       </c>
       <c r="G157">
-        <v>-0.01266660913606366</v>
+        <v>0.01224452908901297</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.896646661155382</v>
+        <v>-2.87277869573173</v>
       </c>
       <c r="G158">
-        <v>-0.01296106398424191</v>
+        <v>0.010906901439383</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.898760241575652</v>
+        <v>-2.884510201427517</v>
       </c>
       <c r="G159">
-        <v>-0.01183110627109452</v>
+        <v>0.002418933877013973</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.901444997286663</v>
+        <v>-2.878479191692501</v>
       </c>
       <c r="G160">
-        <v>-0.01097988476714873</v>
+        <v>0.01169348174544749</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.904957902961232</v>
+        <v>-2.878243807535184</v>
       </c>
       <c r="G161">
-        <v>-0.01095046545710576</v>
+        <v>0.01517240403618092</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.907349212257704</v>
+        <v>-2.887389601323334</v>
       </c>
       <c r="G162">
-        <v>-0.010405385907031</v>
+        <v>0.009270148381448129</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.910617838798772</v>
+        <v>-2.884980045295338</v>
       </c>
       <c r="G163">
-        <v>-0.01040639434066537</v>
+        <v>0.01492324254286181</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.914433560656569</v>
+        <v>-2.886886272507334</v>
       </c>
       <c r="G164">
-        <v>-0.01128673468492358</v>
+        <v>0.01626055346428368</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.918246260515347</v>
+        <v>-2.902472116523964</v>
       </c>
       <c r="G165">
-        <v>-0.01013269699775654</v>
+        <v>0.003918247581070955</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.920930008893352</v>
+        <v>-2.906497974140134</v>
       </c>
       <c r="G166">
-        <v>-0.01072795336314991</v>
+        <v>0.003135928098317753</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.923890478814542</v>
+        <v>-2.910953806400558</v>
       </c>
       <c r="G167">
-        <v>-0.0107205993611148</v>
+        <v>0.001923633971310901</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.926551154551537</v>
+        <v>-2.90681425119798</v>
       </c>
       <c r="G168">
-        <v>-0.009299209899433336</v>
+        <v>0.009306727307306417</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.930096502635804</v>
+        <v>-2.91328379638075</v>
       </c>
       <c r="G169">
-        <v>-0.01073198599707159</v>
+        <v>0.006080720257954475</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.932218445491743</v>
+        <v>-2.910266739180897</v>
       </c>
       <c r="G170">
-        <v>-0.009610390719593354</v>
+        <v>0.01234131559122487</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.934587689480208</v>
+        <v>-2.917285274345757</v>
       </c>
       <c r="G171">
-        <v>-0.007865127099694225</v>
+        <v>0.008566318559781627</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.938400389338983</v>
+        <v>-2.923968787595845</v>
       </c>
       <c r="G172">
-        <v>-0.009305258299998398</v>
+        <v>0.005126343443110914</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.941392294336865</v>
+        <v>-2.927227289519045</v>
       </c>
       <c r="G173">
-        <v>-0.007592437089793402</v>
+        <v>0.005111379653327974</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.944345409155394</v>
+        <v>-2.928129481319306</v>
       </c>
       <c r="G174">
-        <v>-0.008763201849574132</v>
+        <v>0.007452725986485165</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.948451555428711</v>
+        <v>-2.930481562499553</v>
       </c>
       <c r="G175">
-        <v>-0.007887900371614576</v>
+        <v>0.008344182939654776</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.952005265948659</v>
+        <v>-2.936715207605243</v>
       </c>
       <c r="G176">
-        <v>-0.009935982376004127</v>
+        <v>0.005354075967382355</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.954096781060914</v>
+        <v>-2.932050418368257</v>
       </c>
       <c r="G177">
-        <v>-0.00762891323403736</v>
+        <v>0.01326240333778594</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.956487083024375</v>
+        <v>-2.942388298666328</v>
       </c>
       <c r="G178">
-        <v>-0.007930723184885968</v>
+        <v>0.006168061173132067</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.960601591733365</v>
+        <v>-2.952585392899139</v>
       </c>
       <c r="G179">
-        <v>-0.007649669638681189</v>
+        <v>-0.0007854949262614541</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.963270629906042</v>
+        <v>-2.950390438315505</v>
       </c>
       <c r="G180">
-        <v>-0.00822719379971748</v>
+        <v>0.004652997790789537</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.966824340425976</v>
+        <v>-2.954639532673953</v>
       </c>
       <c r="G181">
-        <v>-0.00853736618623413</v>
+        <v>0.003647441565758802</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.969498719035301</v>
+        <v>-2.953180475676846</v>
       </c>
       <c r="G182">
-        <v>-0.007968206662141597</v>
+        <v>0.008350036696283647</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.973028349581223</v>
+        <v>-2.960261183093913</v>
       </c>
       <c r="G183">
-        <v>-0.007961859993112941</v>
+        <v>0.004512867412633348</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.975704742856556</v>
+        <v>-2.963113779859807</v>
       </c>
       <c r="G184">
-        <v>-0.00711063848917215</v>
+        <v>0.004903808780156615</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.978965006961961</v>
+        <v>-2.971577824114103</v>
       </c>
       <c r="G185">
-        <v>-0.007703880188549173</v>
+        <v>-0.0003166973407214835</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.982210560862014</v>
+        <v>-2.971247541788536</v>
       </c>
       <c r="G186">
-        <v>-0.007705895955184228</v>
+        <v>0.00325712311826265</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.986624863755215</v>
+        <v>-2.978508995404237</v>
       </c>
       <c r="G187">
-        <v>-0.008876660714967954</v>
+        <v>-0.0007607923640213787</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.98871637886748</v>
+        <v>-2.97883267436131</v>
       </c>
       <c r="G188">
-        <v>-0.007724637693815817</v>
+        <v>0.00215906681232414</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.992253364516069</v>
+        <v>-2.987647018174012</v>
       </c>
       <c r="G189">
-        <v>-0.00686404642119276</v>
+        <v>-0.003411738866960667</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.995213834437269</v>
+        <v>-2.981793606613974</v>
       </c>
       <c r="G190">
-        <v>-0.007735016996769262</v>
+        <v>0.005685210826494314</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.999051621603071</v>
+        <v>-2.985212627781481</v>
       </c>
       <c r="G191">
-        <v>-0.00687543305715077</v>
+        <v>0.005509727792404107</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.001736377314077</v>
+        <v>-2.993618320195693</v>
       </c>
       <c r="G192">
-        <v>-0.006892159029130374</v>
+        <v>0.0003475735116098</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.005265000526997</v>
+        <v>-2.995720556013901</v>
       </c>
       <c r="G193">
-        <v>-0.008055568686245462</v>
+        <v>0.001488875826819114</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.007949756238006</v>
+        <v>-3.001979166379063</v>
       </c>
       <c r="G194">
-        <v>-0.007212709617976154</v>
+        <v>-0.001526196404925961</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.011387071749779</v>
+        <v>-3.006729134171133</v>
       </c>
       <c r="G195">
-        <v>-0.00750615713314845</v>
+        <v>-0.003032626063578236</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.014454566910458</v>
+        <v>-3.010251862013722</v>
       </c>
       <c r="G196">
-        <v>-0.00751452066945435</v>
+        <v>-0.003311815772749638</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.018284998973594</v>
+        <v>-3.011308742636287</v>
       </c>
       <c r="G197">
-        <v>-0.008101414599171797</v>
+        <v>-0.001125158261897408</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.020667945834381</v>
+        <v>-3.017203392156566</v>
       </c>
       <c r="G198">
-        <v>-0.007240823326542078</v>
+        <v>-0.003776269648758712</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.024505733000187</v>
+        <v>-3.020698460944314</v>
       </c>
       <c r="G199">
-        <v>-0.007835072358930717</v>
+        <v>-0.004027800303089912</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.026881324758306</v>
+        <v>-3.019852253504006</v>
       </c>
       <c r="G200">
-        <v>-0.006967125983632361</v>
+        <v>6.194527063502209e-05</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.031011551005648</v>
+        <v>-3.026324645415663</v>
       </c>
       <c r="G201">
-        <v>-0.007561375016020555</v>
+        <v>-0.003166908507603816</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.033981390695527</v>
+        <v>-3.02960853709575</v>
       </c>
       <c r="G202">
-        <v>-0.007580115654017727</v>
+        <v>-0.003207262054273408</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.03751736901111</v>
+        <v>-3.030842759652468</v>
       </c>
       <c r="G203">
-        <v>-0.007872555836183182</v>
+        <v>-0.001197946477574319</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.040477838932302</v>
+        <v>-3.035313411793155</v>
       </c>
       <c r="G204">
-        <v>-0.007589487623958557</v>
+        <v>-0.00242506048484431</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.044023187016569</v>
+        <v>-3.03781376099512</v>
       </c>
       <c r="G205">
-        <v>-0.007891297574807221</v>
+        <v>-0.001681871553391723</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.047276096019301</v>
+        <v>-3.044212013995512</v>
       </c>
       <c r="G206">
-        <v>-0.007900668444122572</v>
+        <v>-0.004836586420366606</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.050821444103567</v>
+        <v>-3.0451031214787</v>
       </c>
       <c r="G207">
-        <v>-0.008202478394970764</v>
+        <v>-0.002484155770137275</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.053381442370735</v>
+        <v>-3.049341380298529</v>
       </c>
       <c r="G208">
-        <v>-0.00751893852872057</v>
+        <v>-0.003478876456548236</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.055941440637901</v>
+        <v>-3.050316892779522</v>
       </c>
       <c r="G209">
-        <v>-0.006835398662469905</v>
+        <v>-0.001210850804124614</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.058501438905068</v>
+        <v>-3.055144917799741</v>
       </c>
       <c r="G210">
-        <v>-0.006151858796219711</v>
+        <v>-0.002795337690926464</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.061061437172235</v>
+        <v>-3.059090737538037</v>
       </c>
       <c r="G211">
-        <v>-0.005468318929969074</v>
+        <v>-0.003497619295805027</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5271,7 +5271,7 @@
         <v>-3.063621435439402</v>
       </c>
       <c r="G212">
-        <v>-0.004784779063718575</v>
+        <v>-0.004784779063752589</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5294,7 +5294,7 @@
         <v>-3.066181433706569</v>
       </c>
       <c r="G213">
-        <v>-0.004101239197467924</v>
+        <v>-0.004101239197502285</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>-3.068741431973736</v>
       </c>
       <c r="G214">
-        <v>-0.003417699331217272</v>
+        <v>-0.003417699331251536</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>-3.071301430240903</v>
       </c>
       <c r="G215">
-        <v>-0.002734159464967065</v>
+        <v>-0.002734159465001676</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>-3.07386142850807</v>
       </c>
       <c r="G216">
-        <v>-0.002050619598715976</v>
+        <v>-0.00205061959875092</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-3.076421426775237</v>
       </c>
       <c r="G217">
-        <v>-0.001367079732465769</v>
+        <v>-0.001367079732500616</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-3.078981425042404</v>
       </c>
       <c r="G218">
-        <v>-0.0006835398662155649</v>
+        <v>-0.000683539866250308</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-3.081541423309571</v>
       </c>
       <c r="G219">
-        <v>3.508304757815495e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-2.682032099547423</v>
       </c>
       <c r="G220">
-        <v>2.664535259100376e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.725548439237798</v>
+        <v>-2.719698205661214</v>
       </c>
       <c r="G221">
-        <v>0.00513218154667161</v>
+        <v>0.009998772403746248</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.777588953401989</v>
+        <v>-2.760329699033881</v>
       </c>
       <c r="G222">
-        <v>0.002465664855272998</v>
+        <v>0.01862098683253643</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.83228930169212</v>
+        <v>-2.807515571726782</v>
       </c>
       <c r="G223">
-        <v>-0.003688194667223144</v>
+        <v>0.02068882194109101</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.891833569672448</v>
+        <v>-2.854337147036142</v>
       </c>
       <c r="G224">
-        <v>-0.014375468203081</v>
+        <v>0.02312095443318696</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.949557607328394</v>
+        <v>-2.906305954972412</v>
       </c>
       <c r="G225">
-        <v>-0.02284579805756182</v>
+        <v>0.0204058542983736</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.991330390604367</v>
+        <v>-2.962685233158369</v>
       </c>
       <c r="G226">
-        <v>-0.0153648735320695</v>
+        <v>0.01328028391387326</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.035187822446653</v>
+        <v>-3.010804406997591</v>
       </c>
       <c r="G227">
-        <v>-0.009887784264833055</v>
+        <v>0.01441481787610777</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.080753755231561</v>
+        <v>-3.066698790982929</v>
       </c>
       <c r="G228">
-        <v>-0.006280822556333887</v>
+        <v>0.0077741416922259</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.128320260900329</v>
+        <v>-3.119688865602911</v>
       </c>
       <c r="G229">
-        <v>-0.004510378895981104</v>
+        <v>0.004037774873699385</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.172980348278067</v>
       </c>
       <c r="G230">
-        <v>9.059419880941277e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-2.731184247133912</v>
       </c>
       <c r="G231">
-        <v>4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.773422144751465</v>
+        <v>-2.768950122385325</v>
       </c>
       <c r="G232">
-        <v>0.00814551919973594</v>
+        <v>0.01213956698753416</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.823530195812279</v>
+        <v>-2.810971904083881</v>
       </c>
       <c r="G233">
-        <v>0.007464935799508243</v>
+        <v>0.02002322752792507</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.878822888907509</v>
+        <v>-2.856924978688336</v>
       </c>
       <c r="G234">
-        <v>0.002077684943213809</v>
+        <v>0.02397559516241676</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.936195317823307</v>
+        <v>-2.905156610563417</v>
       </c>
       <c r="G235">
-        <v>-0.005389301733647933</v>
+        <v>0.0256494055262837</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.99679684804026</v>
+        <v>-2.95460607426706</v>
       </c>
       <c r="G236">
-        <v>-0.01588438568495487</v>
+        <v>0.02610538406158769</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.048050021485184</v>
+        <v>-3.006711354691406</v>
       </c>
       <c r="G237">
-        <v>-0.0174331209176537</v>
+        <v>0.02390554587618854</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.091874418207377</v>
+        <v>-3.059972943162378</v>
       </c>
       <c r="G238">
-        <v>-0.01082199000079109</v>
+        <v>0.02054939964416347</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.137023615438747</v>
+        <v>-3.119834884718832</v>
       </c>
       <c r="G239">
-        <v>-0.006488690322533519</v>
+        <v>0.01059290032665572</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.183887485698743</v>
+        <v>-3.175007334346794</v>
       </c>
       <c r="G240">
-        <v>-0.00355425841440643</v>
+        <v>0.005325892937641352</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.231129838134792</v>
       </c>
       <c r="G241">
-        <v>-1.101341240428155e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-2.765153093550538</v>
       </c>
       <c r="G242">
-        <v>2.069455717901292e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.80664644741101</v>
+        <v>-2.803510819219118</v>
       </c>
       <c r="G243">
-        <v>0.009089023174313926</v>
+        <v>0.0120941191585846</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.854575983575101</v>
+        <v>-2.84480059900814</v>
       </c>
       <c r="G244">
-        <v>0.01155025442231894</v>
+        <v>0.02125618419672692</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.907408781300781</v>
+        <v>-2.890625658442234</v>
       </c>
       <c r="G245">
-        <v>0.009099846731420058</v>
+        <v>0.0258829695897973</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.965858844409824</v>
+        <v>-2.939664965044626</v>
       </c>
       <c r="G246">
-        <v>0.001650018067215653</v>
+        <v>0.02784389743225502</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.025421772671993</v>
+        <v>-2.988084712490358</v>
       </c>
       <c r="G247">
-        <v>-0.007155186280003001</v>
+        <v>0.02987599481368752</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.087657702307174</v>
+        <v>-3.041237637606716</v>
       </c>
       <c r="G248">
-        <v>-0.01921452946622115</v>
+        <v>0.02717491452449394</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.131243008352955</v>
+        <v>-3.098334447624933</v>
       </c>
       <c r="G249">
-        <v>-0.01149297054929721</v>
+        <v>0.02107833895112754</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.177401040399403</v>
+        <v>-3.153949897507927</v>
       </c>
       <c r="G250">
-        <v>-0.007472977553277582</v>
+        <v>0.01591473389529829</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.223803309938906</v>
+        <v>-3.213523937491627</v>
       </c>
       <c r="G251">
-        <v>-0.0034868337084204</v>
+        <v>0.006792538738761733</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.27131671067524</v>
       </c>
       <c r="G252">
-        <v>8.393286066166183e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-2.790016782244128</v>
       </c>
       <c r="G253">
-        <v>2.264854970235319e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.830732328541576</v>
+        <v>-2.82684800937501</v>
       </c>
       <c r="G254">
-        <v>0.01062409336159087</v>
+        <v>0.01405980186843525</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.878868022603887</v>
+        <v>-2.868925773181851</v>
       </c>
       <c r="G255">
-        <v>0.01466838521152303</v>
+        <v>0.02323399634459555</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.929828528924229</v>
+        <v>-2.914466671215299</v>
       </c>
       <c r="G256">
-        <v>0.01340699731671924</v>
+        <v>0.02858412731046478</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.986284488992089</v>
+        <v>-2.961462330767585</v>
       </c>
       <c r="G257">
-        <v>0.009298919387223492</v>
+        <v>0.03284042604117943</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.044987554444726</v>
+        <v>-3.012063833063376</v>
       </c>
       <c r="G258">
-        <v>0.001218310655403121</v>
+        <v>0.0331299527447062</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.107895999645247</v>
+        <v>-3.064759713899436</v>
       </c>
       <c r="G259">
-        <v>-0.01108019647234615</v>
+        <v>0.03168603019164751</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.160620772186426</v>
+        <v>-3.121324541359494</v>
       </c>
       <c r="G260">
-        <v>-0.01328399909633016</v>
+        <v>0.02601223173090694</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.205622587151724</v>
+        <v>-3.179927677301158</v>
       </c>
       <c r="G261">
-        <v>-0.007033855778703302</v>
+        <v>0.01866105407224383</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.253006261778443</v>
+        <v>-3.240318678759711</v>
       </c>
       <c r="G262">
-        <v>-0.003526501406180937</v>
+        <v>0.009161081613008493</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.300731718655721</v>
       </c>
       <c r="G263">
-        <v>-5.333511410299252e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-2.808996931078332</v>
       </c>
       <c r="G264">
-        <v>-1.940669847044774e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.849052051588913</v>
+        <v>-2.846236603917134</v>
       </c>
       <c r="G265">
-        <v>0.0111888270301117</v>
+        <v>0.01400427470218801</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.896046239415437</v>
+        <v>-2.887829106351392</v>
       </c>
       <c r="G266">
-        <v>0.01631065435484391</v>
+        <v>0.02390569028472944</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.946307158397514</v>
+        <v>-2.932423866121419</v>
       </c>
       <c r="G267">
-        <v>0.01738412486434782</v>
+        <v>0.03080484853150156</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.001447508919053</v>
+        <v>-2.980347920253622</v>
       </c>
       <c r="G268">
-        <v>0.0134155299566896</v>
+        <v>0.03412474194028792</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.059301390227813</v>
+        <v>-3.030578656740448</v>
       </c>
       <c r="G269">
-        <v>0.00666518998218657</v>
+        <v>0.03538792347026121</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.121805521902617</v>
+        <v>-3.084562782911542</v>
       </c>
       <c r="G270">
-        <v>-0.004345023675921489</v>
+        <v>0.03289771531596686</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.184089417613621</v>
+        <v>-3.14102257478727</v>
       </c>
       <c r="G271">
-        <v>-0.01538497184603893</v>
+        <v>0.02768187098122832</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.227227942776993</v>
+        <v>-3.198602549350076</v>
       </c>
       <c r="G272">
-        <v>-0.006926602615290101</v>
+        <v>0.02159581443522185</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.275620077240575</v>
+        <v>-3.261246591244676</v>
       </c>
       <c r="G273">
-        <v>-0.003927795439601534</v>
+        <v>0.01044569055742101</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.323186199818896</v>
       </c>
       <c r="G274">
-        <v>-1.226574397605873e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-2.823957869084533</v>
       </c>
       <c r="G275">
-        <v>-2.726707748479384e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.863800171269826</v>
+        <v>-2.860622511066935</v>
       </c>
       <c r="G276">
-        <v>0.01224201487750598</v>
+        <v>0.01486598680835316</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.90982958220005</v>
+        <v>-2.901860659111412</v>
       </c>
       <c r="G277">
-        <v>0.01736972148928739</v>
+        <v>0.02533864457837431</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.959364687111813</v>
+        <v>-2.945849716386802</v>
       </c>
       <c r="G278">
-        <v>0.02015500997413788</v>
+        <v>0.03306039311748377</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.01319167661578</v>
+        <v>-2.993102630352377</v>
       </c>
       <c r="G279">
-        <v>0.01742923870237822</v>
+        <v>0.0375182849664073</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.070936573930026</v>
+        <v>-3.044352537231005</v>
       </c>
       <c r="G280">
-        <v>0.01160541407576954</v>
+        <v>0.03797918390227872</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.133416649030234</v>
+        <v>-3.097289098275375</v>
       </c>
       <c r="G281">
-        <v>0.0006258779167440665</v>
+        <v>0.03675342867240716</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.198813661330406</v>
+        <v>-3.154165406871667</v>
       </c>
       <c r="G282">
-        <v>-0.01306032856901751</v>
+        <v>0.03158792589061377</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.244626311283956</v>
+        <v>-3.21471976777123</v>
       </c>
       <c r="G283">
-        <v>-0.006979757197705716</v>
+        <v>0.02274437080555003</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.293071521133396</v>
+        <v>-3.277063915733674</v>
       </c>
       <c r="G284">
-        <v>-0.003816496947957326</v>
+        <v>0.01211102865760549</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.340885750205778</v>
       </c>
       <c r="G285">
-        <v>-1.158184659288963e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-2.836052457867516</v>
       </c>
       <c r="G286">
-        <v>-1.217692613408872e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.875420690252443</v>
+        <v>-2.872766984290804</v>
       </c>
       <c r="G287">
-        <v>0.01276398312885085</v>
+        <v>0.01518624310965766</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.920330552633785</v>
+        <v>-2.913787726560386</v>
       </c>
       <c r="G288">
-        <v>0.01952344429875241</v>
+        <v>0.02606627037302189</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.969628336322544</v>
+        <v>-2.957260287783923</v>
       </c>
       <c r="G289">
-        <v>0.02212643014311322</v>
+        <v>0.03449447868243061</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.022717461450056</v>
+        <v>-3.004263928342922</v>
       </c>
       <c r="G290">
-        <v>0.02118080525577692</v>
+        <v>0.03939160765637717</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.080087204037723</v>
+        <v>-3.054548953903725</v>
       </c>
       <c r="G291">
-        <v>0.01546910149417458</v>
+        <v>0.04100735162852009</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.142114357659095</v>
+        <v>-3.109328560718115</v>
       </c>
       <c r="G292">
-        <v>0.005342717405921737</v>
+        <v>0.03812851434707665</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.207336727705967</v>
+        <v>-3.166298280016671</v>
       </c>
       <c r="G293">
-        <v>-0.007944946567792321</v>
+        <v>0.03305956458146675</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.258946951360472</v>
+        <v>-3.226787172103482</v>
       </c>
       <c r="G294">
-        <v>-0.007688337229215803</v>
+        <v>0.02447144202760199</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.306445893813081</v>
+        <v>-3.290294384138102</v>
       </c>
       <c r="G295">
-        <v>-0.003286510148705069</v>
+        <v>0.01286499952592696</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.355194263712564</v>
       </c>
       <c r="G296">
-        <v>5.209166431541234e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7226,7 +7226,7 @@
         <v>-2.846031576080589</v>
       </c>
       <c r="G297">
-        <v>9.983125437429408e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.885138260640858</v>
+        <v>-2.882535051424244</v>
       </c>
       <c r="G298">
-        <v>0.01295941693228331</v>
+        <v>0.01556262614777415</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.92924423670246</v>
+        <v>-2.922932045067601</v>
       </c>
       <c r="G299">
-        <v>0.02110323284963922</v>
+        <v>0.02723173399584677</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.977378949358905</v>
+        <v>-2.966047145370345</v>
       </c>
       <c r="G300">
-        <v>0.02485093119734394</v>
+        <v>0.03618273518453208</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.030415945423658</v>
+        <v>-3.013132279574149</v>
       </c>
       <c r="G301">
-        <v>0.02428594014859509</v>
+        <v>0.04126619479792804</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.08712500759803</v>
+        <v>-3.064299396655478</v>
       </c>
       <c r="G302">
-        <v>0.01933956826709715</v>
+        <v>0.04216517920802842</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.148969310035863</v>
+        <v>-3.118252238448739</v>
       </c>
       <c r="G303">
-        <v>0.009739250755670614</v>
+        <v>0.04027843890619609</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.21436928381771</v>
+        <v>-3.176415381976197</v>
       </c>
       <c r="G304">
-        <v>-0.003427672123040515</v>
+        <v>0.03428388919593883</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.271229309918898</v>
+        <v>-3.236711688072329</v>
       </c>
       <c r="G305">
-        <v>-0.008463937253337939</v>
+        <v>0.02605368459123625</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.3176013510403</v>
+        <v>-3.301253890999666</v>
       </c>
       <c r="G306">
-        <v>-0.002769876883186473</v>
+        <v>0.01357758315532842</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>-3.367000067972194</v>
       </c>
       <c r="G307">
-        <v>2.243982777372366e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7479,7 +7479,7 @@
         <v>-2.854405124421669</v>
       </c>
       <c r="G308">
-        <v>2.573496971081113e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.893163398291431</v>
+        <v>-2.890705188397714</v>
       </c>
       <c r="G309">
-        <v>0.01345181542211193</v>
+        <v>0.01591002531321983</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.936787194446639</v>
+        <v>-2.931038703219139</v>
       </c>
       <c r="G310">
-        <v>0.02269966939461554</v>
+        <v>0.02786667660512387</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.984829641673648</v>
+        <v>-2.974149124681266</v>
       </c>
       <c r="G311">
-        <v>0.02628582744256058</v>
+        <v>0.0369663444322621</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.036798991867277</v>
+        <v>-3.021206499616195</v>
       </c>
       <c r="G312">
-        <v>0.02660664336229557</v>
+        <v>0.04219913561066213</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.093836838986158</v>
+        <v>-3.071819743131951</v>
       </c>
       <c r="G313">
-        <v>0.02177888553271545</v>
+        <v>0.04379598138417129</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.154489598837623</v>
+        <v>-3.126019416103277</v>
       </c>
       <c r="G314">
-        <v>0.01341629179461523</v>
+        <v>0.04188647452617444</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.219793150097201</v>
+        <v>-3.183592823972978</v>
       </c>
       <c r="G315">
-        <v>0.0003228298243381778</v>
+        <v>0.03652315594573829</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.282100914162134</v>
+        <v>-3.245906280393934</v>
       </c>
       <c r="G316">
-        <v>-0.009694768127230802</v>
+        <v>0.02649986563811124</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.327159863052084</v>
+        <v>-3.310173770152712</v>
       </c>
       <c r="G317">
-        <v>-0.002543627727880138</v>
+        <v>0.01444246516859898</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>-3.376906401434639</v>
       </c>
       <c r="G318">
-        <v>2.929212428171013e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.523973204621855</v>
+        <v>-2.524611386440037</v>
       </c>
       <c r="G22">
         <v>-0.008515422818688556</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.546946753117955</v>
+        <v>-2.55049109256136</v>
       </c>
       <c r="G25">
         <v>-0.006864875559628114</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.553133631502497</v>
+        <v>-2.558297654863989</v>
       </c>
       <c r="G26">
         <v>-0.004843722025783315</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.582052813268922</v>
+        <v>-2.582547566996452</v>
       </c>
       <c r="G29">
         <v>-0.009138808037048696</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.584551924119406</v>
+        <v>-2.589093015607622</v>
       </c>
       <c r="G30">
         <v>-0.003429886969145812</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.607140799410634</v>
+        <v>-2.609270487001157</v>
       </c>
       <c r="G32">
         <v>-0.009602698423600398</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.617191258431155</v>
+        <v>-2.618148380874948</v>
       </c>
       <c r="G33">
         <v>-0.0114451255257344</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.619905511417622</v>
+        <v>-2.625651252496874</v>
       </c>
       <c r="G34">
         <v>-0.005951346593815021</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.629043016335574</v>
+        <v>-2.640637469395271</v>
       </c>
       <c r="G35">
         <v>-0.006880819593379606</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.64439978464934</v>
+        <v>-2.648510591865603</v>
       </c>
       <c r="G37">
         <v>-0.005821524070372286</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.647823933499312</v>
+        <v>-2.657680481794828</v>
       </c>
       <c r="G38">
         <v>-0.001037641001958356</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.655702209847265</v>
+        <v>-2.672727156430074</v>
       </c>
       <c r="G39">
         <v>-0.0007078854315245575</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.674574098641156</v>
+        <v>-2.682569314629224</v>
       </c>
       <c r="G41">
         <v>-0.003163710388641716</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.686423747751149</v>
+        <v>-2.695977451036702</v>
       </c>
       <c r="G42">
         <v>-0.006805327580247988</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.703346866045435</v>
+        <v>-2.71356970743806</v>
       </c>
       <c r="G45">
         <v>0.0008956498806258484</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.719075363818606</v>
+        <v>-2.72178833559909</v>
       </c>
       <c r="G46">
         <v>-0.006624815974158205</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.736633233201255</v>
+        <v>-2.739946441680027</v>
       </c>
       <c r="G48">
         <v>-0.007766621520033379</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.737956067753247</v>
+        <v>-2.751665047163252</v>
       </c>
       <c r="G49">
         <v>-0.000881424153639121</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.75381756489704</v>
+        <v>-2.759415145365462</v>
       </c>
       <c r="G50">
         <v>-0.008534889379044786</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.763725723982321</v>
+        <v>-2.765475712643418</v>
       </c>
       <c r="G51">
         <v>-0.01023501654593983</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.779941676925841</v>
+        <v>-2.782539128865509</v>
       </c>
       <c r="G53">
         <v>-0.01003490565268583</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.799818305316853</v>
+        <v>-2.803318282639049</v>
       </c>
       <c r="G56">
         <v>-0.005287438288537616</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.811789533013244</v>
+        <v>-2.815102741492012</v>
       </c>
       <c r="G57">
         <v>-0.009050634066542829</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.828913406972179</v>
+        <v>-2.831384547805268</v>
       </c>
       <c r="G59">
         <v>-0.009758444188703974</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.835629273052391</v>
+        <v>-2.837445115083225</v>
       </c>
       <c r="G60">
         <v>-0.00826627835052901</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.85112946945681</v>
+        <v>-2.853600610289893</v>
       </c>
       <c r="G62">
         <v>-0.007350410918174899</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.86044278747669</v>
+        <v>-2.862913928309773</v>
       </c>
       <c r="G63">
         <v>-0.008455697019667974</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.62089959462712</v>
+        <v>-2.620930146604618</v>
       </c>
       <c r="G77">
         <v>5.941373718831855e-05</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.626747645877111</v>
+        <v>-2.627148571470873</v>
       </c>
       <c r="G79">
         <v>0.0006984387540325265</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.629478095851558</v>
+        <v>-2.629536507375112</v>
       </c>
       <c r="G80">
         <v>0.001211526913002636</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.632335013422767</v>
+        <v>-2.632929132043386</v>
       </c>
       <c r="G81">
         <v>0.001598147475211587</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.635357812120434</v>
+        <v>-2.637235543112221</v>
       </c>
       <c r="G82">
         <v>0.001818886910961659</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.63910979129532</v>
+        <v>-2.63998446243666</v>
       </c>
       <c r="G83">
         <v>0.001310445869492582</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.640852410692208</v>
+        <v>-2.643167234658638</v>
       </c>
       <c r="G84">
         <v>0.002811364606022604</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.641777737633605</v>
+        <v>-2.643427863547359</v>
       </c>
       <c r="G85">
         <v>0.00512957579804274</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.646287729991306</v>
+        <v>-2.647548386578871</v>
       </c>
       <c r="G86">
         <v>0.00386312157375901</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.649541522093223</v>
+        <v>-2.652255095094171</v>
       </c>
       <c r="G87">
         <v>0.00385286760525938</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.652792992758141</v>
+        <v>-2.653449526147792</v>
       </c>
       <c r="G88">
         <v>0.003844935073758826</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.656127951321167</v>
+        <v>-2.658292707831549</v>
       </c>
       <c r="G89">
         <v>0.003753514644149636</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.658187599276141</v>
+        <v>-2.659182548352844</v>
       </c>
       <c r="G90">
         <v>0.004937404822593638</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.660256041747391</v>
+        <v>-2.661056806392621</v>
       </c>
       <c r="G91">
         <v>0.006112500484759753</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.664484361727169</v>
+        <v>-2.670025313660953</v>
       </c>
       <c r="G93">
         <v>0.008371256771817492</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.668022110546613</v>
+        <v>-2.673585357016564</v>
       </c>
       <c r="G94">
         <v>0.008077046085790851</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.67099229425434</v>
+        <v>-2.671279884358969</v>
       </c>
       <c r="G95">
         <v>0.008350400511480949</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.676622407405465</v>
+        <v>-2.68072527228771</v>
       </c>
       <c r="G96">
         <v>0.00596382549377239</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.676487951266652</v>
+        <v>-2.676590561455184</v>
       </c>
       <c r="G97">
         <v>0.009341819766003567</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.68000547080295</v>
+        <v>-2.685245458076716</v>
       </c>
       <c r="G98">
         <v>0.009067838363122416</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.682521824512449</v>
+        <v>-2.685497446097063</v>
       </c>
       <c r="G99">
         <v>0.009795022787041585</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.684786614787072</v>
+        <v>-2.690043091456299</v>
       </c>
       <c r="G101">
         <v>0.01401730877925322</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.696674170527394</v>
+        <v>-2.704147392212582</v>
       </c>
       <c r="G104">
         <v>0.01186036743918306</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.698019452730959</v>
+        <v>-2.704300300830859</v>
       </c>
       <c r="G105">
         <v>0.01375862336903522</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.704733663452745</v>
+        <v>-2.707001827741391</v>
       </c>
       <c r="G106">
         <v>0.01028795078066658</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.706572693309145</v>
+        <v>-2.710549444865247</v>
       </c>
       <c r="G107">
         <v>0.0116924590576839</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.707706655631654</v>
+        <v>-2.708170870325347</v>
       </c>
       <c r="G108">
         <v>0.01380203486859233</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.711681922937949</v>
+        <v>-2.712114753927795</v>
       </c>
       <c r="G109">
         <v>0.01307030569571443</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.713568509059745</v>
+        <v>-2.719858526727259</v>
       </c>
       <c r="G110">
         <v>0.01442725770733633</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.723398841195139</v>
+        <v>-2.730877967224368</v>
       </c>
       <c r="G113">
         <v>0.0143275399721936</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.725526494997943</v>
+        <v>-2.728402305071873</v>
       </c>
       <c r="G114">
         <v>0.01544342430280699</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.730550391362689</v>
+        <v>-2.737044380118677</v>
       </c>
       <c r="G115">
         <v>0.01366306607147871</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.734273828708313</v>
+        <v>-2.739506859246664</v>
       </c>
       <c r="G117">
         <v>0.01642670499268939</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.738517883612951</v>
+        <v>-2.74194006359909</v>
       </c>
       <c r="G118">
         <v>0.01542618822146857</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.741721382356133</v>
+        <v>-2.746350982043162</v>
       </c>
       <c r="G119">
         <v>0.01546622761170435</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.743623697155742</v>
+        <v>-2.752433581557943</v>
       </c>
       <c r="G120">
         <v>0.01680745094551206</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.750559610490438</v>
+        <v>-2.752050695393939</v>
       </c>
       <c r="G121">
         <v>0.01311507574423376</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.750840292284556</v>
+        <v>-2.755766187648135</v>
       </c>
       <c r="G122">
         <v>0.01607793208353292</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.755185956293495</v>
+        <v>-2.762573019403205</v>
       </c>
       <c r="G123">
         <v>0.01497580620801187</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.757256605712501</v>
+        <v>-2.757943430337815</v>
       </c>
       <c r="G124">
         <v>0.01614869492242343</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.758474126602534</v>
+        <v>-2.764449614015261</v>
       </c>
       <c r="G125">
         <v>0.01817471216580691</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.760893168373165</v>
+        <v>-2.766010257789603</v>
       </c>
       <c r="G126">
         <v>0.01899920852859349</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.767356997886559</v>
+        <v>-2.769663706610999</v>
       </c>
       <c r="G127">
         <v>0.01577891714861734</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.777185692545256</v>
+        <v>-2.777268732948396</v>
       </c>
       <c r="G130">
         <v>0.0156808368901713</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.787977342354095</v>
+        <v>-2.791486018931316</v>
       </c>
       <c r="G133">
         <v>0.01461980148158526</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.788953002103729</v>
+        <v>-2.79379880084327</v>
       </c>
       <c r="G134">
         <v>0.01688767986536766</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.794406492955838</v>
+        <v>-2.797165908693918</v>
       </c>
       <c r="G135">
         <v>0.01467772714667603</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.795386720034801</v>
+        <v>-2.806854641309848</v>
       </c>
       <c r="G137">
         <v>0.02018457633454829</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.802053678221347</v>
+        <v>-2.808570224160033</v>
       </c>
       <c r="G138">
         <v>0.01676115628141917</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.810630604655531</v>
+        <v>-2.813350566178906</v>
       </c>
       <c r="G140">
         <v>0.01467130611407041</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.814186408556572</v>
+        <v>-2.81568845273739</v>
       </c>
       <c r="G141">
         <v>0.01435904034644642</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.812838253086499</v>
+        <v>-2.819540876583804</v>
       </c>
       <c r="G142">
         <v>0.0189507339499364</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.818664279862602</v>
+        <v>-2.832492824862709</v>
       </c>
       <c r="G143">
         <v>0.01636824530725134</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.82814733031694</v>
+        <v>-2.828292636376784</v>
       </c>
       <c r="G144">
         <v>0.01012873298633044</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.828671257488129</v>
+        <v>-2.830581948560646</v>
       </c>
       <c r="G145">
         <v>0.01284834394855938</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.832010996954659</v>
+        <v>-2.834627884181491</v>
       </c>
       <c r="G146">
         <v>0.01275214261544599</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.834312209085013</v>
+        <v>-2.83932349507746</v>
       </c>
       <c r="G147">
         <v>0.01369446861850965</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.834363970745732</v>
+        <v>-2.844669082919882</v>
       </c>
       <c r="G148">
         <v>0.01688624509120817</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.838569447603023</v>
+        <v>-2.843579764536647</v>
       </c>
       <c r="G149">
         <v>0.01592430636733444</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.848444409041211</v>
+        <v>-2.851509177116984</v>
       </c>
       <c r="G150">
         <v>0.009292883062563373</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.845849818965114</v>
+        <v>-2.85300573123215</v>
       </c>
       <c r="G152">
         <v>0.01837454940549499</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.854220368875367</v>
+        <v>-2.859230508166211</v>
       </c>
       <c r="G153">
         <v>0.01324753762865982</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.852131084428184</v>
+        <v>-2.86066246103451</v>
       </c>
       <c r="G154">
         <v>0.01858036020926024</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.858664343116679</v>
+        <v>-2.869576395199759</v>
       </c>
       <c r="G155">
         <v>0.01529063965418209</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.863930413599938</v>
+        <v>-2.866547328398916</v>
       </c>
       <c r="G156">
         <v>0.01326810730434058</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.87277869573173</v>
+        <v>-2.878166877690748</v>
       </c>
       <c r="G158">
         <v>0.010906901439383</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.878479191692501</v>
+        <v>-2.891934310481422</v>
       </c>
       <c r="G160">
         <v>0.01169348174544749</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.878243807535184</v>
+        <v>-2.883348010813876</v>
       </c>
       <c r="G161">
         <v>0.01517240403618092</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.887389601323334</v>
+        <v>-2.888692740573353</v>
       </c>
       <c r="G162">
         <v>0.009270148381448129</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.884980045295338</v>
+        <v>-2.891245021283554</v>
       </c>
       <c r="G163">
         <v>0.01492324254286181</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.886886272507334</v>
+        <v>-2.896701474919421</v>
       </c>
       <c r="G164">
         <v>0.01626055346428368</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.90681425119798</v>
+        <v>-2.911785845345925</v>
       </c>
       <c r="G168">
         <v>0.009306727307306417</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.910266739180897</v>
+        <v>-2.914191197239846</v>
       </c>
       <c r="G170">
         <v>0.01234131559122487</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.917285274345757</v>
+        <v>-2.920265316534687</v>
       </c>
       <c r="G171">
         <v>0.008566318559781627</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.923968787595845</v>
+        <v>-2.930140000565317</v>
       </c>
       <c r="G172">
         <v>0.005126343443110914</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.927227289519045</v>
+        <v>-2.928230241909753</v>
       </c>
       <c r="G173">
         <v>0.005111379653327974</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.928129481319306</v>
+        <v>-2.930845955620991</v>
       </c>
       <c r="G174">
         <v>0.007452725986485165</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.930481562499553</v>
+        <v>-2.934827934050212</v>
       </c>
       <c r="G175">
         <v>0.008344182939654776</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.932050418368257</v>
+        <v>-2.940194443754498</v>
       </c>
       <c r="G177">
         <v>0.01326240333778594</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.942388298666328</v>
+        <v>-2.949561865168887</v>
       </c>
       <c r="G178">
         <v>0.006168061173132067</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.950390438315505</v>
+        <v>-2.954256991390177</v>
       </c>
       <c r="G180">
         <v>0.004652997790789537</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.953180475676846</v>
+        <v>-2.959242791069283</v>
       </c>
       <c r="G182">
         <v>0.008350036696283647</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.960261183093913</v>
+        <v>-2.961260473420499</v>
       </c>
       <c r="G183">
         <v>0.004512867412633348</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.963113779859807</v>
+        <v>-2.96545796133365</v>
       </c>
       <c r="G184">
         <v>0.004903808780156615</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.971247541788536</v>
+        <v>-2.98099454401042</v>
       </c>
       <c r="G186">
         <v>0.00325712311826265</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.97883267436131</v>
+        <v>-2.983088795766245</v>
       </c>
       <c r="G188">
         <v>0.00215906681232414</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.981793606613974</v>
+        <v>-2.988025005545609</v>
       </c>
       <c r="G190">
         <v>0.005685210826494314</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.985212627781481</v>
+        <v>-2.991751044489692</v>
       </c>
       <c r="G191">
         <v>0.005509727792404107</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.993618320195693</v>
+        <v>-2.996529569819046</v>
       </c>
       <c r="G192">
         <v>0.0003475735116098</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.995720556013901</v>
+        <v>-2.999123982701902</v>
       </c>
       <c r="G193">
         <v>0.001488875826819114</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.010251862013722</v>
+        <v>-3.011184465468956</v>
       </c>
       <c r="G196">
         <v>-0.003311815772749638</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.011308742636287</v>
+        <v>-3.014220301993696</v>
       </c>
       <c r="G197">
         <v>-0.001125158261897408</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.017203392156566</v>
+        <v>-3.018004335464621</v>
       </c>
       <c r="G198">
         <v>-0.003776269648758712</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.020698460944314</v>
+        <v>-3.020742392471172</v>
       </c>
       <c r="G199">
         <v>-0.004027800303089912</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.019852253504006</v>
+        <v>-3.025679909796228</v>
       </c>
       <c r="G200">
         <v>6.194527063502209e-05</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.026324645415663</v>
+        <v>-3.02765603723333</v>
       </c>
       <c r="G201">
         <v>-0.003166908507603816</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.030842759652468</v>
+        <v>-3.034161855238789</v>
       </c>
       <c r="G203">
         <v>-0.001197946477574319</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.035313411793155</v>
+        <v>-3.036730215941631</v>
       </c>
       <c r="G204">
         <v>-0.00242506048484431</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.03781376099512</v>
+        <v>-3.039983124944364</v>
       </c>
       <c r="G205">
         <v>-0.001681871553391723</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.0451031214787</v>
+        <v>-3.048157833733804</v>
       </c>
       <c r="G207">
         <v>-0.002484155770137275</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.049341380298529</v>
+        <v>-3.051010271082509</v>
       </c>
       <c r="G208">
         <v>-0.003478876456548236</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.050316892779522</v>
+        <v>-3.053570269349673</v>
       </c>
       <c r="G209">
         <v>-0.001210850804124614</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.055144917799741</v>
+        <v>-3.05751608908797</v>
       </c>
       <c r="G210">
         <v>-0.002795337690926464</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.719698205661214</v>
+        <v>-2.720796491166358</v>
       </c>
       <c r="G221">
         <v>0.009998772403746248</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.760329699033881</v>
+        <v>-2.763225508945231</v>
       </c>
       <c r="G222">
         <v>0.01862098683253643</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.807515571726782</v>
+        <v>-2.810343009836612</v>
       </c>
       <c r="G223">
         <v>0.02068882194109101</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.854337147036142</v>
+        <v>-2.85870379519534</v>
       </c>
       <c r="G224">
         <v>0.02312095443318696</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.906305954972412</v>
+        <v>-2.906834719134913</v>
       </c>
       <c r="G225">
         <v>0.0204058542983736</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.010804406997591</v>
+        <v>-3.012911165936704</v>
       </c>
       <c r="G227">
         <v>0.01441481787610777</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.066698790982929</v>
+        <v>-3.068582391181245</v>
       </c>
       <c r="G228">
         <v>0.0077741416922259</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.119688865602911</v>
+        <v>-3.123418607559792</v>
       </c>
       <c r="G229">
         <v>0.004037774873699385</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.768950122385325</v>
+        <v>-2.769979150741943</v>
       </c>
       <c r="G232">
         <v>0.01213956698753416</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.810971904083881</v>
+        <v>-2.812827677510207</v>
       </c>
       <c r="G233">
         <v>0.02002322752792507</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.856924978688336</v>
+        <v>-2.85724372916212</v>
       </c>
       <c r="G234">
         <v>0.02397559516241676</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.905156610563417</v>
+        <v>-2.906023698339957</v>
       </c>
       <c r="G235">
         <v>0.0256494055262837</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.95460607426706</v>
+        <v>-2.956760117131288</v>
       </c>
       <c r="G236">
         <v>0.02610538406158769</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.006711354691406</v>
+        <v>-3.009770347481976</v>
       </c>
       <c r="G237">
         <v>0.02390554587618854</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.059972943162378</v>
+        <v>-3.063537872731218</v>
       </c>
       <c r="G238">
         <v>0.02054939964416347</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.175007334346794</v>
+        <v>-3.175510220220397</v>
       </c>
       <c r="G240">
         <v>0.005325892937641352</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.988084712490358</v>
+        <v>-2.988250526469702</v>
       </c>
       <c r="G247">
         <v>0.02987599481368752</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.041237637606716</v>
+        <v>-3.042984478724515</v>
       </c>
       <c r="G248">
         <v>0.02717491452449394</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.153949897507927</v>
+        <v>-3.154825874522661</v>
       </c>
       <c r="G250">
         <v>0.01591473389529829</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.82684800937501</v>
+        <v>-2.827415573424024</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.868925773181851</v>
+        <v>-2.870350362601905</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.961462330767585</v>
+        <v>-2.96272504117923</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.012063833063376</v>
+        <v>-3.013327318179711</v>
       </c>
       <c r="G258">
         <v>0.0331299527447062</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.064759713899436</v>
+        <v>-3.067899327132757</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.121324541359494</v>
+        <v>-3.121639753610492</v>
       </c>
       <c r="G260">
         <v>0.02601223173090694</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.179927677301158</v>
+        <v>-3.180050129483954</v>
       </c>
       <c r="G261">
         <v>0.01866105407224383</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.240318678759711</v>
+        <v>-3.241503083224273</v>
       </c>
       <c r="G262">
         <v>0.009161081613008493</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.887829106351392</v>
+        <v>-2.888526868890934</v>
       </c>
       <c r="G266">
         <v>0.02390569028472944</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.932423866121419</v>
+        <v>-2.93495414560358</v>
       </c>
       <c r="G267">
         <v>0.03080484853150156</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.084562782911542</v>
+        <v>-3.084910783491772</v>
       </c>
       <c r="G270">
         <v>0.03289771531596686</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.198602549350076</v>
+        <v>-3.200185386064497</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.261246591244676</v>
+        <v>-3.261370161824123</v>
       </c>
       <c r="G273">
         <v>0.01044569055742101</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.860622511066935</v>
+        <v>-2.861144482920072</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.901860659111412</v>
+        <v>-2.902179446172188</v>
       </c>
       <c r="G277">
         <v>0.02533864457837431</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.945849716386802</v>
+        <v>-2.94633200324879</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.993102630352377</v>
+        <v>-2.993855049982201</v>
       </c>
       <c r="G279">
         <v>0.0375182849664073</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.044352537231005</v>
+        <v>-3.044578739208202</v>
       </c>
       <c r="G280">
         <v>0.03797918390227872</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.097289098275375</v>
+        <v>-3.098478513987751</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.154165406871667</v>
+        <v>-3.155021931553982</v>
       </c>
       <c r="G282">
         <v>0.03158792589061377</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.277063915733674</v>
+        <v>-3.277847880413144</v>
       </c>
       <c r="G284">
         <v>0.01211102865760549</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.872766984290804</v>
+        <v>-2.873038267542831</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.957260287783923</v>
+        <v>-2.957702650235157</v>
       </c>
       <c r="G289">
         <v>0.03449447868243061</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.004263928342922</v>
+        <v>-3.00442209218896</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.054548953903725</v>
+        <v>-3.055435599270832</v>
       </c>
       <c r="G291">
         <v>0.04100735162852009</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.226787172103482</v>
+        <v>-3.226942353188901</v>
       </c>
       <c r="G294">
         <v>0.02447144202760199</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.290294384138102</v>
+        <v>-3.290460362270951</v>
       </c>
       <c r="G295">
         <v>0.01286499952592696</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.882535051424244</v>
+        <v>-2.883163519582719</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.966047145370345</v>
+        <v>-2.966695224065848</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.013132279574149</v>
+        <v>-3.013763333028708</v>
       </c>
       <c r="G301">
         <v>0.04126619479792804</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.064299396655478</v>
+        <v>-3.064351627837147</v>
       </c>
       <c r="G302">
         <v>0.04216517920802842</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.236711688072329</v>
+        <v>-3.236903764455527</v>
       </c>
       <c r="G305">
         <v>0.02605368459123625</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.890705188397714</v>
+        <v>-2.89082433460043</v>
       </c>
       <c r="G309">
         <v>0.01591002531321983</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.974149124681266</v>
+        <v>-2.974342564497982</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.021206499616195</v>
+        <v>-3.02180798410729</v>
       </c>
       <c r="G312">
         <v>0.04219913561066213</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.071819743131951</v>
+        <v>-3.072181101412319</v>
       </c>
       <c r="G313">
         <v>0.04379598138417129</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.126019416103277</v>
+        <v>-3.126159950854904</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.183592823972978</v>
+        <v>-3.184193723770967</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.310173770152712</v>
+        <v>-3.310286526856398</v>
       </c>
       <c r="G317">
         <v>0.01444246516859898</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.540744624788505</v>
+        <v>-2.54514228818607</v>
       </c>
       <c r="G24">
         <v>-0.008870779148564711</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.55049109256136</v>
+        <v>-2.556236833640616</v>
       </c>
       <c r="G25">
         <v>-0.006864875559628114</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.558297654863989</v>
+        <v>-2.567459557240904</v>
       </c>
       <c r="G26">
         <v>-0.004843722025783315</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.564356355102785</v>
+        <v>-2.578682280841194</v>
       </c>
       <c r="G27">
         <v>-0.007858413707685363</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.571453021541903</v>
+        <v>-2.590543186259664</v>
       </c>
       <c r="G28">
         <v>-0.006747048228415986</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.582547566996452</v>
+        <v>-2.603042273496315</v>
       </c>
       <c r="G29">
         <v>-0.009138808037048696</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.589093015607622</v>
+        <v>-2.609229151880858</v>
       </c>
       <c r="G30">
         <v>-0.003429886969145812</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.60152038879895</v>
+        <v>-2.616197640174233</v>
       </c>
       <c r="G31">
         <v>-0.01219031973030305</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.609270487001157</v>
+        <v>-2.623166128467609</v>
       </c>
       <c r="G32">
         <v>-0.009602698423600398</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.618148380874948</v>
+        <v>-2.630916226669819</v>
       </c>
       <c r="G33">
         <v>-0.0114451255257344</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.625651252496874</v>
+        <v>-2.637884714963193</v>
       </c>
       <c r="G34">
         <v>-0.005951346593815021</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.640637469395271</v>
+        <v>-2.644071593347736</v>
       </c>
       <c r="G35">
         <v>-0.006880819593379606</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.642180285390408</v>
+        <v>-2.652603301458779</v>
       </c>
       <c r="G36">
         <v>-0.01181005672982671</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.648510591865603</v>
+        <v>-2.658790179843323</v>
       </c>
       <c r="G37">
         <v>-0.005821524070372286</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.657680481794828</v>
+        <v>-2.666540278045531</v>
       </c>
       <c r="G38">
         <v>-0.001037641001958356</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.672727156430074</v>
+        <v>-2.673508766338908</v>
       </c>
       <c r="G39">
         <v>-0.0007078854315245575</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.677946784217757</v>
+        <v>-2.683603694267617</v>
       </c>
       <c r="G40">
         <v>-0.01474442788362973</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.682569314629224</v>
+        <v>-2.688227352834492</v>
       </c>
       <c r="G41">
         <v>-0.003163710388641716</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.695977451036702</v>
+        <v>-2.696759060945535</v>
       </c>
       <c r="G42">
         <v>-0.006805327580247988</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.699633859006719</v>
+        <v>-2.704509159147746</v>
       </c>
       <c r="G43">
         <v>-0.0118074069174321</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.71356970743806</v>
+        <v>-2.720790965460998</v>
       </c>
       <c r="G45">
         <v>0.0008956498806258484</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.72178833559909</v>
+        <v>-2.726196233936704</v>
       </c>
       <c r="G46">
         <v>-0.006624815974158205</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.736291161865417</v>
+        <v>-2.73707277177425</v>
       </c>
       <c r="G47">
         <v>-0.01563258210258223</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.739946441680027</v>
+        <v>-2.745604479885293</v>
       </c>
       <c r="G48">
         <v>-0.007766621520033379</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.751665047163252</v>
+        <v>-2.751791358269834</v>
       </c>
       <c r="G49">
         <v>-0.000881424153639121</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.759415145365462</v>
+        <v>-2.761104676289711</v>
       </c>
       <c r="G50">
         <v>-0.008534889379044786</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.765475712643418</v>
+        <v>-2.768073164583085</v>
       </c>
       <c r="G51">
         <v>-0.01023501654593983</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.774133731861046</v>
+        <v>-2.77660487269413</v>
       </c>
       <c r="G52">
         <v>-0.01243499250627789</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.782539128865509</v>
+        <v>-2.78435497089634</v>
       </c>
       <c r="G53">
         <v>-0.01003490565268583</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.789381306052297</v>
+        <v>-2.79210506909855</v>
       </c>
       <c r="G54">
         <v>-0.0112665028607557</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.798039325269927</v>
+        <v>-2.800636777209592</v>
       </c>
       <c r="G55">
         <v>-0.01171649015999832</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.803318282639049</v>
+        <v>-2.809950095229468</v>
       </c>
       <c r="G56">
         <v>-0.005287438288537616</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.815102741492012</v>
+        <v>-2.817700193431682</v>
       </c>
       <c r="G57">
         <v>-0.009050634066542829</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.824542370618472</v>
+        <v>-2.826231901542723</v>
       </c>
       <c r="G58">
         <v>-0.01359543975338329</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.831384547805268</v>
+        <v>-2.8355452195626</v>
       </c>
       <c r="G59">
         <v>-0.009758444188703974</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.837445115083225</v>
+        <v>-2.842387396749394</v>
       </c>
       <c r="G60">
         <v>-0.00826627835052901</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.846758433103104</v>
+        <v>-2.849229573936186</v>
       </c>
       <c r="G61">
         <v>-0.01118740648285532</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.853600610289893</v>
+        <v>-2.856071751122979</v>
       </c>
       <c r="G62">
         <v>-0.007350410918174899</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.620930146604618</v>
+        <v>-2.620960698582117</v>
       </c>
       <c r="G77">
         <v>5.941373718831855e-05</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.624351694336801</v>
+        <v>-2.624382246314302</v>
       </c>
       <c r="G78">
         <v>-0.0001491478390756029</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.629536507375112</v>
+        <v>-2.630600671180554</v>
       </c>
       <c r="G80">
         <v>0.001211526913002636</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.632929132043386</v>
+        <v>-2.634230442445448</v>
       </c>
       <c r="G81">
         <v>0.001598147475211587</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.63998446243666</v>
+        <v>-2.641417115497884</v>
       </c>
       <c r="G83">
         <v>0.001310445869492582</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.643167234658638</v>
+        <v>-2.643406010168843</v>
       </c>
       <c r="G84">
         <v>0.002811364606022604</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.643427863547359</v>
+        <v>-2.646411110835617</v>
       </c>
       <c r="G85">
         <v>0.00512957579804274</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.647548386578871</v>
+        <v>-2.650848864563618</v>
       </c>
       <c r="G86">
         <v>0.00386312157375901</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.652255095094171</v>
+        <v>-2.653571491597324</v>
       </c>
       <c r="G87">
         <v>0.00385286760525938</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.653449526147792</v>
+        <v>-2.657943881683559</v>
       </c>
       <c r="G88">
         <v>0.003844935073758826</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.658292707831549</v>
+        <v>-2.661556247116315</v>
       </c>
       <c r="G89">
         <v>0.003753514644149636</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.659182548352844</v>
+        <v>-2.665434693887963</v>
       </c>
       <c r="G90">
         <v>0.004937404822593638</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.661056806392621</v>
+        <v>-2.668856241620148</v>
       </c>
       <c r="G91">
         <v>0.006112500484759753</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.662528380137561</v>
+        <v>-2.669755047279994</v>
       </c>
       <c r="G92">
         <v>0.007083700228007306</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.670025313660953</v>
+        <v>-2.675438896055413</v>
       </c>
       <c r="G93">
         <v>0.008371256771817492</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.673585357016564</v>
+        <v>-2.677970705388549</v>
       </c>
       <c r="G94">
         <v>0.008077046085790851</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.671279884358969</v>
+        <v>-2.681701019044531</v>
       </c>
       <c r="G95">
         <v>0.008350400511480949</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.68072527228771</v>
+        <v>-2.686594291188977</v>
       </c>
       <c r="G96">
         <v>0.00596382549377239</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.676590561455184</v>
+        <v>-2.689225629375251</v>
       </c>
       <c r="G97">
         <v>0.009341819766003567</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.685245458076716</v>
+        <v>-2.693554321338618</v>
       </c>
       <c r="G98">
         <v>0.009067838363122416</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.685497446097063</v>
+        <v>-2.696420821801219</v>
       </c>
       <c r="G99">
         <v>0.009795022787041585</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.688939831306179</v>
+        <v>-2.700697296268193</v>
       </c>
       <c r="G100">
         <v>0.006620554126728351</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.690043091456299</v>
+        <v>-2.704592135334015</v>
       </c>
       <c r="G101">
         <v>0.01401730877925322</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.693055088511141</v>
+        <v>-2.708839071361441</v>
       </c>
       <c r="G102">
         <v>0.008992373188601022</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.696231510181707</v>
+        <v>-2.713024903433872</v>
       </c>
       <c r="G103">
         <v>0.009059489651452868</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.704147392212582</v>
+        <v>-2.717019917805727</v>
       </c>
       <c r="G104">
         <v>0.01186036743918306</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.704300300830859</v>
+        <v>-2.721088168739994</v>
       </c>
       <c r="G105">
         <v>0.01375862336903522</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.707001827741391</v>
+        <v>-2.722868839878249</v>
       </c>
       <c r="G106">
         <v>0.01028795078066658</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.710549444865247</v>
+        <v>-2.729455573198085</v>
       </c>
       <c r="G107">
         <v>0.0116924590576839</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.708170870325347</v>
+        <v>-2.733880180780718</v>
       </c>
       <c r="G108">
         <v>0.01380203486859233</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.712114753927795</v>
+        <v>-2.736902687279626</v>
       </c>
       <c r="G109">
         <v>0.01307030569571443</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.719858526727259</v>
+        <v>-2.738983237883084</v>
       </c>
       <c r="G110">
         <v>0.01442725770733633</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.722923864892263</v>
+        <v>-2.742864930803545</v>
       </c>
       <c r="G111">
         <v>0.008315440008234809</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.725485955697581</v>
+        <v>-2.746299624681094</v>
       </c>
       <c r="G112">
         <v>0.00899688733633508</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.730877967224368</v>
+        <v>-2.751822194195484</v>
       </c>
       <c r="G113">
         <v>0.0143275399721936</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.728402305071873</v>
+        <v>-2.755764991070942</v>
       </c>
       <c r="G114">
         <v>0.01544342430280699</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.737044380118677</v>
+        <v>-2.759963969288738</v>
       </c>
       <c r="G115">
         <v>0.01366306607147871</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.740032754234005</v>
+        <v>-2.764592540717308</v>
       </c>
       <c r="G116">
         <v>0.007424241333580106</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.739506859246664</v>
+        <v>-2.767141755882577</v>
       </c>
       <c r="G117">
         <v>0.01642670499268939</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.74194006359909</v>
+        <v>-2.772421290199993</v>
       </c>
       <c r="G118">
         <v>0.01542618822146857</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.746350982043162</v>
+        <v>-2.77688959590549</v>
       </c>
       <c r="G119">
         <v>0.01546622761170435</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.752433581557943</v>
+        <v>-2.780819246635581</v>
       </c>
       <c r="G120">
         <v>0.01680745094551206</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.752050695393939</v>
+        <v>-2.78498767287588</v>
       </c>
       <c r="G121">
         <v>0.01311507574423376</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.755766187648135</v>
+        <v>-2.789156099116175</v>
       </c>
       <c r="G122">
         <v>0.01607793208353292</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.762573019403205</v>
+        <v>-2.793324525356471</v>
       </c>
       <c r="G123">
         <v>0.01497580620801187</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.757943430337815</v>
+        <v>-2.797492951596767</v>
       </c>
       <c r="G124">
         <v>0.01614869492242343</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.764449614015261</v>
+        <v>-2.801691929814562</v>
       </c>
       <c r="G125">
         <v>0.01817471216580691</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.766010257789603</v>
+        <v>-2.806099131565063</v>
       </c>
       <c r="G126">
         <v>0.01899920852859349</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.769663706610999</v>
+        <v>-2.810745108825766</v>
       </c>
       <c r="G127">
         <v>0.01577891714861734</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.773741209951788</v>
+        <v>-2.813428857203768</v>
       </c>
       <c r="G128">
         <v>0.01263824321680485</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.780479047466264</v>
+        <v>-2.81611260558177</v>
       </c>
       <c r="G129">
         <v>0.009143943835746571</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.777268732948396</v>
+        <v>-2.818796353959772</v>
       </c>
       <c r="G130">
         <v>0.0156808368901713</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.784326993016257</v>
+        <v>-2.821480102337774</v>
       </c>
       <c r="G131">
         <v>0.01178307455258776</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.789624563432656</v>
+        <v>-2.824163850715774</v>
       </c>
       <c r="G132">
         <v>0.009729042269607024</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.791486018931316</v>
+        <v>-2.826847599093776</v>
       </c>
       <c r="G133">
         <v>0.01461980148158526</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.79379880084327</v>
+        <v>-2.829531347471778</v>
       </c>
       <c r="G134">
         <v>0.01688767986536766</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.797165908693918</v>
+        <v>-2.832215095849779</v>
       </c>
       <c r="G135">
         <v>0.01467772714667603</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.804188010519847</v>
+        <v>-2.83489884422778</v>
       </c>
       <c r="G136">
         <v>0.008139747716084944</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.806854641309848</v>
+        <v>-2.837582592605783</v>
       </c>
       <c r="G137">
         <v>0.02018457633454829</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.808570224160033</v>
+        <v>-2.840527344988631</v>
       </c>
       <c r="G138">
         <v>0.01676115628141917</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.806136745047652</v>
+        <v>-2.842950089361786</v>
       </c>
       <c r="G139">
         <v>0.01592162758853211</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.813350566178906</v>
+        <v>-2.845633837739787</v>
       </c>
       <c r="G140">
         <v>0.01467130611407041</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.81568845273739</v>
+        <v>-2.848578590122638</v>
       </c>
       <c r="G141">
         <v>0.01435904034644642</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.819540876583804</v>
+        <v>-2.85100133449579</v>
       </c>
       <c r="G142">
         <v>0.0189507339499364</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.832492824862709</v>
+        <v>-2.853685082873792</v>
       </c>
       <c r="G143">
         <v>0.01636824530725134</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.828292636376784</v>
+        <v>-2.856629835256641</v>
       </c>
       <c r="G144">
         <v>0.01012873298633044</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.830581948560646</v>
+        <v>-2.85986702672103</v>
       </c>
       <c r="G145">
         <v>0.01284834394855938</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.834627884181491</v>
+        <v>-2.861997332012646</v>
       </c>
       <c r="G146">
         <v>0.01275214261544599</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.83932349507746</v>
+        <v>-2.864681080390648</v>
       </c>
       <c r="G147">
         <v>0.01369446861850965</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.844669082919882</v>
+        <v>-2.867641550311843</v>
       </c>
       <c r="G148">
         <v>0.01688624509120817</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.843579764536647</v>
+        <v>-2.870017142069966</v>
       </c>
       <c r="G149">
         <v>0.01592430636733444</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.851509177116984</v>
+        <v>-2.873546772615889</v>
       </c>
       <c r="G150">
         <v>0.009292883062563373</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.850431888767611</v>
+        <v>-2.875938081912356</v>
       </c>
       <c r="G151">
         <v>0.01054894146958141</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.85300573123215</v>
+        <v>-2.878345108747165</v>
       </c>
       <c r="G152">
         <v>0.01837454940549499</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.859230508166211</v>
+        <v>-2.881266788489006</v>
       </c>
       <c r="G153">
         <v>0.01324753762865982</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.86066246103451</v>
+        <v>-2.88508049568079</v>
       </c>
       <c r="G154">
         <v>0.01858036020926024</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.869576395199759</v>
+        <v>-2.887195083434064</v>
       </c>
       <c r="G155">
         <v>0.01529063965418209</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.866547328398916</v>
+        <v>-2.890440637334125</v>
       </c>
       <c r="G156">
         <v>0.01326810730434058</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.868197529948683</v>
+        <v>-2.893408462357986</v>
       </c>
       <c r="G157">
         <v>0.01224452908901297</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.878166877690748</v>
+        <v>-2.896069138094981</v>
       </c>
       <c r="G158">
         <v>0.010906901439383</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.884510201427517</v>
+        <v>-2.898760241575651</v>
       </c>
       <c r="G159">
         <v>0.002418933877013973</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.891934310481422</v>
+        <v>-2.903151471827838</v>
       </c>
       <c r="G160">
         <v>0.01169348174544749</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.883348010813876</v>
+        <v>-2.905542781124305</v>
       </c>
       <c r="G161">
         <v>0.01517240403618092</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.888692740573353</v>
+        <v>-2.907926735318102</v>
       </c>
       <c r="G162">
         <v>0.009270148381448129</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.891245021283554</v>
+        <v>-2.910326407050247</v>
       </c>
       <c r="G163">
         <v>0.01492324254286181</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.896701474919421</v>
+        <v>-2.913856037596167</v>
       </c>
       <c r="G164">
         <v>0.01626055346428368</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.902472116523964</v>
+        <v>-2.917953821433811</v>
       </c>
       <c r="G165">
         <v>0.003918247581070955</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.906497974140134</v>
+        <v>-2.9197926949769</v>
       </c>
       <c r="G166">
         <v>0.003135928098317753</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.910953806400558</v>
+        <v>-2.922167279402018</v>
       </c>
       <c r="G167">
         <v>0.001923633971310901</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.911785845345925</v>
+        <v>-2.925990356362479</v>
       </c>
       <c r="G168">
         <v>0.009306727307306417</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.91328379638075</v>
+        <v>-2.929827136195281</v>
       </c>
       <c r="G169">
         <v>0.006080720257954475</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.914191197239846</v>
+        <v>-2.932496174367945</v>
       </c>
       <c r="G170">
         <v>0.01234131559122487</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.920265316534687</v>
+        <v>-2.936024797580857</v>
       </c>
       <c r="G171">
         <v>0.008566318559781627</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.930140000565317</v>
+        <v>-2.93927135881393</v>
       </c>
       <c r="G172">
         <v>0.005126343443110914</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.928230241909753</v>
+        <v>-2.942531622919329</v>
       </c>
       <c r="G173">
         <v>0.005111379653327974</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.930845955620991</v>
+        <v>-2.944921924882788</v>
       </c>
       <c r="G174">
         <v>0.007452725986485165</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.934827934050212</v>
+        <v>-2.94788239480398</v>
       </c>
       <c r="G175">
         <v>0.008344182939654776</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.936715207605243</v>
+        <v>-2.951427742888246</v>
       </c>
       <c r="G176">
         <v>0.005354075967382355</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.940194443754498</v>
+        <v>-2.954095773727913</v>
       </c>
       <c r="G177">
         <v>0.01326240333778594</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.949561865168887</v>
+        <v>-2.956195651275851</v>
       </c>
       <c r="G178">
         <v>0.006168061173132067</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.952585392899139</v>
+        <v>-2.960309152651837</v>
       </c>
       <c r="G179">
         <v>-0.0007854949262614541</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.954256991390177</v>
+        <v>-2.963562061654565</v>
       </c>
       <c r="G180">
         <v>0.004652997790789537</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.954639532673953</v>
+        <v>-2.966246817365571</v>
       </c>
       <c r="G181">
         <v>0.003647441565758802</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.959242791069283</v>
+        <v>-2.96950073370132</v>
       </c>
       <c r="G182">
         <v>0.008350036696283647</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.961260473420499</v>
+        <v>-2.972166749874956</v>
       </c>
       <c r="G183">
         <v>0.004512867412633348</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.96545796133365</v>
+        <v>-2.976281258583954</v>
       </c>
       <c r="G184">
         <v>0.004903808780156615</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.971577824114103</v>
+        <v>-2.979241728505146</v>
       </c>
       <c r="G185">
         <v>-0.0003166973407214835</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.98099454401042</v>
+        <v>-2.982788083922425</v>
       </c>
       <c r="G186">
         <v>0.00325712311826265</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.978508995404237</v>
+        <v>-2.986039985592148</v>
       </c>
       <c r="G187">
         <v>-0.0007607923640213787</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.983088795766245</v>
+        <v>-2.989293901927888</v>
       </c>
       <c r="G188">
         <v>0.00215906681232414</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.987647018174012</v>
+        <v>-2.991099325728268</v>
       </c>
       <c r="G189">
         <v>-0.003411738866960667</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.988025005545609</v>
+        <v>-2.995506273518804</v>
       </c>
       <c r="G190">
         <v>0.005685210826494314</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.991751044489692</v>
+        <v>-2.998760189854536</v>
       </c>
       <c r="G191">
         <v>0.005509727792404107</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.996529569819046</v>
+        <v>-3.001443938232542</v>
       </c>
       <c r="G192">
         <v>0.0003475735116098</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.999123982701902</v>
+        <v>-3.00498928631681</v>
       </c>
       <c r="G193">
         <v>0.001488875826819114</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.001979166379063</v>
+        <v>-3.008241187986529</v>
       </c>
       <c r="G194">
         <v>-0.001526196404925961</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.006729134171133</v>
+        <v>-3.011201657907729</v>
       </c>
       <c r="G195">
         <v>-0.003032626063578236</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.011184465468956</v>
+        <v>-3.014463936679141</v>
       </c>
       <c r="G196">
         <v>-0.003311815772749638</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.014220301993696</v>
+        <v>-3.017415036831651</v>
       </c>
       <c r="G197">
         <v>-0.001125158261897408</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.018004335464621</v>
+        <v>-3.020668953167392</v>
       </c>
       <c r="G198">
         <v>-0.003776269648758712</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.020742392471172</v>
+        <v>-3.024790816979054</v>
       </c>
       <c r="G199">
         <v>-0.004027800303089912</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.025679909796228</v>
+        <v>-3.027467210254388</v>
       </c>
       <c r="G200">
         <v>6.194527063502209e-05</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.02765603723333</v>
+        <v>-3.030719111924111</v>
       </c>
       <c r="G201">
         <v>-0.003166908507603816</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.02960853709575</v>
+        <v>-3.033972020926842</v>
       </c>
       <c r="G202">
         <v>-0.003207262054273408</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.034161855238789</v>
+        <v>-3.03722492992957</v>
       </c>
       <c r="G203">
         <v>-0.001197946477574319</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.036730215941631</v>
+        <v>-3.040770278013839</v>
       </c>
       <c r="G204">
         <v>-0.00242506048484431</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.039983124944364</v>
+        <v>-3.044023187016569</v>
       </c>
       <c r="G205">
         <v>-0.001681871553391723</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.044212013995512</v>
+        <v>-3.047276096019301</v>
       </c>
       <c r="G206">
         <v>-0.004836586420366606</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.048157833733804</v>
+        <v>-3.050821444103567</v>
       </c>
       <c r="G207">
         <v>-0.002484155770137275</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.051010271082509</v>
+        <v>-3.053381442370735</v>
       </c>
       <c r="G208">
         <v>-0.003478876456548236</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.053570269349673</v>
+        <v>-3.055941440637901</v>
       </c>
       <c r="G209">
         <v>-0.001210850804124614</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.05751608908797</v>
+        <v>-3.058501438905068</v>
       </c>
       <c r="G210">
         <v>-0.002795337690926464</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.059090737538037</v>
+        <v>-3.061061437172235</v>
       </c>
       <c r="G211">
         <v>-0.003497619295805027</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.720796491166358</v>
+        <v>-2.726823238580977</v>
       </c>
       <c r="G221">
         <v>0.009998772403746248</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.763225508945231</v>
+        <v>-2.775694102918651</v>
       </c>
       <c r="G222">
         <v>0.01862098683253643</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.810343009836612</v>
+        <v>-2.834363236981092</v>
       </c>
       <c r="G223">
         <v>0.02068882194109101</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.85870379519534</v>
+        <v>-2.891870230597108</v>
       </c>
       <c r="G224">
         <v>0.02312095443318696</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.906834719134913</v>
+        <v>-2.949557607328394</v>
       </c>
       <c r="G225">
         <v>0.0204058542983736</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.962685233158369</v>
+        <v>-2.991330390604367</v>
       </c>
       <c r="G226">
         <v>0.01328028391387326</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.012911165936704</v>
+        <v>-3.035135920715599</v>
       </c>
       <c r="G227">
         <v>0.01441481787610777</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.068582391181245</v>
+        <v>-3.080238786231587</v>
       </c>
       <c r="G228">
         <v>0.0077741416922259</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.123418607559792</v>
+        <v>-3.128093919621766</v>
       </c>
       <c r="G229">
         <v>0.004037774873699385</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.769979150741943</v>
+        <v>-2.775244758243918</v>
       </c>
       <c r="G232">
         <v>0.01213956698753416</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.812827677510207</v>
+        <v>-2.823093566995917</v>
       </c>
       <c r="G233">
         <v>0.02002322752792507</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.85724372916212</v>
+        <v>-2.876602997639532</v>
       </c>
       <c r="G234">
         <v>0.02397559516241676</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.906023698339957</v>
+        <v>-2.935645161871444</v>
       </c>
       <c r="G235">
         <v>0.0256494055262837</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.956760117131288</v>
+        <v>-2.996755969453208</v>
       </c>
       <c r="G236">
         <v>0.02610538406158769</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.009770347481976</v>
+        <v>-3.048121845019166</v>
       </c>
       <c r="G237">
         <v>0.02390554587618854</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.063537872731218</v>
+        <v>-3.091826958286918</v>
       </c>
       <c r="G238">
         <v>0.02054939964416347</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.119834884718832</v>
+        <v>-3.137424019577917</v>
       </c>
       <c r="G239">
         <v>0.01059290032665572</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.175510220220397</v>
+        <v>-3.183889676925204</v>
       </c>
       <c r="G240">
         <v>0.005325892937641352</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.803510819219118</v>
+        <v>-2.805588724670395</v>
       </c>
       <c r="G243">
         <v>0.0120941191585846</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.84480059900814</v>
+        <v>-2.853603748346366</v>
       </c>
       <c r="G244">
         <v>0.02125618419672692</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.890625658442234</v>
+        <v>-2.90782459500845</v>
       </c>
       <c r="G245">
         <v>0.0258829695897973</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.939664965044626</v>
+        <v>-2.964044910185462</v>
       </c>
       <c r="G246">
         <v>0.02784389743225502</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.988250526469702</v>
+        <v>-3.024596599353147</v>
       </c>
       <c r="G247">
         <v>0.02987599481368752</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.042984478724515</v>
+        <v>-3.087619674138161</v>
       </c>
       <c r="G248">
         <v>0.02717491452449394</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.098334447624933</v>
+        <v>-3.130857133902826</v>
       </c>
       <c r="G249">
         <v>0.02107833895112754</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.154825874522661</v>
+        <v>-3.17741584861954</v>
       </c>
       <c r="G250">
         <v>0.01591473389529829</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.213523937491627</v>
+        <v>-3.223886618210277</v>
       </c>
       <c r="G251">
         <v>0.006792538738761733</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.827415573424024</v>
+        <v>-2.831107578842427</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.870350362601905</v>
+        <v>-2.87790108277028</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.914466671215299</v>
+        <v>-2.930100151919424</v>
       </c>
       <c r="G256">
         <v>0.02858412731046478</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.96272504117923</v>
+        <v>-2.986470214607492</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.013327318179711</v>
+        <v>-3.045646763531436</v>
       </c>
       <c r="G258">
         <v>0.0331299527447062</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.067899327132757</v>
+        <v>-3.10778282080706</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.121639753610492</v>
+        <v>-3.160487216032858</v>
       </c>
       <c r="G260">
         <v>0.02601223173090694</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.180050129483954</v>
+        <v>-3.205714599695377</v>
       </c>
       <c r="G261">
         <v>0.01866105407224383</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.241503083224273</v>
+        <v>-3.253231235301322</v>
       </c>
       <c r="G262">
         <v>0.009161081613008493</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.846236603917134</v>
+        <v>-2.850076383917486</v>
       </c>
       <c r="G265">
         <v>0.01400427470218801</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.888526868890934</v>
+        <v>-2.896508690662425</v>
       </c>
       <c r="G266">
         <v>0.02390569028472944</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.93495414560358</v>
+        <v>-2.948565051557066</v>
       </c>
       <c r="G267">
         <v>0.03080484853150156</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.980347920253622</v>
+        <v>-3.004910836283473</v>
       </c>
       <c r="G268">
         <v>0.03412474194028792</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.030578656740448</v>
+        <v>-3.062550723468356</v>
       </c>
       <c r="G269">
         <v>0.03538792347026121</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.084910783491772</v>
+        <v>-3.123290460913941</v>
       </c>
       <c r="G270">
         <v>0.03289771531596686</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.14102257478727</v>
+        <v>-3.184266748629698</v>
       </c>
       <c r="G271">
         <v>0.02768187098122832</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.200185386064497</v>
+        <v>-3.227041391936834</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.261370161824123</v>
+        <v>-3.275661874561904</v>
       </c>
       <c r="G273">
         <v>0.01044569055742101</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.861144482920072</v>
+        <v>-2.861823628665873</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.902179446172188</v>
+        <v>-2.910036852744906</v>
       </c>
       <c r="G277">
         <v>0.02533864457837431</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.94633200324879</v>
+        <v>-2.961931985335559</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.993855049982201</v>
+        <v>-3.016743031390693</v>
       </c>
       <c r="G279">
         <v>0.0375182849664073</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.044578739208202</v>
+        <v>-3.07461146695367</v>
       </c>
       <c r="G280">
         <v>0.03797918390227872</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.098478513987751</v>
+        <v>-3.135245945547502</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.155021931553982</v>
+        <v>-3.198973878776509</v>
       </c>
       <c r="G282">
         <v>0.03158792589061377</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.21471976777123</v>
+        <v>-3.245133410904253</v>
       </c>
       <c r="G283">
         <v>0.02274437080555003</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.277847880413144</v>
+        <v>-3.293264863692725</v>
       </c>
       <c r="G284">
         <v>0.01211102865760549</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.873038267542831</v>
+        <v>-2.875753192107012</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.913787726560386</v>
+        <v>-2.922088206108328</v>
       </c>
       <c r="G288">
         <v>0.02606627037302189</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.957702650235157</v>
+        <v>-2.973236778221789</v>
       </c>
       <c r="G289">
         <v>0.03449447868243061</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.00442209218896</v>
+        <v>-3.027005098608596</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.055435599270832</v>
+        <v>-3.084707550112419</v>
       </c>
       <c r="G291">
         <v>0.04100735162852009</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.109328560718115</v>
+        <v>-3.144961548485217</v>
       </c>
       <c r="G292">
         <v>0.03812851434707665</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.166298280016671</v>
+        <v>-3.20880423815477</v>
       </c>
       <c r="G293">
         <v>0.03305956458146675</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.226942353188901</v>
+        <v>-3.259313418412368</v>
       </c>
       <c r="G294">
         <v>0.02447144202760199</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.290460362270951</v>
+        <v>-3.306943245973264</v>
       </c>
       <c r="G295">
         <v>0.01286499952592696</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.883163519582719</v>
+        <v>-2.883762004089748</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.922932045067601</v>
+        <v>-2.931890512844198</v>
       </c>
       <c r="G299">
         <v>0.02723173399584677</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.966695224065848</v>
+        <v>-2.981491338133959</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.013763333028708</v>
+        <v>-3.035398305319989</v>
       </c>
       <c r="G301">
         <v>0.04126619479792804</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.064351627837147</v>
+        <v>-3.092131075189291</v>
       </c>
       <c r="G302">
         <v>0.04216517920802842</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.118252238448739</v>
+        <v>-3.152326698940295</v>
       </c>
       <c r="G303">
         <v>0.04027843890619609</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.176415381976197</v>
+        <v>-3.215815790200685</v>
       </c>
       <c r="G304">
         <v>0.03428388919593883</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.236903764455527</v>
+        <v>-3.271502098244436</v>
       </c>
       <c r="G305">
         <v>0.02605368459123625</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.301253890999666</v>
+        <v>-3.318160501035884</v>
       </c>
       <c r="G306">
         <v>0.01357758315532842</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.89082433460043</v>
+        <v>-2.893513099862549</v>
       </c>
       <c r="G309">
         <v>0.01591002531321983</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.931038703219139</v>
+        <v>-2.939148620121279</v>
       </c>
       <c r="G310">
         <v>0.02786667660512387</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.974342564497982</v>
+        <v>-2.989221836740125</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.02180798410729</v>
+        <v>-3.041931015100858</v>
       </c>
       <c r="G312">
         <v>0.04219913561066213</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.072181101412319</v>
+        <v>-3.09838780314031</v>
       </c>
       <c r="G313">
         <v>0.04379598138417129</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.126159950854904</v>
+        <v>-3.157842539638947</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.184193723770967</v>
+        <v>-3.221822142127218</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.245906280393934</v>
+        <v>-3.282215779644114</v>
       </c>
       <c r="G316">
         <v>0.02649986563811124</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.310286526856398</v>
+        <v>-3.327556659384811</v>
       </c>
       <c r="G317">
         <v>0.01444246516859898</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.644071593347736</v>
+        <v>-2.645634813165403</v>
       </c>
       <c r="G35">
         <v>-0.006880819593379606</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.652603301458779</v>
+        <v>-2.653384911367614</v>
       </c>
       <c r="G36">
         <v>-0.01181005672982671</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.673508766338908</v>
+        <v>-2.675853596065408</v>
       </c>
       <c r="G39">
         <v>-0.0007078854315245575</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.696759060945535</v>
+        <v>-2.697540670854369</v>
       </c>
       <c r="G42">
         <v>-0.006805327580247988</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.712788245045621</v>
+        <v>-2.713696166061039</v>
       </c>
       <c r="G44">
         <v>-0.01675376103794646</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.720790965460998</v>
+        <v>-2.721572575369828</v>
       </c>
       <c r="G45">
         <v>0.0008956498806258484</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.726196233936704</v>
+        <v>-2.726977843845539</v>
       </c>
       <c r="G46">
         <v>-0.006624815974158205</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.751791358269834</v>
+        <v>-2.752572968178668</v>
       </c>
       <c r="G49">
         <v>-0.000881424153639121</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.768073164583085</v>
+        <v>-2.769636384400755</v>
       </c>
       <c r="G51">
         <v>-0.01023501654593983</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.77660487269413</v>
+        <v>-2.777386482602964</v>
       </c>
       <c r="G52">
         <v>-0.01243499250627789</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.800636777209592</v>
+        <v>-2.801418387118427</v>
       </c>
       <c r="G55">
         <v>-0.01171649015999832</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.627148571470873</v>
+        <v>-2.627803794046488</v>
       </c>
       <c r="G79">
         <v>0.0006984387540325265</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.634230442445448</v>
+        <v>-2.634738545443355</v>
       </c>
       <c r="G81">
         <v>0.001598147475211587</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.641417115497884</v>
+        <v>-2.641655891008088</v>
       </c>
       <c r="G83">
         <v>0.001310445869492582</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.643406010168843</v>
+        <v>-2.644660991674861</v>
       </c>
       <c r="G84">
         <v>0.002811364606022604</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.653571491597324</v>
+        <v>-2.654795921125842</v>
       </c>
       <c r="G87">
         <v>0.00385286760525938</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.661556247116315</v>
+        <v>-2.662780676644833</v>
       </c>
       <c r="G89">
         <v>0.003753514644149636</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.669755047279994</v>
+        <v>-2.670471373810606</v>
       </c>
       <c r="G92">
         <v>0.007083700228007306</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.677970705388549</v>
+        <v>-2.679164582939568</v>
       </c>
       <c r="G94">
         <v>0.008077046085790851</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.681701019044531</v>
+        <v>-2.682625569107848</v>
       </c>
       <c r="G95">
         <v>0.008350400511480949</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.686594291188977</v>
+        <v>-2.687788168739997</v>
       </c>
       <c r="G96">
         <v>0.00596382549377239</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.689225629375251</v>
+        <v>-2.689941955905862</v>
       </c>
       <c r="G97">
         <v>0.009341819766003567</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.696420821801219</v>
+        <v>-2.697375923842035</v>
       </c>
       <c r="G99">
         <v>0.009795022787041585</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.700697296268193</v>
+        <v>-2.701652398309005</v>
       </c>
       <c r="G100">
         <v>0.006620554126728351</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.708839071361441</v>
+        <v>-2.70956854403742</v>
       </c>
       <c r="G102">
         <v>0.008992373188601022</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.713024903433872</v>
+        <v>-2.713263678944075</v>
       </c>
       <c r="G103">
         <v>0.009059489651452868</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.721088168739994</v>
+        <v>-2.721326944250197</v>
       </c>
       <c r="G105">
         <v>0.01375862336903522</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.722868839878249</v>
+        <v>-2.724301492939474</v>
       </c>
       <c r="G106">
         <v>0.01028795078066658</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.736902687279626</v>
+        <v>-2.737380238300034</v>
       </c>
       <c r="G109">
         <v>0.01307030569571443</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.738983237883084</v>
+        <v>-2.739938339923901</v>
       </c>
       <c r="G110">
         <v>0.01442725770733633</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.742864930803545</v>
+        <v>-2.74451895354284</v>
       </c>
       <c r="G111">
         <v>0.008315440008234809</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.746299624681094</v>
+        <v>-2.748192422930594</v>
       </c>
       <c r="G112">
         <v>0.00899688733633508</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.751822194195484</v>
+        <v>-2.752538520726096</v>
       </c>
       <c r="G113">
         <v>0.0143275399721936</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.759963969288738</v>
+        <v>-2.760649743841849</v>
       </c>
       <c r="G115">
         <v>0.01366306607147871</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.767141755882577</v>
+        <v>-2.7685744089438</v>
       </c>
       <c r="G117">
         <v>0.01642670499268939</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.77688959590549</v>
+        <v>-2.777384552758032</v>
       </c>
       <c r="G119">
         <v>0.01546622761170435</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.840527344988631</v>
+        <v>-2.841080788075018</v>
       </c>
       <c r="G138">
         <v>0.01676115628141917</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.842950089361786</v>
+        <v>-2.843211093366634</v>
       </c>
       <c r="G139">
         <v>0.01592162758853211</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.845633837739787</v>
+        <v>-2.845894841744636</v>
       </c>
       <c r="G140">
         <v>0.01467130611407041</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.848578590122638</v>
+        <v>-2.849132033209022</v>
       </c>
       <c r="G141">
         <v>0.01435904034644642</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.85100133449579</v>
+        <v>-2.851815781587025</v>
       </c>
       <c r="G142">
         <v>0.0189507339499364</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.853685082873792</v>
+        <v>-2.853946086878642</v>
       </c>
       <c r="G143">
         <v>0.01636824530725134</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.856629835256641</v>
+        <v>-2.856906556799835</v>
       </c>
       <c r="G144">
         <v>0.01012873298633044</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.864681080390648</v>
+        <v>-2.865234523477033</v>
       </c>
       <c r="G147">
         <v>0.01369446861850965</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.870017142069966</v>
+        <v>-2.870863024237889</v>
       </c>
       <c r="G149">
         <v>0.01592430636733444</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.875938081912356</v>
+        <v>-2.876491524998741</v>
       </c>
       <c r="G151">
         <v>0.01054894146958141</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.878345108747165</v>
+        <v>-2.879451994919934</v>
       </c>
       <c r="G152">
         <v>0.01837454940549499</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.881266788489006</v>
+        <v>-2.882135743297935</v>
       </c>
       <c r="G153">
         <v>0.01324753762865982</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.887195083434064</v>
+        <v>-2.887464449874589</v>
       </c>
       <c r="G155">
         <v>0.01529063965418209</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.890440637334125</v>
+        <v>-2.891309592143057</v>
       </c>
       <c r="G156">
         <v>0.01326810730434058</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.905542781124305</v>
+        <v>-2.906127659287376</v>
       </c>
       <c r="G161">
         <v>0.01517240403618092</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.907926735318102</v>
+        <v>-2.908210811963963</v>
       </c>
       <c r="G162">
         <v>0.009270148381448129</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.910326407050247</v>
+        <v>-2.91091027788031</v>
       </c>
       <c r="G163">
         <v>0.01492324254286181</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.913856037596167</v>
+        <v>-2.914717637302431</v>
       </c>
       <c r="G164">
         <v>0.01626055346428368</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.9197926949769</v>
+        <v>-2.920930008893348</v>
       </c>
       <c r="G166">
         <v>0.003135928098317753</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.922167279402018</v>
+        <v>-2.923021524005613</v>
       </c>
       <c r="G167">
         <v>0.001923633971310901</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.925990356362479</v>
+        <v>-2.92714338781727</v>
       </c>
       <c r="G168">
         <v>0.009306727307306417</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.929827136195281</v>
+        <v>-2.930396296820009</v>
       </c>
       <c r="G169">
         <v>0.006080720257954475</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.932496174367945</v>
+        <v>-2.933072690095343</v>
       </c>
       <c r="G170">
         <v>0.01234131559122487</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.936024797580857</v>
+        <v>-2.936318243995402</v>
       </c>
       <c r="G171">
         <v>0.008566318559781627</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.94788239480398</v>
+        <v>-2.948759712048589</v>
       </c>
       <c r="G175">
         <v>0.008344182939654776</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.954095773727913</v>
+        <v>-2.954388212809449</v>
       </c>
       <c r="G177">
         <v>0.01326240333778594</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.956195651275851</v>
+        <v>-2.957342334960982</v>
       </c>
       <c r="G178">
         <v>0.006168061173132067</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.96950073370132</v>
+        <v>-2.96978481034718</v>
       </c>
       <c r="G182">
         <v>0.008350036696283647</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.972166749874956</v>
+        <v>-2.972459188956491</v>
       </c>
       <c r="G183">
         <v>0.004512867412633348</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.991099325728268</v>
+        <v>-2.992545803597603</v>
       </c>
       <c r="G189">
         <v>-0.003411738866960667</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.00498928631681</v>
+        <v>-3.005274370295677</v>
       </c>
       <c r="G193">
         <v>0.001488875826819114</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.011201657907729</v>
+        <v>-3.012063257613996</v>
       </c>
       <c r="G195">
         <v>-0.003032626063578236</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.014463936679141</v>
+        <v>-3.014749020658009</v>
       </c>
       <c r="G196">
         <v>-0.003311815772749638</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.027467210254388</v>
+        <v>-3.027759649335924</v>
       </c>
       <c r="G200">
         <v>6.194527063502209e-05</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.030719111924111</v>
+        <v>-3.031011551005647</v>
       </c>
       <c r="G201">
         <v>-0.003166908507603816</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.033972020926842</v>
+        <v>-3.034264460008378</v>
       </c>
       <c r="G202">
         <v>-0.003207262054273408</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.775694102918651</v>
+        <v>-2.776671491646665</v>
       </c>
       <c r="G222">
         <v>0.01862098683253643</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.834363236981092</v>
+        <v>-2.834476829214102</v>
       </c>
       <c r="G223">
         <v>0.02068882194109101</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.891870230597108</v>
+        <v>-2.891975542385704</v>
       </c>
       <c r="G224">
         <v>0.02312095443318696</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.949557607328394</v>
+        <v>-2.949688772341005</v>
       </c>
       <c r="G225">
         <v>0.0204058542983736</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.991330390604367</v>
+        <v>-2.99159272062959</v>
       </c>
       <c r="G226">
         <v>0.01328028391387326</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.035135920715599</v>
+        <v>-3.035735658312363</v>
       </c>
       <c r="G227">
         <v>0.01441481787610777</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.080238786231587</v>
+        <v>-3.0804881176642</v>
       </c>
       <c r="G228">
         <v>0.0077741416922259</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.775244758243918</v>
+        <v>-2.775658351523675</v>
       </c>
       <c r="G232">
         <v>0.01213956698753416</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.823093566995917</v>
+        <v>-2.824407470739229</v>
       </c>
       <c r="G233">
         <v>0.02002322752792507</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.876602997639532</v>
+        <v>-2.876928019181471</v>
       </c>
       <c r="G234">
         <v>0.02397559516241676</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.935645161871444</v>
+        <v>-2.936020562940962</v>
       </c>
       <c r="G235">
         <v>0.0256494055262837</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.048121845019166</v>
+        <v>-3.048604470498828</v>
       </c>
       <c r="G237">
         <v>0.02390554587618854</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.091826958286918</v>
+        <v>-3.091850899464913</v>
       </c>
       <c r="G238">
         <v>0.02054939964416347</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.137424019577917</v>
+        <v>-3.137452607162408</v>
       </c>
       <c r="G239">
         <v>0.01059290032665572</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.183889676925204</v>
+        <v>-3.18405666710207</v>
       </c>
       <c r="G240">
         <v>0.005325892937641352</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.805588724670395</v>
+        <v>-2.807392858736165</v>
       </c>
       <c r="G243">
         <v>0.0120941191585846</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.853603748346366</v>
+        <v>-2.85402692401342</v>
       </c>
       <c r="G244">
         <v>0.02125618419672692</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.90782459500845</v>
+        <v>-2.90833963280434</v>
       </c>
       <c r="G245">
         <v>0.0258829695897973</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.964044910185462</v>
+        <v>-2.964957586241798</v>
       </c>
       <c r="G246">
         <v>0.02784389743225502</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.024596599353147</v>
+        <v>-3.025090965550329</v>
       </c>
       <c r="G247">
         <v>0.02987599481368752</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.130857133902826</v>
+        <v>-3.131267142448071</v>
       </c>
       <c r="G249">
         <v>0.02107833895112754</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.17741584861954</v>
+        <v>-3.177430656839678</v>
       </c>
       <c r="G250">
         <v>0.01591473389529829</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.223886618210277</v>
+        <v>-3.223952550929209</v>
       </c>
       <c r="G251">
         <v>0.006792538738761733</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.831107578842427</v>
+        <v>-2.831628497570343</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.87790108277028</v>
+        <v>-2.878441975289696</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.930100151919424</v>
+        <v>-2.931034760947184</v>
       </c>
       <c r="G256">
         <v>0.02858412731046478</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.986470214607492</v>
+        <v>-2.987783106015744</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.045646763531436</v>
+        <v>-3.045790765591487</v>
       </c>
       <c r="G258">
         <v>0.0331299527447062</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.10778282080706</v>
+        <v>-3.107837263976691</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.160487216032858</v>
+        <v>-3.16063043154133</v>
       </c>
       <c r="G260">
         <v>0.02601223173090694</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.205714599695377</v>
+        <v>-3.205771885898765</v>
       </c>
       <c r="G261">
         <v>0.01866105407224383</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.253231235301322</v>
+        <v>-3.253261615898485</v>
       </c>
       <c r="G262">
         <v>0.009161081613008493</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.850076383917486</v>
+        <v>-2.850502976041938</v>
       </c>
       <c r="G265">
         <v>0.01400427470218801</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.896508690662425</v>
+        <v>-2.897102595822839</v>
       </c>
       <c r="G266">
         <v>0.02390569028472944</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.948565051557066</v>
+        <v>-2.948818823486726</v>
       </c>
       <c r="G267">
         <v>0.03080484853150156</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.004910836283473</v>
+        <v>-3.005255433796858</v>
       </c>
       <c r="G268">
         <v>0.03412474194028792</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.062550723468356</v>
+        <v>-3.063113825072636</v>
       </c>
       <c r="G269">
         <v>0.03538792347026121</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.123290460913941</v>
+        <v>-3.123434062637284</v>
       </c>
       <c r="G270">
         <v>0.03289771531596686</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.184266748629698</v>
+        <v>-3.184431020821417</v>
       </c>
       <c r="G271">
         <v>0.02768187098122832</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.227041391936834</v>
+        <v>-3.22708509866834</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.275661874561904</v>
+        <v>-3.275708014944629</v>
       </c>
       <c r="G273">
         <v>0.01044569055742101</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.861823628665873</v>
+        <v>-2.864096990393325</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.910036852744906</v>
+        <v>-2.910550690318983</v>
       </c>
       <c r="G277">
         <v>0.02533864457837431</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.961931985335559</v>
+        <v>-2.962007773793221</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.016743031390693</v>
+        <v>-3.017909550317361</v>
       </c>
       <c r="G279">
         <v>0.0375182849664073</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.07461146695367</v>
+        <v>-3.076016449015895</v>
       </c>
       <c r="G280">
         <v>0.03797918390227872</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.135245945547502</v>
+        <v>-3.135770451946711</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.245133410904253</v>
+        <v>-3.245320654155897</v>
       </c>
       <c r="G283">
         <v>0.02274437080555003</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.875753192107012</v>
+        <v>-2.876039580961337</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.922088206108328</v>
+        <v>-2.922873539569958</v>
       </c>
       <c r="G288">
         <v>0.02606627037302189</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.973236778221789</v>
+        <v>-2.973769990031398</v>
       </c>
       <c r="G289">
         <v>0.03449447868243061</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.027005098608596</v>
+        <v>-3.02764706456106</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.084707550112419</v>
+        <v>-3.086037535070913</v>
       </c>
       <c r="G291">
         <v>0.04100735162852009</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.144961548485217</v>
+        <v>-3.145451189404878</v>
       </c>
       <c r="G292">
         <v>0.03812851434707665</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.20880423815477</v>
+        <v>-3.208931182096903</v>
       </c>
       <c r="G293">
         <v>0.03305956458146675</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.259313418412368</v>
+        <v>-3.259491411130343</v>
       </c>
       <c r="G294">
         <v>0.02447144202760199</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.306943245973264</v>
+        <v>-3.30713486093658</v>
       </c>
       <c r="G295">
         <v>0.01286499952592696</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.883762004089748</v>
+        <v>-2.885024342246831</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.931890512844198</v>
+        <v>-2.932581049928581</v>
       </c>
       <c r="G299">
         <v>0.02723173399584677</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.981491338133959</v>
+        <v>-2.982324197829004</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.035398305319989</v>
+        <v>-3.037267432169106</v>
       </c>
       <c r="G301">
         <v>0.04126619479792804</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.092131075189291</v>
+        <v>-3.09404432444056</v>
       </c>
       <c r="G302">
         <v>0.04216517920802842</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.152326698940295</v>
+        <v>-3.154189680789762</v>
       </c>
       <c r="G303">
         <v>0.04027843890619609</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.215815790200685</v>
+        <v>-3.217217918819654</v>
       </c>
       <c r="G304">
         <v>0.03428388919593883</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.271502098244436</v>
+        <v>-3.271609495328869</v>
       </c>
       <c r="G305">
         <v>0.02605368459123625</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.318160501035884</v>
+        <v>-3.318558420408686</v>
       </c>
       <c r="G306">
         <v>0.01357758315532842</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.893513099862549</v>
+        <v>-2.894000161913972</v>
       </c>
       <c r="G309">
         <v>0.01591002531321983</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.939148620121279</v>
+        <v>-2.939871543365724</v>
       </c>
       <c r="G310">
         <v>0.02786667660512387</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.989221836740125</v>
+        <v>-2.990357919051973</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.041931015100858</v>
+        <v>-3.045126325445583</v>
       </c>
       <c r="G312">
         <v>0.04219913561066213</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.09838780314031</v>
+        <v>-3.101771389347077</v>
       </c>
       <c r="G313">
         <v>0.04379598138417129</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.157842539638947</v>
+        <v>-3.160910042094301</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.221822142127218</v>
+        <v>-3.223490635998468</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.282215779644114</v>
+        <v>-3.282390759601352</v>
       </c>
       <c r="G316">
         <v>0.02649986563811124</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.327556659384811</v>
+        <v>-3.328058384539853</v>
       </c>
       <c r="G317">
         <v>0.01444246516859898</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.623166128467609</v>
+        <v>-2.623947738376442</v>
       </c>
       <c r="G32">
         <v>-0.009602698423600398</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.666540278045531</v>
+        <v>-2.668885107772032</v>
       </c>
       <c r="G38">
         <v>-0.001037641001958356</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.688227352834492</v>
+        <v>-2.689008962743327</v>
       </c>
       <c r="G41">
         <v>-0.003163710388641716</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.697540670854369</v>
+        <v>-2.698322280763202</v>
       </c>
       <c r="G42">
         <v>-0.006805327580247988</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.704509159147746</v>
+        <v>-2.705290769056579</v>
       </c>
       <c r="G43">
         <v>-0.0118074069174321</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.726977843845539</v>
+        <v>-2.729322673572038</v>
       </c>
       <c r="G46">
         <v>-0.006624815974158205</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.78435497089634</v>
+        <v>-2.785136580805174</v>
       </c>
       <c r="G53">
         <v>-0.01003490565268583</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.630600671180554</v>
+        <v>-2.630869998668257</v>
       </c>
       <c r="G80">
         <v>0.001211526913002636</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.644660991674861</v>
+        <v>-2.645155948527402</v>
       </c>
       <c r="G84">
         <v>0.002811364606022604</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.646411110835617</v>
+        <v>-2.646888661856025</v>
       </c>
       <c r="G85">
         <v>0.00512957579804274</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.657943881683559</v>
+        <v>-2.658421432703968</v>
       </c>
       <c r="G88">
         <v>0.003844935073758826</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.670471373810606</v>
+        <v>-2.671395923873924</v>
       </c>
       <c r="G92">
         <v>0.007083700228007306</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.737380238300034</v>
+        <v>-2.737619013810238</v>
       </c>
       <c r="G109">
         <v>0.01307030569571443</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.739938339923901</v>
+        <v>-2.740415890944308</v>
       </c>
       <c r="G110">
         <v>0.01442725770733633</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.74451895354284</v>
+        <v>-2.744757729053044</v>
       </c>
       <c r="G111">
         <v>0.008315440008234809</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.755764991070942</v>
+        <v>-2.756481317601554</v>
       </c>
       <c r="G114">
         <v>0.01544342430280699</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.772421290199993</v>
+        <v>-2.772690617687696</v>
       </c>
       <c r="G118">
         <v>0.01542618822146857</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.797492951596767</v>
+        <v>-2.797523503574265</v>
       </c>
       <c r="G124">
         <v>0.01614869492242343</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.845894841744636</v>
+        <v>-2.84617156328783</v>
       </c>
       <c r="G140">
         <v>0.01467130611407041</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.853946086878642</v>
+        <v>-2.854207090883491</v>
       </c>
       <c r="G143">
         <v>0.01636824530725134</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.856906556799835</v>
+        <v>-2.857183278343028</v>
       </c>
       <c r="G144">
         <v>0.01012873298633044</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.861997332012646</v>
+        <v>-2.862258336017495</v>
       </c>
       <c r="G146">
         <v>0.01275214261544599</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.867641550311843</v>
+        <v>-2.867902554316692</v>
       </c>
       <c r="G148">
         <v>0.01688624509120817</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.873546772615889</v>
+        <v>-2.874100215702276</v>
       </c>
       <c r="G150">
         <v>0.009292883062563373</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.887464449874589</v>
+        <v>-2.88833340468352</v>
       </c>
       <c r="G155">
         <v>0.01529063965418209</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.896069138094981</v>
+        <v>-2.896361577176517</v>
       </c>
       <c r="G158">
         <v>0.010906901439383</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.898760241575651</v>
+        <v>-2.899052680657186</v>
       </c>
       <c r="G159">
         <v>0.002418933877013973</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.91091027788031</v>
+        <v>-2.911463720966696</v>
       </c>
       <c r="G163">
         <v>0.01492324254286181</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.914717637302431</v>
+        <v>-2.915010076383967</v>
       </c>
       <c r="G164">
         <v>0.01626055346428368</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.930396296820009</v>
+        <v>-2.930688735901545</v>
       </c>
       <c r="G169">
         <v>0.006080720257954475</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.933072690095343</v>
+        <v>-2.933349411638536</v>
       </c>
       <c r="G170">
         <v>0.01234131559122487</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.020668953167392</v>
+        <v>-3.021254838663471</v>
       </c>
       <c r="G198">
         <v>-0.003776269648758712</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.776671491646665</v>
+        <v>-2.776785083879675</v>
       </c>
       <c r="G222">
         <v>0.01862098683253643</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.834476829214102</v>
+        <v>-2.834839732401895</v>
       </c>
       <c r="G223">
         <v>0.02068882194109101</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.891975542385704</v>
+        <v>-2.892188192415827</v>
       </c>
       <c r="G224">
         <v>0.02312095443318696</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.949688772341005</v>
+        <v>-2.949819937353617</v>
       </c>
       <c r="G225">
         <v>0.0204058542983736</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.876928019181471</v>
+        <v>-2.877428553940828</v>
       </c>
       <c r="G234">
         <v>0.02397559516241676</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.807392858736165</v>
+        <v>-2.807841789304932</v>
       </c>
       <c r="G243">
         <v>0.0120941191585846</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.85402692401342</v>
+        <v>-2.854711431055672</v>
       </c>
       <c r="G244">
         <v>0.02125618419672692</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.90833963280434</v>
+        <v>-2.908453717311382</v>
       </c>
       <c r="G245">
         <v>0.0258829695897973</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.964957586241798</v>
+        <v>-2.964995614410812</v>
       </c>
       <c r="G246">
         <v>0.02784389743225502</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.025090965550329</v>
+        <v>-3.025243078226385</v>
       </c>
       <c r="G247">
         <v>0.02987599481368752</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.131267142448071</v>
+        <v>-3.13134041327899</v>
       </c>
       <c r="G249">
         <v>0.02107833895112754</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.831628497570343</v>
+        <v>-2.831946139206366</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.878441975289696</v>
+        <v>-2.878670058035298</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.931034760947184</v>
+        <v>-2.931233206176866</v>
       </c>
       <c r="G256">
         <v>0.02858412731046478</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.987783106015744</v>
+        <v>-2.987812743531664</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.045790765591487</v>
+        <v>-3.045889988206328</v>
       </c>
       <c r="G258">
         <v>0.0331299527447062</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.107837263976691</v>
+        <v>-3.107981266036742</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.850502976041938</v>
+        <v>-2.85058829446683</v>
       </c>
       <c r="G265">
         <v>0.01400427470218801</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.897102595822839</v>
+        <v>-2.897365198725153</v>
       </c>
       <c r="G266">
         <v>0.02390569028472944</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.948818823486726</v>
+        <v>-2.948992784150331</v>
       </c>
       <c r="G267">
         <v>0.03080484853150156</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.005255433796858</v>
+        <v>-3.005508065257709</v>
       </c>
       <c r="G268">
         <v>0.03412474194028792</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.063113825072636</v>
+        <v>-3.063182079812549</v>
       </c>
       <c r="G269">
         <v>0.03538792347026121</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.184431020821417</v>
+        <v>-3.184483601747931</v>
       </c>
       <c r="G271">
         <v>0.02768187098122832</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.22708509866834</v>
+        <v>-3.227098387912082</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.864096990393325</v>
+        <v>-2.865417682440006</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.910550690318983</v>
+        <v>-2.910599627230799</v>
       </c>
       <c r="G277">
         <v>0.02533864457837431</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.962007773793221</v>
+        <v>-2.962044476477083</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.017909550317361</v>
+        <v>-3.017946253001223</v>
       </c>
       <c r="G279">
         <v>0.0375182849664073</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.076016449015895</v>
+        <v>-3.076065385927711</v>
       </c>
       <c r="G280">
         <v>0.03797918390227872</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.135770451946711</v>
+        <v>-3.135819388858527</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.198973878776509</v>
+        <v>-3.199010581460372</v>
       </c>
       <c r="G282">
         <v>0.03158792589061377</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.245320654155897</v>
+        <v>-3.245344226472711</v>
       </c>
       <c r="G283">
         <v>0.02274437080555003</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.876039580961337</v>
+        <v>-2.876418646555493</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.922873539569958</v>
+        <v>-2.922918876692148</v>
       </c>
       <c r="G288">
         <v>0.02606627037302189</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.973769990031398</v>
+        <v>-2.973896933973531</v>
       </c>
       <c r="G289">
         <v>0.03449447868243061</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.02764706456106</v>
+        <v>-3.027719603956566</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.086037535070913</v>
+        <v>-3.086209816135239</v>
       </c>
       <c r="G291">
         <v>0.04100735162852009</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.259491411130343</v>
+        <v>-3.259531850663264</v>
       </c>
       <c r="G294">
         <v>0.02447144202760199</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.885024342246831</v>
+        <v>-2.886282240438812</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.932581049928581</v>
+        <v>-2.932641853177639</v>
       </c>
       <c r="G299">
         <v>0.02723173399584677</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.982324197829004</v>
+        <v>-2.982448494504195</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.037267432169106</v>
+        <v>-3.03730840286666</v>
       </c>
       <c r="G301">
         <v>0.04126619479792804</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.154189680789762</v>
+        <v>-3.154210396902295</v>
       </c>
       <c r="G303">
         <v>0.04027843890619609</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.217217918819654</v>
+        <v>-3.217268946592631</v>
       </c>
       <c r="G304">
         <v>0.03428388919593883</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.318558420408686</v>
+        <v>-3.31858234131498</v>
       </c>
       <c r="G306">
         <v>0.01357758315532842</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.894000161913972</v>
+        <v>-2.894037817086385</v>
       </c>
       <c r="G309">
         <v>0.01591002531321983</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.939871543365724</v>
+        <v>-2.94003187484694</v>
       </c>
       <c r="G310">
         <v>0.02786667660512387</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.990357919051973</v>
+        <v>-2.99053110481212</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.045126325445583</v>
+        <v>-3.045372725892319</v>
       </c>
       <c r="G312">
         <v>0.04219913561066213</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.101771389347077</v>
+        <v>-3.101887638516415</v>
       </c>
       <c r="G313">
         <v>0.04379598138417129</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.160910042094301</v>
+        <v>-3.161008965338751</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.223490635998468</v>
+        <v>-3.223576704963985</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.282390759601352</v>
+        <v>-3.282405465692236</v>
       </c>
       <c r="G316">
         <v>0.02649986563811124</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.328058384539853</v>
+        <v>-3.328126710957914</v>
       </c>
       <c r="G317">
         <v>0.01444246516859898</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.73707277177425</v>
+        <v>-2.737854381683084</v>
       </c>
       <c r="G47">
         <v>-0.01563258210258223</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.79210506909855</v>
+        <v>-2.793668288916217</v>
       </c>
       <c r="G54">
         <v>-0.0112665028607557</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.650848864563618</v>
+        <v>-2.651295863606526</v>
       </c>
       <c r="G86">
         <v>0.00386312157375901</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.654795921125842</v>
+        <v>-2.655034696636046</v>
       </c>
       <c r="G87">
         <v>0.00385286760525938</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.744757729053044</v>
+        <v>-2.744948546753615</v>
       </c>
       <c r="G111">
         <v>0.008315440008234809</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.748192422930594</v>
+        <v>-2.749386300481612</v>
       </c>
       <c r="G112">
         <v>0.00899688733633508</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.7685744089438</v>
+        <v>-2.768604960921298</v>
       </c>
       <c r="G117">
         <v>0.01642670499268939</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.772690617687696</v>
+        <v>-2.773216126517736</v>
       </c>
       <c r="G118">
         <v>0.01542618822146857</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.84617156328783</v>
+        <v>-2.846448284831021</v>
       </c>
       <c r="G140">
         <v>0.01467130611407041</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.882135743297935</v>
+        <v>-2.882704903922663</v>
       </c>
       <c r="G153">
         <v>0.01324753762865982</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.893408462357986</v>
+        <v>-2.893977622982715</v>
       </c>
       <c r="G157">
         <v>0.01224452908901297</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.899052680657186</v>
+        <v>-2.89989856282511</v>
       </c>
       <c r="G159">
         <v>0.002418933877013973</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.957342334960982</v>
+        <v>-2.957626411606844</v>
       </c>
       <c r="G178">
         <v>0.006168061173132067</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.96978481034718</v>
+        <v>-2.970352963638901</v>
       </c>
       <c r="G182">
         <v>0.008350036696283647</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.979241728505146</v>
+        <v>-2.979819251565548</v>
       </c>
       <c r="G185">
         <v>-0.0003166973407214835</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.986039985592148</v>
+        <v>-2.986332424673684</v>
       </c>
       <c r="G187">
         <v>-0.0007607923640213787</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.989293901927888</v>
+        <v>-2.990162856736819</v>
       </c>
       <c r="G188">
         <v>0.00215906681232414</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.001443938232542</v>
+        <v>-3.002304530605801</v>
       </c>
       <c r="G192">
         <v>0.0003475735116098</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.834839732401895</v>
+        <v>-2.835180509100924</v>
       </c>
       <c r="G223">
         <v>0.02068882194109101</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.807841789304932</v>
+        <v>-2.807955873811975</v>
       </c>
       <c r="G243">
         <v>0.0120941191585846</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.854711431055672</v>
+        <v>-2.854856136272326</v>
       </c>
       <c r="G244">
         <v>0.02125618419672692</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.908453717311382</v>
+        <v>-2.909100196184619</v>
       </c>
       <c r="G245">
         <v>0.0258829695897973</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.223952550929209</v>
+        <v>-3.223972071224765</v>
       </c>
       <c r="G251">
         <v>0.006792538738761733</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.831946139206366</v>
+        <v>-2.831970944860076</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.878670058035298</v>
+        <v>-2.878744474996429</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.987812743531664</v>
+        <v>-2.988209633991028</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.107981266036742</v>
+        <v>-3.108130099959003</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.16063043154133</v>
+        <v>-3.160725852719808</v>
       </c>
       <c r="G260">
         <v>0.02601223173090694</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.205771885898765</v>
+        <v>-3.205886625787049</v>
       </c>
       <c r="G261">
         <v>0.01866105407224383</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.85058829446683</v>
+        <v>-2.850605358151808</v>
       </c>
       <c r="G265">
         <v>0.01400427470218801</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.005508065257709</v>
+        <v>-3.0055933836826</v>
       </c>
       <c r="G268">
         <v>0.03412474194028792</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.227098387912082</v>
+        <v>-3.227317793693749</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.865417682440006</v>
+        <v>-2.865429916667961</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.962044476477083</v>
+        <v>-2.962120264934745</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.135819388858527</v>
+        <v>-3.135953965366021</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.876418646555493</v>
+        <v>-2.876454916253246</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.027719603956566</v>
+        <v>-3.02828202053493</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.086209816135239</v>
+        <v>-3.086434499250738</v>
       </c>
       <c r="G291">
         <v>0.04100735162852009</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.886282240438812</v>
+        <v>-2.886948537935123</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.982448494504195</v>
+        <v>-2.982651620363906</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.271609495328869</v>
+        <v>-3.27162015792499</v>
       </c>
       <c r="G305">
         <v>0.02605368459123625</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.894037817086385</v>
+        <v>-2.894048575707074</v>
       </c>
       <c r="G309">
         <v>0.01591002531321983</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.99053110481212</v>
+        <v>-2.990762415156945</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.045372725892319</v>
+        <v>-3.045437277616457</v>
       </c>
       <c r="G312">
         <v>0.04219913561066213</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.101887638516415</v>
+        <v>-3.102046922168512</v>
       </c>
       <c r="G313">
         <v>0.04379598138417129</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.161008965338751</v>
+        <v>-3.161035861890476</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.223576704963985</v>
+        <v>-3.223592842895022</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.637884714963193</v>
+        <v>-2.638666324872027</v>
       </c>
       <c r="G34">
         <v>-0.005951346593815021</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.698322280763202</v>
+        <v>-2.699103890672036</v>
       </c>
       <c r="G42">
         <v>-0.006805327580247988</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.713696166061039</v>
+        <v>-2.714604087076455</v>
       </c>
       <c r="G44">
         <v>-0.01675376103794646</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.740415890944308</v>
+        <v>-2.740654666454512</v>
       </c>
       <c r="G110">
         <v>0.01442725770733633</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.78498767287588</v>
+        <v>-2.785243854218215</v>
       </c>
       <c r="G121">
         <v>0.01311507574423376</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.908210811963963</v>
+        <v>-2.9085032510455</v>
       </c>
       <c r="G162">
         <v>0.009270148381448129</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.963562061654565</v>
+        <v>-2.963854500736101</v>
       </c>
       <c r="G180">
         <v>0.004652997790789537</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.972459188956491</v>
+        <v>-2.97361322774429</v>
       </c>
       <c r="G183">
         <v>0.004512867412633348</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.031011551005647</v>
+        <v>-3.031303990087183</v>
       </c>
       <c r="G201">
         <v>-0.003166908507603816</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.0804881176642</v>
+        <v>-3.08068156911966</v>
       </c>
       <c r="G228">
         <v>0.0077741416922259</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.128093919621766</v>
+        <v>-3.128309876188533</v>
       </c>
       <c r="G229">
         <v>0.004037774873699385</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.877428553940828</v>
+        <v>-2.877874527453646</v>
       </c>
       <c r="G234">
         <v>0.02397559516241676</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.048604470498828</v>
+        <v>-3.048676716468342</v>
       </c>
       <c r="G237">
         <v>0.02390554587618854</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.854856136272326</v>
+        <v>-2.855046277117396</v>
       </c>
       <c r="G244">
         <v>0.02125618419672692</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.909100196184619</v>
+        <v>-2.90929033702969</v>
       </c>
       <c r="G245">
         <v>0.0258829695897973</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.964995614410812</v>
+        <v>-2.965109698917854</v>
       </c>
       <c r="G246">
         <v>0.02784389743225502</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.831970944860076</v>
+        <v>-2.832070167474917</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.878744474996429</v>
+        <v>-2.878794086303849</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.988209633991028</v>
+        <v>-2.988284050952159</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.108130099959003</v>
+        <v>-3.108154905612714</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.0055933836826</v>
+        <v>-3.005610447367578</v>
       </c>
       <c r="G268">
         <v>0.03412474194028792</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.063182079812549</v>
+        <v>-3.063318589292374</v>
       </c>
       <c r="G269">
         <v>0.03538792347026121</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.184483601747931</v>
+        <v>-3.184555770910985</v>
       </c>
       <c r="G271">
         <v>0.02768187098122832</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.227317793693749</v>
+        <v>-3.227416310924904</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.865429916667961</v>
+        <v>-2.865442150895914</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.962120264934745</v>
+        <v>-2.962396885997812</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.017946253001223</v>
+        <v>-3.017982955685084</v>
       </c>
       <c r="G279">
         <v>0.0375182849664073</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.135953965366021</v>
+        <v>-3.136015136505793</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.876454916253246</v>
+        <v>-2.876590927619818</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.922918876692148</v>
+        <v>-2.922989649855408</v>
       </c>
       <c r="G288">
         <v>0.02606627037302189</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.02828202053493</v>
+        <v>-3.028421564365995</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.259531850663264</v>
+        <v>-3.259542320823145</v>
       </c>
       <c r="G294">
         <v>0.02447144202760199</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.30713486093658</v>
+        <v>-3.307152331610034</v>
       </c>
       <c r="G295">
         <v>0.01286499952592696</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.886948537935123</v>
+        <v>-2.88750966623146</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.982651620363906</v>
+        <v>-2.982665431105594</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.09404432444056</v>
+        <v>-3.094134094261528</v>
       </c>
       <c r="G302">
         <v>0.04216517920802842</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.27162015792499</v>
+        <v>-3.271662668439515</v>
       </c>
       <c r="G305">
         <v>0.02605368459123625</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.31858234131498</v>
+        <v>-3.318592957287781</v>
       </c>
       <c r="G306">
         <v>0.01357758315532842</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.94003187484694</v>
+        <v>-2.940139461053834</v>
       </c>
       <c r="G310">
         <v>0.02786667660512387</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.990762415156945</v>
+        <v>-2.990885091465747</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.161035861890476</v>
+        <v>-3.161079944202355</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.223592842895022</v>
+        <v>-3.223646635998467</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.282405465692236</v>
+        <v>-3.282419947068274</v>
       </c>
       <c r="G316">
         <v>0.02649986563811124</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.658790179843323</v>
+        <v>-2.659571789752155</v>
       </c>
       <c r="G37">
         <v>-0.005821524070372286</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.675853596065408</v>
+        <v>-2.676635205974242</v>
       </c>
       <c r="G39">
         <v>-0.0007078854315245575</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.689008962743327</v>
+        <v>-2.68979057265216</v>
       </c>
       <c r="G41">
         <v>-0.003163710388641716</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.705290769056579</v>
+        <v>-2.706853988874247</v>
       </c>
       <c r="G43">
         <v>-0.0118074069174321</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.721572575369828</v>
+        <v>-2.722354185278665</v>
       </c>
       <c r="G45">
         <v>0.0008956498806258484</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.729322673572038</v>
+        <v>-2.730104283480876</v>
       </c>
       <c r="G46">
         <v>-0.006624815974158205</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.752572968178668</v>
+        <v>-2.754136187996334</v>
       </c>
       <c r="G49">
         <v>-0.000881424153639121</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.761104676289711</v>
+        <v>-2.761886286198545</v>
       </c>
       <c r="G50">
         <v>-0.008534889379044786</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.624382246314302</v>
+        <v>-2.62482924535721</v>
       </c>
       <c r="G78">
         <v>-0.0001491478390756029</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.627803794046488</v>
+        <v>-2.62807312153419</v>
       </c>
       <c r="G79">
         <v>0.0006984387540325265</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.630869998668257</v>
+        <v>-2.631525221243872</v>
       </c>
       <c r="G80">
         <v>0.001211526913002636</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.634738545443355</v>
+        <v>-2.635216096463762</v>
       </c>
       <c r="G81">
         <v>0.001598147475211587</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.637235543112221</v>
+        <v>-2.638459972640741</v>
       </c>
       <c r="G82">
         <v>0.001818886910961659</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.641655891008088</v>
+        <v>-2.641912072350425</v>
       </c>
       <c r="G83">
         <v>0.001310445869492582</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.645155948527402</v>
+        <v>-2.645602947570311</v>
       </c>
       <c r="G84">
         <v>0.002811364606022604</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.646888661856025</v>
+        <v>-2.649055047279993</v>
       </c>
       <c r="G85">
         <v>0.00512957579804274</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.651295863606526</v>
+        <v>-2.652728516667751</v>
       </c>
       <c r="G86">
         <v>0.00386312157375901</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.655034696636046</v>
+        <v>-2.656228574187067</v>
       </c>
       <c r="G87">
         <v>0.00385286760525938</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.658421432703968</v>
+        <v>-2.659919449406954</v>
       </c>
       <c r="G88">
         <v>0.003844935073758826</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.662780676644833</v>
+        <v>-2.663306185474872</v>
       </c>
       <c r="G89">
         <v>0.003753514644149636</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.665434693887963</v>
+        <v>-2.667027612672261</v>
       </c>
       <c r="G90">
         <v>0.004937404822593638</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.668856241620148</v>
+        <v>-2.670306300513505</v>
       </c>
       <c r="G91">
         <v>0.006112500484759753</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.671395923873924</v>
+        <v>-2.674374551447767</v>
       </c>
       <c r="G92">
         <v>0.007083700228007306</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.675438896055413</v>
+        <v>-2.677874608967085</v>
       </c>
       <c r="G93">
         <v>0.008371256771817492</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.679164582939568</v>
+        <v>-2.681565484186977</v>
       </c>
       <c r="G94">
         <v>0.008077046085790851</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.682625569107848</v>
+        <v>-2.685256359406861</v>
       </c>
       <c r="G95">
         <v>0.008350400511480949</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.687788168739997</v>
+        <v>-2.688947234626752</v>
       </c>
       <c r="G96">
         <v>0.00596382549377239</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.689941955905862</v>
+        <v>-2.692824667860442</v>
       </c>
       <c r="G97">
         <v>0.009341819766003567</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.693554321338618</v>
+        <v>-2.696342131211892</v>
       </c>
       <c r="G98">
         <v>0.009067838363122416</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.697375923842035</v>
+        <v>-2.700033006431779</v>
       </c>
       <c r="G99">
         <v>0.009795022787041585</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.701652398309005</v>
+        <v>-2.703515658118962</v>
       </c>
       <c r="G100">
         <v>0.006620554126728351</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.704592135334015</v>
+        <v>-2.707618720717492</v>
       </c>
       <c r="G101">
         <v>0.01401730877925322</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.70956854403742</v>
+        <v>-2.710897408558738</v>
       </c>
       <c r="G102">
         <v>0.008992373188601022</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.713263678944075</v>
+        <v>-2.715204435003207</v>
       </c>
       <c r="G103">
         <v>0.009059489651452868</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.717019917805727</v>
+        <v>-2.719355455411369</v>
       </c>
       <c r="G104">
         <v>0.01186036743918306</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.721326944250197</v>
+        <v>-2.723046330631257</v>
       </c>
       <c r="G105">
         <v>0.01375862336903522</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.724301492939474</v>
+        <v>-2.726737205851147</v>
       </c>
       <c r="G106">
         <v>0.01028795078066658</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.729455573198085</v>
+        <v>-2.730458633048533</v>
       </c>
       <c r="G107">
         <v>0.0116924590576839</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.733880180780718</v>
+        <v>-2.734388283778626</v>
       </c>
       <c r="G108">
         <v>0.01380203486859233</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.737619013810238</v>
+        <v>-2.738539304186787</v>
       </c>
       <c r="G109">
         <v>0.01307030569571443</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.740654666454512</v>
+        <v>-2.742230179406679</v>
       </c>
       <c r="G110">
         <v>0.01442725770733633</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.744948546753615</v>
+        <v>-2.745921054626564</v>
       </c>
       <c r="G111">
         <v>0.008315440008234809</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.749386300481612</v>
+        <v>-2.749642481823949</v>
       </c>
       <c r="G112">
         <v>0.00899688733633508</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.752538520726096</v>
+        <v>-2.753572132554043</v>
       </c>
       <c r="G113">
         <v>0.0143275399721936</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.756481317601554</v>
+        <v>-2.757723152962206</v>
       </c>
       <c r="G114">
         <v>0.01544342430280699</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.760649743841849</v>
+        <v>-2.761414028182093</v>
       </c>
       <c r="G115">
         <v>0.01366306607147871</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.764592540717308</v>
+        <v>-2.765343678912187</v>
       </c>
       <c r="G116">
         <v>0.007424241333580106</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.768604960921298</v>
+        <v>-2.769255923810145</v>
       </c>
       <c r="G117">
         <v>0.01642670499268939</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.780819246635581</v>
+        <v>-2.781552978998327</v>
       </c>
       <c r="G120">
         <v>0.01680745094551206</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.789156099116175</v>
+        <v>-2.789173504948308</v>
       </c>
       <c r="G122">
         <v>0.01607793208353292</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.841080788075018</v>
+        <v>-2.841634231161405</v>
       </c>
       <c r="G138">
         <v>0.01676115628141917</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.843211093366634</v>
+        <v>-2.844317979539407</v>
       </c>
       <c r="G139">
         <v>0.01592162758853211</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.846448284831021</v>
+        <v>-2.847847610085329</v>
       </c>
       <c r="G140">
         <v>0.01467130611407041</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.849132033209022</v>
+        <v>-2.850238919381796</v>
       </c>
       <c r="G141">
         <v>0.01435904034644642</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.851815781587025</v>
+        <v>-2.85349182838453</v>
       </c>
       <c r="G142">
         <v>0.0189507339499364</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.854207090883491</v>
+        <v>-2.855590698599461</v>
       </c>
       <c r="G143">
         <v>0.01636824530725134</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.857183278343028</v>
+        <v>-2.859705207308459</v>
       </c>
       <c r="G144">
         <v>0.01012873298633044</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.85986702672103</v>
+        <v>-2.862388955686459</v>
       </c>
       <c r="G145">
         <v>0.01284834394855938</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.862258336017495</v>
+        <v>-2.86534942560765</v>
       </c>
       <c r="G146">
         <v>0.01275214261544599</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.865234523477033</v>
+        <v>-2.868033173985655</v>
       </c>
       <c r="G147">
         <v>0.01369446861850965</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.867902554316692</v>
+        <v>-2.871562804531576</v>
       </c>
       <c r="G148">
         <v>0.01688624509120817</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.870863024237889</v>
+        <v>-2.873092514121781</v>
       </c>
       <c r="G149">
         <v>0.01592430636733444</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.874100215702276</v>
+        <v>-2.876637862206048</v>
       </c>
       <c r="G150">
         <v>0.009292883062563373</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.876491524998741</v>
+        <v>-2.880167492751974</v>
       </c>
       <c r="G151">
         <v>0.01054894146958141</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.879451994919934</v>
+        <v>-2.882851241129968</v>
       </c>
       <c r="G152">
         <v>0.01837454940549499</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.882704903922663</v>
+        <v>-2.886396589214238</v>
       </c>
       <c r="G153">
         <v>0.01324753762865982</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.88508049568079</v>
+        <v>-2.887910581266097</v>
       </c>
       <c r="G154">
         <v>0.01858036020926024</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.88833340468352</v>
+        <v>-2.892317529056628</v>
       </c>
       <c r="G155">
         <v>0.01529063965418209</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.891309592143057</v>
+        <v>-2.894708838353094</v>
       </c>
       <c r="G156">
         <v>0.01326810730434058</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.893977622982715</v>
+        <v>-2.898254186437363</v>
       </c>
       <c r="G157">
         <v>0.01224452908901297</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.896361577176517</v>
+        <v>-2.901214656358557</v>
       </c>
       <c r="G158">
         <v>0.010906901439383</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.89989856282511</v>
+        <v>-2.903882687198214</v>
       </c>
       <c r="G159">
         <v>0.002418933877013973</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.903151471827838</v>
+        <v>-2.906858874657753</v>
       </c>
       <c r="G160">
         <v>0.01169348174544749</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.906127659287376</v>
+        <v>-2.910111783660484</v>
       </c>
       <c r="G161">
         <v>0.01517240403618092</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.9085032510455</v>
+        <v>-2.913072253581678</v>
       </c>
       <c r="G162">
         <v>0.009270148381448129</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.911463720966696</v>
+        <v>-2.916048441041214</v>
       </c>
       <c r="G163">
         <v>0.01492324254286181</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.915010076383967</v>
+        <v>-2.918147311256146</v>
       </c>
       <c r="G164">
         <v>0.01626055346428368</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.917953821433811</v>
+        <v>-2.921969380883602</v>
       </c>
       <c r="G165">
         <v>0.003918247581070955</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.920930008893348</v>
+        <v>-2.924360690180071</v>
       </c>
       <c r="G166">
         <v>0.003135928098317753</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.923021524005613</v>
+        <v>-2.9276135991828</v>
       </c>
       <c r="G167">
         <v>0.001923633971310901</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.92714338781727</v>
+        <v>-2.931158947267068</v>
       </c>
       <c r="G168">
         <v>0.009306727307306417</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.930688735901545</v>
+        <v>-2.934119417188263</v>
       </c>
       <c r="G169">
         <v>0.006080720257954475</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.933349411638536</v>
+        <v>-2.935925848321659</v>
       </c>
       <c r="G170">
         <v>0.01234131559122487</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.936318243995402</v>
+        <v>-2.939763635487457</v>
       </c>
       <c r="G171">
         <v>0.008566318559781627</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.93927135881393</v>
+        <v>-2.9430175518232</v>
       </c>
       <c r="G172">
         <v>0.005126343443110914</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.942531622919329</v>
+        <v>-2.945408861119665</v>
       </c>
       <c r="G173">
         <v>0.005111379653327974</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.944921924882788</v>
+        <v>-2.949229923414116</v>
       </c>
       <c r="G174">
         <v>0.007452725986485165</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.948759712048589</v>
+        <v>-2.951328793629045</v>
       </c>
       <c r="G175">
         <v>0.008344182939654776</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.951427742888246</v>
+        <v>-2.955443302338046</v>
       </c>
       <c r="G176">
         <v>0.005354075967382355</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.954388212809449</v>
+        <v>-2.958403772259238</v>
       </c>
       <c r="G177">
         <v>0.01326240333778594</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.957626411606844</v>
+        <v>-2.960210203392633</v>
       </c>
       <c r="G178">
         <v>0.006168061173132067</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.960309152651837</v>
+        <v>-2.963478829933709</v>
       </c>
       <c r="G179">
         <v>-0.0007854949262614541</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.963854500736101</v>
+        <v>-2.9664392998549</v>
       </c>
       <c r="G180">
         <v>0.004652997790789537</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.966246817365571</v>
+        <v>-2.9702770870207</v>
       </c>
       <c r="G181">
         <v>0.003647441565758802</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.970352963638901</v>
+        <v>-2.973237556941899</v>
       </c>
       <c r="G182">
         <v>0.008350036696283647</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.97361322774429</v>
+        <v>-2.976198026863091</v>
       </c>
       <c r="G183">
         <v>0.004512867412633348</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.976281258583954</v>
+        <v>-2.979451943198828</v>
       </c>
       <c r="G184">
         <v>0.004903808780156615</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.979819251565548</v>
+        <v>-2.982703844868554</v>
       </c>
       <c r="G185">
         <v>-0.0003166973407214835</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.982788083922425</v>
+        <v>-2.985096161498023</v>
       </c>
       <c r="G186">
         <v>0.00325712311826265</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.986332424673684</v>
+        <v>-2.988348063167751</v>
       </c>
       <c r="G187">
         <v>-0.0007607923640213787</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.990162856736819</v>
+        <v>-2.991600972170483</v>
       </c>
       <c r="G188">
         <v>0.00215906681232414</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.992545803597603</v>
+        <v>-2.994285727881489</v>
       </c>
       <c r="G189">
         <v>-0.003411738866960667</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.995506273518804</v>
+        <v>-2.996661319639615</v>
       </c>
       <c r="G190">
         <v>0.005685210826494314</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.998760189854536</v>
+        <v>-3.000499106805416</v>
       </c>
       <c r="G191">
         <v>0.005509727792404107</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.002304530605801</v>
+        <v>-3.003751008475138</v>
       </c>
       <c r="G192">
         <v>0.0003475735116098</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.005274370295677</v>
+        <v>-3.007003917477866</v>
       </c>
       <c r="G193">
         <v>0.001488875826819114</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.008241187986529</v>
+        <v>-3.009964387399061</v>
       </c>
       <c r="G194">
         <v>-0.001526196404925961</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.012063257613996</v>
+        <v>-3.012648135777065</v>
       </c>
       <c r="G195">
         <v>-0.003032626063578236</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.014749020658009</v>
+        <v>-3.015901044779796</v>
       </c>
       <c r="G196">
         <v>-0.003311815772749638</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.017415036831651</v>
+        <v>-3.018862522033999</v>
       </c>
       <c r="G197">
         <v>-0.001125158261897408</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.021254838663471</v>
+        <v>-3.022114423703723</v>
       </c>
       <c r="G198">
         <v>-0.003776269648758712</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.024790816979054</v>
+        <v>-3.025367332706452</v>
       </c>
       <c r="G199">
         <v>-0.004027800303089912</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.027759649335924</v>
+        <v>-3.028620241709183</v>
       </c>
       <c r="G200">
         <v>6.194527063502209e-05</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.03722492992957</v>
+        <v>-3.03751736901111</v>
       </c>
       <c r="G203">
         <v>-0.001197946477574319</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.726823238580977</v>
+        <v>-2.729346459370595</v>
       </c>
       <c r="G221">
         <v>0.009998772403746248</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.776785083879675</v>
+        <v>-2.783949675003704</v>
       </c>
       <c r="G222">
         <v>0.01862098683253643</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.835180509100924</v>
+        <v>-2.838451868977899</v>
       </c>
       <c r="G223">
         <v>0.02068882194109101</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.892188192415827</v>
+        <v>-2.894482851956329</v>
       </c>
       <c r="G224">
         <v>0.02312095443318696</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.949819937353617</v>
+        <v>-2.949951102366227</v>
       </c>
       <c r="G225">
         <v>0.0204058542983736</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.99159272062959</v>
+        <v>-2.993425030732123</v>
       </c>
       <c r="G226">
         <v>0.01328028391387326</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.035735658312363</v>
+        <v>-3.038561108410111</v>
       </c>
       <c r="G227">
         <v>0.01441481787610777</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.08068156911966</v>
+        <v>-3.083610174932924</v>
       </c>
       <c r="G228">
         <v>0.0077741416922259</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.128309876188533</v>
+        <v>-3.129536157078361</v>
       </c>
       <c r="G229">
         <v>0.004037774873699385</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.775658351523675</v>
+        <v>-2.781447483580356</v>
       </c>
       <c r="G232">
         <v>0.01213956698753416</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.824407470739229</v>
+        <v>-2.83408269666071</v>
       </c>
       <c r="G233">
         <v>0.02002322752792507</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.877874527453646</v>
+        <v>-2.887475736219935</v>
       </c>
       <c r="G234">
         <v>0.02397559516241676</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.936020562940962</v>
+        <v>-2.942497820956358</v>
       </c>
       <c r="G235">
         <v>0.0256494055262837</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.996755969453208</v>
+        <v>-2.998619047889846</v>
       </c>
       <c r="G236">
         <v>0.02610538406158769</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.048676716468342</v>
+        <v>-3.049759983575515</v>
       </c>
       <c r="G237">
         <v>0.02390554587618854</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.091850899464913</v>
+        <v>-3.093114995552566</v>
       </c>
       <c r="G238">
         <v>0.02054939964416347</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.137452607162408</v>
+        <v>-3.137936902261365</v>
       </c>
       <c r="G239">
         <v>0.01059290032665572</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.18405666710207</v>
+        <v>-3.184538618097413</v>
       </c>
       <c r="G240">
         <v>0.005325892937641352</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.807955873811975</v>
+        <v>-2.81418664081562</v>
       </c>
       <c r="G243">
         <v>0.0120941191585846</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.855046277117396</v>
+        <v>-2.865883112901137</v>
       </c>
       <c r="G244">
         <v>0.02125618419672692</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.90929033702969</v>
+        <v>-2.919973225408687</v>
       </c>
       <c r="G245">
         <v>0.0258829695897973</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.965109698917854</v>
+        <v>-2.972040938793478</v>
       </c>
       <c r="G246">
         <v>0.02784389743225502</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.025243078226385</v>
+        <v>-3.030112644650092</v>
       </c>
       <c r="G247">
         <v>0.02987599481368752</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.087619674138161</v>
+        <v>-3.087629853707338</v>
       </c>
       <c r="G248">
         <v>0.02717491452449394</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.13134041327899</v>
+        <v>-3.1337311355252</v>
       </c>
       <c r="G249">
         <v>0.02107833895112754</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.177430656839678</v>
+        <v>-3.178243765309328</v>
       </c>
       <c r="G250">
         <v>0.01591473389529829</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.223972071224765</v>
+        <v>-3.224538015953462</v>
       </c>
       <c r="G251">
         <v>0.006792538738761733</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.832070167474917</v>
+        <v>-2.838878663055645</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.878794086303849</v>
+        <v>-2.891234182806454</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.931233206176866</v>
+        <v>-2.943950082001421</v>
       </c>
       <c r="G256">
         <v>0.02858412731046478</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.988284050952159</v>
+        <v>-2.997916767526268</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.045889988206328</v>
+        <v>-3.052314220133412</v>
       </c>
       <c r="G258">
         <v>0.0331299527447062</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.108154905612714</v>
+        <v>-3.11050862290826</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.160725852719808</v>
+        <v>-3.162435786606654</v>
       </c>
       <c r="G260">
         <v>0.02601223173090694</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.205886625787049</v>
+        <v>-3.207582054382438</v>
       </c>
       <c r="G261">
         <v>0.01866105407224383</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.253261615898485</v>
+        <v>-3.253778485803648</v>
       </c>
       <c r="G262">
         <v>0.009161081613008493</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.850605358151808</v>
+        <v>-2.858897344617218</v>
       </c>
       <c r="G265">
         <v>0.01400427470218801</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.897365198725153</v>
+        <v>-2.909097442309392</v>
       </c>
       <c r="G266">
         <v>0.02390569028472944</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.948992784150331</v>
+        <v>-2.959828737767185</v>
       </c>
       <c r="G267">
         <v>0.03080484853150156</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.005610447367578</v>
+        <v>-3.01465625992533</v>
       </c>
       <c r="G268">
         <v>0.03412474194028792</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.063318589292374</v>
+        <v>-3.072048796538256</v>
       </c>
       <c r="G269">
         <v>0.03538792347026121</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.123434062637284</v>
+        <v>-3.128149321424179</v>
       </c>
       <c r="G270">
         <v>0.03289771531596686</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.184555770910985</v>
+        <v>-3.184667577385882</v>
       </c>
       <c r="G271">
         <v>0.02768187098122832</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.227416310924904</v>
+        <v>-3.229813167729944</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.275708014944629</v>
+        <v>-3.276008126138307</v>
       </c>
       <c r="G273">
         <v>0.01044569055742101</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.865442150895914</v>
+        <v>-2.87285407532947</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.910599627230799</v>
+        <v>-2.923631935511125</v>
       </c>
       <c r="G277">
         <v>0.02533864457837431</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.962396885997812</v>
+        <v>-2.976216743951547</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.017982955685084</v>
+        <v>-3.029980930667849</v>
       </c>
       <c r="G279">
         <v>0.0375182849664073</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.076065385927711</v>
+        <v>-3.083991991420082</v>
       </c>
       <c r="G280">
         <v>0.03797918390227872</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.136015136505793</v>
+        <v>-3.140533448405018</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.199010581460372</v>
+        <v>-3.19941826447763</v>
       </c>
       <c r="G282">
         <v>0.03158792589061377</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.245344226472711</v>
+        <v>-3.24693421743605</v>
       </c>
       <c r="G283">
         <v>0.02274437080555003</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.293264863692725</v>
+        <v>-3.293528840600078</v>
       </c>
       <c r="G284">
         <v>0.01211102865760549</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.876590927619818</v>
+        <v>-2.885531249982637</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.922989649855408</v>
+        <v>-2.935483658410539</v>
       </c>
       <c r="G288">
         <v>0.02606627037302189</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.973896933973531</v>
+        <v>-2.988203228622369</v>
       </c>
       <c r="G289">
         <v>0.03449447868243061</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.028421564365995</v>
+        <v>-3.039984912780089</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.086434499250738</v>
+        <v>-3.095173769281931</v>
       </c>
       <c r="G291">
         <v>0.04100735162852009</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.145451189404878</v>
+        <v>-3.15138756190031</v>
       </c>
       <c r="G292">
         <v>0.03812851434707665</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.208931182096903</v>
+        <v>-3.209761513314905</v>
       </c>
       <c r="G293">
         <v>0.03305956458146675</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.259542320823145</v>
+        <v>-3.261076354875973</v>
       </c>
       <c r="G294">
         <v>0.02447144202760199</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.307152331610034</v>
+        <v>-3.307733630448004</v>
       </c>
       <c r="G295">
         <v>0.01286499952592696</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.88750966623146</v>
+        <v>-2.895052561830836</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.932641853177639</v>
+        <v>-2.945188728468512</v>
       </c>
       <c r="G299">
         <v>0.02723173399584677</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.982665431105594</v>
+        <v>-2.996519772472533</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.03730840286666</v>
+        <v>-3.048765442939055</v>
       </c>
       <c r="G301">
         <v>0.04126619479792804</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.094134094261528</v>
+        <v>-3.103723384256766</v>
       </c>
       <c r="G302">
         <v>0.04216517920802842</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.154210396902295</v>
+        <v>-3.159836879332028</v>
       </c>
       <c r="G303">
         <v>0.04027843890619609</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.217268946592631</v>
+        <v>-3.218600585828903</v>
       </c>
       <c r="G304">
         <v>0.03428388919593883</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.271662668439515</v>
+        <v>-3.272831621228401</v>
       </c>
       <c r="G305">
         <v>0.02605368459123625</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.318592957287781</v>
+        <v>-3.319375437074084</v>
       </c>
       <c r="G306">
         <v>0.01357758315532842</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.894048575707074</v>
+        <v>-2.902508326638444</v>
       </c>
       <c r="G309">
         <v>0.01591002531321983</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.940139461053834</v>
+        <v>-2.952453669354786</v>
       </c>
       <c r="G310">
         <v>0.02786667660512387</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.990885091465747</v>
+        <v>-3.003508688441254</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.045437277616457</v>
+        <v>-3.056053281612564</v>
       </c>
       <c r="G312">
         <v>0.04219913561066213</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.102046922168512</v>
+        <v>-3.111365498880904</v>
       </c>
       <c r="G313">
         <v>0.04379598138417129</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.161079944202355</v>
+        <v>-3.167135294096488</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.223646635998467</v>
+        <v>-3.22534859919333</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.282419947068274</v>
+        <v>-3.282837733623921</v>
       </c>
       <c r="G316">
         <v>0.02649986563811124</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.328126710957914</v>
+        <v>-3.329098416430344</v>
       </c>
       <c r="G317">
         <v>0.01444246516859898</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgCu_data.xlsx
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.620960698582117</v>
+        <v>-2.621138370137323</v>
       </c>
       <c r="G77">
         <v>5.941373718831855e-05</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.894482851956329</v>
+        <v>-2.894574317700576</v>
       </c>
       <c r="G224">
         <v>0.02312095443318696</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.83408269666071</v>
+        <v>-2.834095263145587</v>
       </c>
       <c r="G233">
         <v>0.02002322752792507</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.998619047889846</v>
+        <v>-2.998693802052105</v>
       </c>
       <c r="G236">
         <v>0.02610538406158769</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.81418664081562</v>
+        <v>-2.81424689136284</v>
       </c>
       <c r="G243">
         <v>0.0120941191585846</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.865883112901137</v>
+        <v>-2.865941500208505</v>
       </c>
       <c r="G244">
         <v>0.02125618419672692</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.919973225408687</v>
+        <v>-2.92077630385141</v>
       </c>
       <c r="G245">
         <v>0.0258829695897973</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.972040938793478</v>
+        <v>-2.973130886018013</v>
       </c>
       <c r="G246">
         <v>0.02784389743225502</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.030112644650092</v>
+        <v>-3.030384304050656</v>
       </c>
       <c r="G247">
         <v>0.02987599481368752</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.1337311355252</v>
+        <v>-3.133745686988748</v>
       </c>
       <c r="G249">
         <v>0.02107833895112754</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.838878663055645</v>
+        <v>-2.838986334009482</v>
       </c>
       <c r="G254">
         <v>0.01405980186843525</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.891234182806454</v>
+        <v>-2.89146679675987</v>
       </c>
       <c r="G255">
         <v>0.02323399634459555</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.943950082001421</v>
+        <v>-2.945227331993918</v>
       </c>
       <c r="G256">
         <v>0.02858412731046478</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.997916767526268</v>
+        <v>-2.998255058975948</v>
       </c>
       <c r="G257">
         <v>0.03284042604117943</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.052314220133412</v>
+        <v>-3.052835138861332</v>
       </c>
       <c r="G258">
         <v>0.0331299527447062</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.11050862290826</v>
+        <v>-3.110555210591857</v>
       </c>
       <c r="G259">
         <v>0.03168603019164751</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.162435786606654</v>
+        <v>-3.162481041049557</v>
       </c>
       <c r="G260">
         <v>0.02601223173090694</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.207582054382438</v>
+        <v>-3.207712770701817</v>
       </c>
       <c r="G261">
         <v>0.01866105407224383</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.253778485803648</v>
+        <v>-3.253796133374098</v>
       </c>
       <c r="G262">
         <v>0.009161081613008493</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.858897344617218</v>
+        <v>-2.859070299199904</v>
       </c>
       <c r="G265">
         <v>0.01400427470218801</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.909097442309392</v>
+        <v>-2.909407912452819</v>
       </c>
       <c r="G266">
         <v>0.02390569028472944</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.959828737767185</v>
+        <v>-2.96045303866315</v>
       </c>
       <c r="G267">
         <v>0.03080484853150156</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.01465625992533</v>
+        <v>-3.01532023214538</v>
       </c>
       <c r="G268">
         <v>0.03412474194028792</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.072048796538256</v>
+        <v>-3.072367158187463</v>
       </c>
       <c r="G269">
         <v>0.03538792347026121</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.128149321424179</v>
+        <v>-3.128278775455782</v>
       </c>
       <c r="G270">
         <v>0.03289771531596686</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.184667577385882</v>
+        <v>-3.184726802934266</v>
       </c>
       <c r="G271">
         <v>0.02768187098122832</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.229813167729944</v>
+        <v>-3.229929319689928</v>
       </c>
       <c r="G272">
         <v>0.02159581443522185</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.276008126138307</v>
+        <v>-3.276020265813655</v>
       </c>
       <c r="G273">
         <v>0.01044569055742101</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.87285407532947</v>
+        <v>-2.873234254606318</v>
       </c>
       <c r="G276">
         <v>0.01486598680835316</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.923631935511125</v>
+        <v>-2.924198977268044</v>
       </c>
       <c r="G277">
         <v>0.02533864457837431</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.976216743951547</v>
+        <v>-2.976872626081192</v>
       </c>
       <c r="G278">
         <v>0.03306039311748377</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.029980930667849</v>
+        <v>-3.03049243291255</v>
       </c>
       <c r="G279">
         <v>0.0375182849664073</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.083991991420082</v>
+        <v>-3.084383726349008</v>
       </c>
       <c r="G280">
         <v>0.03797918390227872</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.140533448405018</v>
+        <v>-3.140926434960515</v>
       </c>
       <c r="G281">
         <v>0.03675342867240716</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.19941826447763</v>
+        <v>-3.199497646632475</v>
       </c>
       <c r="G282">
         <v>0.03158792589061377</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.24693421743605</v>
+        <v>-3.247071496443215</v>
       </c>
       <c r="G283">
         <v>0.02274437080555003</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.885531249982637</v>
+        <v>-2.885744477565586</v>
       </c>
       <c r="G287">
         <v>0.01518624310965766</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.935483658410539</v>
+        <v>-2.936147913552246</v>
       </c>
       <c r="G288">
         <v>0.02606627037302189</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.988203228622369</v>
+        <v>-2.988972228865204</v>
       </c>
       <c r="G289">
         <v>0.03449447868243061</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.039984912780089</v>
+        <v>-3.040877505813383</v>
       </c>
       <c r="G290">
         <v>0.03939160765637717</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.095173769281931</v>
+        <v>-3.095595064251541</v>
       </c>
       <c r="G291">
         <v>0.04100735162852009</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.15138756190031</v>
+        <v>-3.152007659674048</v>
       </c>
       <c r="G292">
         <v>0.03812851434707665</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.209761513314905</v>
+        <v>-3.210062776214664</v>
       </c>
       <c r="G293">
         <v>0.03305956458146675</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.261076354875973</v>
+        <v>-3.26118354845012</v>
       </c>
       <c r="G294">
         <v>0.02447144202760199</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.307733630448004</v>
+        <v>-3.307765102148605</v>
       </c>
       <c r="G295">
         <v>0.01286499952592696</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.895052561830836</v>
+        <v>-2.895457108605373</v>
       </c>
       <c r="G298">
         <v>0.01556262614777415</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.945188728468512</v>
+        <v>-2.945957102876949</v>
       </c>
       <c r="G299">
         <v>0.02723173399584677</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.996519772472533</v>
+        <v>-2.997642875714143</v>
       </c>
       <c r="G300">
         <v>0.03618273518453208</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.048765442939055</v>
+        <v>-3.049720503093404</v>
       </c>
       <c r="G301">
         <v>0.04126619479792804</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.103723384256766</v>
+        <v>-3.104686286276323</v>
       </c>
       <c r="G302">
         <v>0.04216517920802842</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.159836879332028</v>
+        <v>-3.160634175641168</v>
       </c>
       <c r="G303">
         <v>0.04027843890619609</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.218600585828903</v>
+        <v>-3.218913341018601</v>
       </c>
       <c r="G304">
         <v>0.03428388919593883</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.272831621228401</v>
+        <v>-3.272974262869586</v>
       </c>
       <c r="G305">
         <v>0.02605368459123625</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.319375437074084</v>
+        <v>-3.319418477894028</v>
       </c>
       <c r="G306">
         <v>0.01357758315532842</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.902508326638444</v>
+        <v>-2.902924351063092</v>
       </c>
       <c r="G309">
         <v>0.01591002531321983</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.952453669354786</v>
+        <v>-2.953702608672477</v>
       </c>
       <c r="G310">
         <v>0.02786667660512387</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.003508688441254</v>
+        <v>-3.004644293187062</v>
       </c>
       <c r="G311">
         <v>0.0369663444322621</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.056053281612564</v>
+        <v>-3.057159037119633</v>
       </c>
       <c r="G312">
         <v>0.04219913561066213</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.111365498880904</v>
+        <v>-3.112501212260708</v>
       </c>
       <c r="G313">
         <v>0.04379598138417129</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.167135294096488</v>
+        <v>-3.168082731614255</v>
       </c>
       <c r="G314">
         <v>0.04188647452617444</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.22534859919333</v>
+        <v>-3.225733327982494</v>
       </c>
       <c r="G315">
         <v>0.03652315594573829</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.282837733623921</v>
+        <v>-3.282936414633942</v>
       </c>
       <c r="G316">
         <v>0.02649986563811124</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.329098416430344</v>
+        <v>-3.32919926479053</v>
       </c>
       <c r="G317">
         <v>0.01444246516859898</v>
